--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="229">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1316,6 +1316,51 @@
     <t xml:space="preserve">migrantDebt</t>
   </si>
   <si>
+    <t xml:space="preserve">myanmarNational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thailandNational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sameEthnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">migratedThailandBeforeMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">migratedThailandAfterMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentlyInThailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remittances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrangedForOthers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previousRecruiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brokerForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agentForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruiterAgentForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seekHelpAgain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostValuableHelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causedProblems</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
 </sst>
@@ -1424,7 +1469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1469,10 +1514,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1501,16 +1542,14 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="B40:C40 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.1010101010101"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0353535353535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1666666666667"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,18 +1601,18 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B40:C40 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0353535353535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.8636363636364"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.0555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.9191919191919"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6363636363636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3838383838384"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2525252525253"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1694,16 +1733,16 @@
   <dimension ref="1:59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="B40:C40 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="35.2777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="53.8535353535354"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="54.4646464646465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="91.7424242424243"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="5.47979797979798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="34.4747474747475"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="52.6515151515152"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.1818181818182"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="89.7979797979798"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="5.21212121212121"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30584,52 +30623,52 @@
       <c r="C49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
     </row>
@@ -30652,26 +30691,25 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="B40:C40 E11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5656565656566"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.3737373737374"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6969696969697"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.969696969697"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7171717171717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4242424242424"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1616161616162"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3080808080808"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0505050505051"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.2727272727273"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1212121212121"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30741,7 +30779,7 @@
       <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AMJ1" s="11"/>
+      <c r="AMJ1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
@@ -30887,17 +30925,17 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="B40:C40 B39"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0909090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.6818181818182"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.1161616161616"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.459595959596"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8838383838384"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.9191919191919"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31002,10 +31040,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
@@ -31386,10 +31424,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="s">
@@ -31575,30 +31613,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:39"/>
+  <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40:C40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0909090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.469696969697"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2828282828283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7979797979798"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -31896,6 +31934,126 @@
       </c>
       <c r="C39" s="3" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -31917,19 +32075,19 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B40:C40 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4393939393939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.040404040404"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5959595959596"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="249">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1361,6 +1361,66 @@
     <t xml:space="preserve">causedProblems</t>
   </si>
   <si>
+    <t xml:space="preserve">expectationsDestination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsWorkType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsJobSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsCompanyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsLivingArrangements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsAmountPaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsOftenPaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsWorkingHours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsOvertimeHours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsOvertimePay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsTimeOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsLawfulDeductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsForeignWorkerRights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsContractDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsEarlyTerminationPenalties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsRecruitmentFees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsTransportationCosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsTransportationPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsTransportationDocumentationPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectationsTransportationDocumentationCosts</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
 </sst>
@@ -1547,9 +1607,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0353535353535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6363636363636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0959595959596"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,13 +1668,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6363636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2525252525253"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2323232323232"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8484848484848"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7171717171717"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1738,11 +1798,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="34.4747474747475"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="52.6515151515152"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.1818181818182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="89.7979797979798"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="5.21212121212121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="33.6767676767677"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="51.5808080808081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="51.979797979798"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="87.9292929292929"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.94444444444444"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30696,20 +30756,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4242424242424"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1616161616162"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3080808080808"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0505050505051"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.2727272727273"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1212121212121"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95454545454546"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7626262626263"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.7575757575758"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9040404040404"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5151515151515"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.469696969697"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5858585858586"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68686868686869"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.4494949494949"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30930,12 +30989,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.459595959596"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8838383838384"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.9191919191919"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7878787878788"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.0808080808081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.7171717171717"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31613,20 +31671,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:54"/>
+  <dimension ref="1:75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2828282828283"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7979797979798"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.8939393939394"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1313131313131"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32054,6 +32111,166 @@
       </c>
       <c r="C54" s="3" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -32080,14 +32297,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.040404040404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5959595959596"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5050505050505"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9292929292929"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="269">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1419,6 +1419,66 @@
   </si>
   <si>
     <t xml:space="preserve">expectationsTransportationDocumentationCosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lockedInRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refusedOvertimePay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limitedBreaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workWhenSick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dangerousWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workedLonger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restrictedMovement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threatenNoPay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threatenDismissal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takenPassport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threatenInjury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damagedBelongings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slappedHitThrowSomething</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushedKickedBeaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiedUpChoked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threatenWeaponUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burnYou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forcedSex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forcedSubstances</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -31671,10 +31731,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:75"/>
+  <dimension ref="1:96"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -32271,6 +32331,166 @@
       </c>
       <c r="C75" s="3" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -32303,7 +32523,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="280">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -362,6 +362,39 @@
   </si>
   <si>
     <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.age_is_approximate_age()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageApproximate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.age_is_birth_year_myanmar()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageBirthYearMyanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.age_is_birth_year_thailand()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageBirthYearThailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.age_is_birth_year_english()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageBirthYearEnglish</t>
   </si>
   <si>
     <t xml:space="preserve">gender</t>
@@ -1535,7 +1568,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1552,6 +1585,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1589,7 +1628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1636,6 +1675,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -30808,17 +30851,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:10"/>
+  <dimension ref="1:22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1565656565657"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7626262626263"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.7575757575758"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7575757575758"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2575757575758"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9040404040404"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5151515151515"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.469696969697"/>
@@ -30964,65 +31008,193 @@
       <c r="I5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="9" t="s">
+    <row r="6" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="12"/>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E10" s="12"/>
+      <c r="F10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="12"/>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="12"/>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="I17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>66</v>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="9" t="s">
+    <row r="19" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>67</v>
+      <c r="G19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="9" t="s">
+    <row r="20" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
+      <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="9" t="s">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>71</v>
+      <c r="G21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
-        <v>72</v>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -31061,10 +31233,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -31078,13 +31250,13 @@
         <v>65</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31092,13 +31264,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31106,13 +31278,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31120,13 +31292,13 @@
         <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31134,13 +31306,13 @@
         <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31148,13 +31320,13 @@
         <v>65</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31165,380 +31337,380 @@
     </row>
     <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31549,170 +31721,170 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -31731,10 +31903,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:96"/>
+  <dimension ref="1:101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -31748,25 +31920,25 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31790,75 +31962,71 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>64</v>
+      <c r="B6" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>64</v>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>64</v>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>64</v>
+      <c r="B9" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>184</v>
+      <c r="C11" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>185</v>
+      <c r="C12" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>186</v>
+      <c r="C13" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>188</v>
+      <c r="C14" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31866,7 +32034,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31874,7 +32042,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31882,7 +32050,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31890,7 +32058,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31898,7 +32066,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31906,7 +32074,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31914,7 +32082,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31922,7 +32090,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31930,7 +32098,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31938,7 +32106,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31946,7 +32114,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31954,7 +32122,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31962,7 +32130,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31970,7 +32138,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31978,7 +32146,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31986,7 +32154,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31994,7 +32162,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32002,7 +32170,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32010,7 +32178,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32018,7 +32186,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32026,7 +32194,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32034,7 +32202,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32042,7 +32210,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32050,7 +32218,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32058,7 +32226,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32066,7 +32234,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32074,7 +32242,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32082,7 +32250,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32090,7 +32258,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32098,7 +32266,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32106,7 +32274,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32114,7 +32282,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32122,7 +32290,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32130,7 +32298,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32138,7 +32306,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32146,7 +32314,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32154,7 +32322,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32162,7 +32330,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32170,7 +32338,15 @@
         <v>64</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32178,7 +32354,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32186,7 +32362,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32194,7 +32370,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32202,15 +32378,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32218,7 +32386,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32226,7 +32394,7 @@
         <v>64</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32234,7 +32402,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32242,7 +32410,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32250,7 +32418,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32258,7 +32426,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32266,7 +32434,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32274,7 +32442,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32282,7 +32450,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32290,7 +32458,7 @@
         <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32298,7 +32466,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32306,7 +32474,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32314,7 +32482,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32322,7 +32490,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32330,7 +32498,15 @@
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32338,7 +32514,7 @@
         <v>64</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32346,7 +32522,7 @@
         <v>64</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32354,7 +32530,7 @@
         <v>64</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32362,15 +32538,7 @@
         <v>64</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32378,7 +32546,7 @@
         <v>64</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32386,7 +32554,7 @@
         <v>64</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32394,7 +32562,7 @@
         <v>64</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32402,7 +32570,7 @@
         <v>64</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32410,7 +32578,7 @@
         <v>64</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32418,7 +32586,7 @@
         <v>64</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32426,7 +32594,7 @@
         <v>64</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32434,7 +32602,7 @@
         <v>64</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32442,7 +32610,7 @@
         <v>64</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32450,7 +32618,7 @@
         <v>64</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32458,7 +32626,7 @@
         <v>64</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32466,7 +32634,7 @@
         <v>64</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32474,7 +32642,7 @@
         <v>64</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32482,7 +32650,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32490,7 +32658,47 @@
         <v>64</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -32523,7 +32731,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="289">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
   </si>
   <si>
     <t xml:space="preserve">relationshipToMigrant</t>
@@ -1516,6 +1519,30 @@
   <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
+  <si>
+    <t xml:space="preserve">age_is_approximate_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('age'), 'approximate age')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_is_birth_year_myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('age'), 'birth year myanmar')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_is_birth_year_thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('age'), 'birth year thailand')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_is_birth_year_english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('age'), 'birth year english')</t>
+  </si>
 </sst>
 </file>
 
@@ -1710,11 +1737,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6363636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0959595959596"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2323232323232"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1616161616162"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,11 +1798,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2323232323232"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8484848484848"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7171717171717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9646464646465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3181818181818"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1818181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1901,11 +1930,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="33.6767676767677"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="51.5808080808081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="51.979797979798"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="87.9292929292929"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.94444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="33.0050505050505"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="50.3787878787879"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="50.9141414141414"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="85.9242424242424"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.81313131313131"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30854,25 +30883,27 @@
   <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1565656565657"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7626262626263"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7575757575758"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2575757575758"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9040404040404"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5151515151515"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.469696969697"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5858585858586"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68686868686869"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.88888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3636363636364"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3585858585859"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3535353535354"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3737373737374"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.6717171717172"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.0555555555556"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31155,13 +31186,13 @@
         <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31172,10 +31203,10 @@
         <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31186,15 +31217,15 @@
         <v>64</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -31215,17 +31246,18 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7878787878788"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.0808080808081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.7171717171717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5909090909091"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2575757575758"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5151515151515"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31233,10 +31265,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -31250,13 +31282,13 @@
         <v>65</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31264,13 +31296,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31278,13 +31310,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31292,13 +31324,13 @@
         <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31306,13 +31338,13 @@
         <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,13 +31352,13 @@
         <v>65</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31340,13 +31372,13 @@
         <v>77</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31354,13 +31386,13 @@
         <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31368,13 +31400,13 @@
         <v>77</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31382,335 +31414,335 @@
         <v>77</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31721,170 +31753,170 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -31906,21 +31938,22 @@
   <dimension ref="1:101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.8939393939394"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1313131313131"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.959595959596"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4646464646465"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -31932,13 +31965,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32007,10 +32040,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32018,7 +32051,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32026,7 +32059,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32034,7 +32067,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32042,7 +32075,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32050,7 +32083,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32058,7 +32091,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32066,7 +32099,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32074,7 +32107,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32082,7 +32115,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32090,7 +32123,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32098,7 +32131,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32106,7 +32139,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32114,7 +32147,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32122,7 +32155,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32130,7 +32163,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32138,7 +32171,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32146,7 +32179,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32154,7 +32187,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32162,7 +32195,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32170,7 +32203,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32178,7 +32211,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32186,7 +32219,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32194,7 +32227,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32202,7 +32235,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32210,7 +32243,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32218,7 +32251,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32226,7 +32259,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32234,7 +32267,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32242,7 +32275,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32250,7 +32283,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32258,7 +32291,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32266,7 +32299,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32274,7 +32307,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32282,7 +32315,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32290,7 +32323,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32298,7 +32331,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32306,7 +32339,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32314,7 +32347,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32322,7 +32355,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32330,7 +32363,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32338,7 +32371,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32346,7 +32379,7 @@
         <v>64</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32354,7 +32387,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32362,7 +32395,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32370,7 +32403,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32378,7 +32411,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32386,7 +32419,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32394,7 +32427,7 @@
         <v>64</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32402,7 +32435,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32410,7 +32443,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32418,7 +32451,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32426,7 +32459,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32434,7 +32467,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32442,7 +32475,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32450,7 +32483,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32458,7 +32491,7 @@
         <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32466,7 +32499,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32474,7 +32507,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32482,7 +32515,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32490,7 +32523,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32498,7 +32531,7 @@
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32506,7 +32539,7 @@
         <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32514,7 +32547,7 @@
         <v>64</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32522,7 +32555,7 @@
         <v>64</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32530,7 +32563,7 @@
         <v>64</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32538,7 +32571,7 @@
         <v>64</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32546,7 +32579,7 @@
         <v>64</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32554,7 +32587,7 @@
         <v>64</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32562,7 +32595,7 @@
         <v>64</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32570,7 +32603,7 @@
         <v>64</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32578,7 +32611,7 @@
         <v>64</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32586,7 +32619,7 @@
         <v>64</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32594,7 +32627,7 @@
         <v>64</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32602,7 +32635,7 @@
         <v>64</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32610,7 +32643,7 @@
         <v>64</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32618,7 +32651,7 @@
         <v>64</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32626,7 +32659,7 @@
         <v>64</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32634,7 +32667,7 @@
         <v>64</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32642,7 +32675,7 @@
         <v>64</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32650,7 +32683,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32658,7 +32691,7 @@
         <v>64</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32666,7 +32699,7 @@
         <v>64</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32674,7 +32707,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32682,7 +32715,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32690,7 +32723,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32698,7 +32731,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -32717,24 +32750,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5050505050505"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9292929292929"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.8434343434343"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6363636363636"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="301">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -148,6 +148,247 @@
     <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
   </si>
   <si>
+    <t xml:space="preserve">age_approximate_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximate age: Specify*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">age_birth_year_myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">မွေးဖွားသော ခုနှစ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ပြက္ခဒိန် မြန်မာသက္ကရာဇ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">age_birth_year_thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of Birth: Thai BE*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">မွေးဖွားသော ခုနှစ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ထိုင်းသက္ကရာဇ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">age_birth_year_english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of Birth: English Calendar*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">မွေးဖွားသော ခုနှစ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အင်္ဂလိပ်သက္ကရာဇ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">node_attribute_C</t>
   </si>
   <si>
@@ -203,6 +444,52 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">other_gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: Specify*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အခြား</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">node_attribute_D</t>
   </si>
   <si>
@@ -249,13 +536,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">other_relationship</t>
+  </si>
+  <si>
     <t xml:space="preserve">node_attribute_E</t>
   </si>
   <si>
     <t xml:space="preserve">How frequently do you go to this person when you need advice on personal matters?</t>
   </si>
   <si>
-    <t xml:space="preserve">ကိုယ်ရေးကိုယ်တာ ကိစ္စတွေ အကြောင်း အကူအညီ၊ အကြံဉာဏ်၊ ဒါမှ မဟုတ် စကားစမြည် ပြောဖို့အတွက် ဘယ်လောက်တစ်ကြိမ် သွားလေ့ ရှိခဲ့သလဲ။ </t>
+    <t xml:space="preserve">ကိုယ်ရေးကိုယ်တာ ကိစ္စတွေ အကြောင်း အကြံဉာဏ်လိုအပ်တဲ့အချိန်မှာ အဲ့ဒီသူဆီကို ဘယ်လောက်တစ်ကြိမ် သွားလေ့ ရှိခဲ့သလဲ။</t>
   </si>
   <si>
     <t xml:space="preserve">node_attribute_F</t>
@@ -400,10 +690,22 @@
     <t xml:space="preserve">gender</t>
   </si>
   <si>
+    <t xml:space="preserve">calculates.gender_is_other()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genderOther</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_multiple</t>
   </si>
   <si>
     <t xml:space="preserve">relationshipToMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.relationship_is_other()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relationshipOther</t>
   </si>
   <si>
     <t xml:space="preserve">personalMattersDiscussionFrequency</t>
@@ -430,212 +732,13 @@
     <t xml:space="preserve">approximate age</t>
   </si>
   <si>
-    <t xml:space="preserve">Approximate age: Specify*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">birth year myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">မွေးဖွားသော ခုနှစ်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ပြက္ခဒိန် မြန်မာသက္ကရာဇ်</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">birth year thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Thai BE*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">မွေးဖွားသော ခုနှစ်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ထိုင်းသက္ကရာဇ်</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">birth year english</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year of Birth: English Calendar*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">မွေးဖွားသော ခုနှစ်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အင်္ဂလိပ်သက္ကရာဇ်</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">don't know</t>
@@ -675,49 +778,6 @@
   </si>
   <si>
     <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other: Specify*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အခြား</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Spouse</t>
@@ -990,39 +1050,6 @@
   </si>
   <si>
     <t xml:space="preserve">ပွဲစား</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other: Specify</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အခြား</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ဖော်ပြရန်</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">never</t>
@@ -1543,6 +1570,18 @@
   <si>
     <t xml:space="preserve">selected(data('age'), 'birth year english')</t>
   </si>
+  <si>
+    <t xml:space="preserve">gender_is_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('gender'), 'other')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relationship_is_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('relationshipToMigrant'), 'other')</t>
+  </si>
 </sst>
 </file>
 
@@ -1595,7 +1634,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1612,12 +1651,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,7 +1688,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1704,10 +1737,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1737,11 +1766,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2323232323232"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1616161616162"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9646464646465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2272727272727"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,13 +1827,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9646464646465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3181818181818"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1818181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5656565656566"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6464646464646"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1922,19 +1951,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:59"/>
+  <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="33.0050505050505"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="50.3787878787879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="50.9141414141414"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="85.9242424242424"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.81313131313131"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="32.2020202020202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="49.3080808080808"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="49.7121212121212"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="84.0505050505051"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.67676767676768"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,7 +5071,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="9" t="s">
         <v>34</v>
@@ -6074,7 +6103,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="9" t="s">
         <v>37</v>
@@ -7106,7 +7135,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
@@ -8138,7 +8167,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="9" t="s">
         <v>43</v>
@@ -9170,11 +9199,17 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -10196,11 +10231,17 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -11222,11 +11263,17 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -12248,11 +12295,17 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="0"/>
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -13274,11 +13327,17 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -14300,11 +14359,17 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="0"/>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -15326,11 +15391,11 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="0"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -16356,7 +16421,7 @@
       <c r="A16" s="0"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="0"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -17380,9 +17445,9 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="0"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -18404,7 +18469,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -19432,9 +19497,9 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="0"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -20456,9 +20521,9 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -21482,9 +21547,9 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="0"/>
       <c r="C21" s="8"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -22510,8 +22575,8 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="0"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -23537,7 +23602,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -24562,7 +24627,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
@@ -26612,7 +26677,7 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
@@ -27638,10 +27703,10 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
@@ -28667,7 +28732,7 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="0"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -29692,8 +29757,8 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
@@ -30716,43 +30781,6169 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="8"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+      <c r="AX30" s="0"/>
+      <c r="AY30" s="0"/>
+      <c r="AZ30" s="0"/>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+      <c r="BM30" s="0"/>
+      <c r="BN30" s="0"/>
+      <c r="BO30" s="0"/>
+      <c r="BP30" s="0"/>
+      <c r="BQ30" s="0"/>
+      <c r="BR30" s="0"/>
+      <c r="BS30" s="0"/>
+      <c r="BT30" s="0"/>
+      <c r="BU30" s="0"/>
+      <c r="BV30" s="0"/>
+      <c r="BW30" s="0"/>
+      <c r="BX30" s="0"/>
+      <c r="BY30" s="0"/>
+      <c r="BZ30" s="0"/>
+      <c r="CA30" s="0"/>
+      <c r="CB30" s="0"/>
+      <c r="CC30" s="0"/>
+      <c r="CD30" s="0"/>
+      <c r="CE30" s="0"/>
+      <c r="CF30" s="0"/>
+      <c r="CG30" s="0"/>
+      <c r="CH30" s="0"/>
+      <c r="CI30" s="0"/>
+      <c r="CJ30" s="0"/>
+      <c r="CK30" s="0"/>
+      <c r="CL30" s="0"/>
+      <c r="CM30" s="0"/>
+      <c r="CN30" s="0"/>
+      <c r="CO30" s="0"/>
+      <c r="CP30" s="0"/>
+      <c r="CQ30" s="0"/>
+      <c r="CR30" s="0"/>
+      <c r="CS30" s="0"/>
+      <c r="CT30" s="0"/>
+      <c r="CU30" s="0"/>
+      <c r="CV30" s="0"/>
+      <c r="CW30" s="0"/>
+      <c r="CX30" s="0"/>
+      <c r="CY30" s="0"/>
+      <c r="CZ30" s="0"/>
+      <c r="DA30" s="0"/>
+      <c r="DB30" s="0"/>
+      <c r="DC30" s="0"/>
+      <c r="DD30" s="0"/>
+      <c r="DE30" s="0"/>
+      <c r="DF30" s="0"/>
+      <c r="DG30" s="0"/>
+      <c r="DH30" s="0"/>
+      <c r="DI30" s="0"/>
+      <c r="DJ30" s="0"/>
+      <c r="DK30" s="0"/>
+      <c r="DL30" s="0"/>
+      <c r="DM30" s="0"/>
+      <c r="DN30" s="0"/>
+      <c r="DO30" s="0"/>
+      <c r="DP30" s="0"/>
+      <c r="DQ30" s="0"/>
+      <c r="DR30" s="0"/>
+      <c r="DS30" s="0"/>
+      <c r="DT30" s="0"/>
+      <c r="DU30" s="0"/>
+      <c r="DV30" s="0"/>
+      <c r="DW30" s="0"/>
+      <c r="DX30" s="0"/>
+      <c r="DY30" s="0"/>
+      <c r="DZ30" s="0"/>
+      <c r="EA30" s="0"/>
+      <c r="EB30" s="0"/>
+      <c r="EC30" s="0"/>
+      <c r="ED30" s="0"/>
+      <c r="EE30" s="0"/>
+      <c r="EF30" s="0"/>
+      <c r="EG30" s="0"/>
+      <c r="EH30" s="0"/>
+      <c r="EI30" s="0"/>
+      <c r="EJ30" s="0"/>
+      <c r="EK30" s="0"/>
+      <c r="EL30" s="0"/>
+      <c r="EM30" s="0"/>
+      <c r="EN30" s="0"/>
+      <c r="EO30" s="0"/>
+      <c r="EP30" s="0"/>
+      <c r="EQ30" s="0"/>
+      <c r="ER30" s="0"/>
+      <c r="ES30" s="0"/>
+      <c r="ET30" s="0"/>
+      <c r="EU30" s="0"/>
+      <c r="EV30" s="0"/>
+      <c r="EW30" s="0"/>
+      <c r="EX30" s="0"/>
+      <c r="EY30" s="0"/>
+      <c r="EZ30" s="0"/>
+      <c r="FA30" s="0"/>
+      <c r="FB30" s="0"/>
+      <c r="FC30" s="0"/>
+      <c r="FD30" s="0"/>
+      <c r="FE30" s="0"/>
+      <c r="FF30" s="0"/>
+      <c r="FG30" s="0"/>
+      <c r="FH30" s="0"/>
+      <c r="FI30" s="0"/>
+      <c r="FJ30" s="0"/>
+      <c r="FK30" s="0"/>
+      <c r="FL30" s="0"/>
+      <c r="FM30" s="0"/>
+      <c r="FN30" s="0"/>
+      <c r="FO30" s="0"/>
+      <c r="FP30" s="0"/>
+      <c r="FQ30" s="0"/>
+      <c r="FR30" s="0"/>
+      <c r="FS30" s="0"/>
+      <c r="FT30" s="0"/>
+      <c r="FU30" s="0"/>
+      <c r="FV30" s="0"/>
+      <c r="FW30" s="0"/>
+      <c r="FX30" s="0"/>
+      <c r="FY30" s="0"/>
+      <c r="FZ30" s="0"/>
+      <c r="GA30" s="0"/>
+      <c r="GB30" s="0"/>
+      <c r="GC30" s="0"/>
+      <c r="GD30" s="0"/>
+      <c r="GE30" s="0"/>
+      <c r="GF30" s="0"/>
+      <c r="GG30" s="0"/>
+      <c r="GH30" s="0"/>
+      <c r="GI30" s="0"/>
+      <c r="GJ30" s="0"/>
+      <c r="GK30" s="0"/>
+      <c r="GL30" s="0"/>
+      <c r="GM30" s="0"/>
+      <c r="GN30" s="0"/>
+      <c r="GO30" s="0"/>
+      <c r="GP30" s="0"/>
+      <c r="GQ30" s="0"/>
+      <c r="GR30" s="0"/>
+      <c r="GS30" s="0"/>
+      <c r="GT30" s="0"/>
+      <c r="GU30" s="0"/>
+      <c r="GV30" s="0"/>
+      <c r="GW30" s="0"/>
+      <c r="GX30" s="0"/>
+      <c r="GY30" s="0"/>
+      <c r="GZ30" s="0"/>
+      <c r="HA30" s="0"/>
+      <c r="HB30" s="0"/>
+      <c r="HC30" s="0"/>
+      <c r="HD30" s="0"/>
+      <c r="HE30" s="0"/>
+      <c r="HF30" s="0"/>
+      <c r="HG30" s="0"/>
+      <c r="HH30" s="0"/>
+      <c r="HI30" s="0"/>
+      <c r="HJ30" s="0"/>
+      <c r="HK30" s="0"/>
+      <c r="HL30" s="0"/>
+      <c r="HM30" s="0"/>
+      <c r="HN30" s="0"/>
+      <c r="HO30" s="0"/>
+      <c r="HP30" s="0"/>
+      <c r="HQ30" s="0"/>
+      <c r="HR30" s="0"/>
+      <c r="HS30" s="0"/>
+      <c r="HT30" s="0"/>
+      <c r="HU30" s="0"/>
+      <c r="HV30" s="0"/>
+      <c r="HW30" s="0"/>
+      <c r="HX30" s="0"/>
+      <c r="HY30" s="0"/>
+      <c r="HZ30" s="0"/>
+      <c r="IA30" s="0"/>
+      <c r="IB30" s="0"/>
+      <c r="IC30" s="0"/>
+      <c r="ID30" s="0"/>
+      <c r="IE30" s="0"/>
+      <c r="IF30" s="0"/>
+      <c r="IG30" s="0"/>
+      <c r="IH30" s="0"/>
+      <c r="II30" s="0"/>
+      <c r="IJ30" s="0"/>
+      <c r="IK30" s="0"/>
+      <c r="IL30" s="0"/>
+      <c r="IM30" s="0"/>
+      <c r="IN30" s="0"/>
+      <c r="IO30" s="0"/>
+      <c r="IP30" s="0"/>
+      <c r="IQ30" s="0"/>
+      <c r="IR30" s="0"/>
+      <c r="IS30" s="0"/>
+      <c r="IT30" s="0"/>
+      <c r="IU30" s="0"/>
+      <c r="IV30" s="0"/>
+      <c r="IW30" s="0"/>
+      <c r="IX30" s="0"/>
+      <c r="IY30" s="0"/>
+      <c r="IZ30" s="0"/>
+      <c r="JA30" s="0"/>
+      <c r="JB30" s="0"/>
+      <c r="JC30" s="0"/>
+      <c r="JD30" s="0"/>
+      <c r="JE30" s="0"/>
+      <c r="JF30" s="0"/>
+      <c r="JG30" s="0"/>
+      <c r="JH30" s="0"/>
+      <c r="JI30" s="0"/>
+      <c r="JJ30" s="0"/>
+      <c r="JK30" s="0"/>
+      <c r="JL30" s="0"/>
+      <c r="JM30" s="0"/>
+      <c r="JN30" s="0"/>
+      <c r="JO30" s="0"/>
+      <c r="JP30" s="0"/>
+      <c r="JQ30" s="0"/>
+      <c r="JR30" s="0"/>
+      <c r="JS30" s="0"/>
+      <c r="JT30" s="0"/>
+      <c r="JU30" s="0"/>
+      <c r="JV30" s="0"/>
+      <c r="JW30" s="0"/>
+      <c r="JX30" s="0"/>
+      <c r="JY30" s="0"/>
+      <c r="JZ30" s="0"/>
+      <c r="KA30" s="0"/>
+      <c r="KB30" s="0"/>
+      <c r="KC30" s="0"/>
+      <c r="KD30" s="0"/>
+      <c r="KE30" s="0"/>
+      <c r="KF30" s="0"/>
+      <c r="KG30" s="0"/>
+      <c r="KH30" s="0"/>
+      <c r="KI30" s="0"/>
+      <c r="KJ30" s="0"/>
+      <c r="KK30" s="0"/>
+      <c r="KL30" s="0"/>
+      <c r="KM30" s="0"/>
+      <c r="KN30" s="0"/>
+      <c r="KO30" s="0"/>
+      <c r="KP30" s="0"/>
+      <c r="KQ30" s="0"/>
+      <c r="KR30" s="0"/>
+      <c r="KS30" s="0"/>
+      <c r="KT30" s="0"/>
+      <c r="KU30" s="0"/>
+      <c r="KV30" s="0"/>
+      <c r="KW30" s="0"/>
+      <c r="KX30" s="0"/>
+      <c r="KY30" s="0"/>
+      <c r="KZ30" s="0"/>
+      <c r="LA30" s="0"/>
+      <c r="LB30" s="0"/>
+      <c r="LC30" s="0"/>
+      <c r="LD30" s="0"/>
+      <c r="LE30" s="0"/>
+      <c r="LF30" s="0"/>
+      <c r="LG30" s="0"/>
+      <c r="LH30" s="0"/>
+      <c r="LI30" s="0"/>
+      <c r="LJ30" s="0"/>
+      <c r="LK30" s="0"/>
+      <c r="LL30" s="0"/>
+      <c r="LM30" s="0"/>
+      <c r="LN30" s="0"/>
+      <c r="LO30" s="0"/>
+      <c r="LP30" s="0"/>
+      <c r="LQ30" s="0"/>
+      <c r="LR30" s="0"/>
+      <c r="LS30" s="0"/>
+      <c r="LT30" s="0"/>
+      <c r="LU30" s="0"/>
+      <c r="LV30" s="0"/>
+      <c r="LW30" s="0"/>
+      <c r="LX30" s="0"/>
+      <c r="LY30" s="0"/>
+      <c r="LZ30" s="0"/>
+      <c r="MA30" s="0"/>
+      <c r="MB30" s="0"/>
+      <c r="MC30" s="0"/>
+      <c r="MD30" s="0"/>
+      <c r="ME30" s="0"/>
+      <c r="MF30" s="0"/>
+      <c r="MG30" s="0"/>
+      <c r="MH30" s="0"/>
+      <c r="MI30" s="0"/>
+      <c r="MJ30" s="0"/>
+      <c r="MK30" s="0"/>
+      <c r="ML30" s="0"/>
+      <c r="MM30" s="0"/>
+      <c r="MN30" s="0"/>
+      <c r="MO30" s="0"/>
+      <c r="MP30" s="0"/>
+      <c r="MQ30" s="0"/>
+      <c r="MR30" s="0"/>
+      <c r="MS30" s="0"/>
+      <c r="MT30" s="0"/>
+      <c r="MU30" s="0"/>
+      <c r="MV30" s="0"/>
+      <c r="MW30" s="0"/>
+      <c r="MX30" s="0"/>
+      <c r="MY30" s="0"/>
+      <c r="MZ30" s="0"/>
+      <c r="NA30" s="0"/>
+      <c r="NB30" s="0"/>
+      <c r="NC30" s="0"/>
+      <c r="ND30" s="0"/>
+      <c r="NE30" s="0"/>
+      <c r="NF30" s="0"/>
+      <c r="NG30" s="0"/>
+      <c r="NH30" s="0"/>
+      <c r="NI30" s="0"/>
+      <c r="NJ30" s="0"/>
+      <c r="NK30" s="0"/>
+      <c r="NL30" s="0"/>
+      <c r="NM30" s="0"/>
+      <c r="NN30" s="0"/>
+      <c r="NO30" s="0"/>
+      <c r="NP30" s="0"/>
+      <c r="NQ30" s="0"/>
+      <c r="NR30" s="0"/>
+      <c r="NS30" s="0"/>
+      <c r="NT30" s="0"/>
+      <c r="NU30" s="0"/>
+      <c r="NV30" s="0"/>
+      <c r="NW30" s="0"/>
+      <c r="NX30" s="0"/>
+      <c r="NY30" s="0"/>
+      <c r="NZ30" s="0"/>
+      <c r="OA30" s="0"/>
+      <c r="OB30" s="0"/>
+      <c r="OC30" s="0"/>
+      <c r="OD30" s="0"/>
+      <c r="OE30" s="0"/>
+      <c r="OF30" s="0"/>
+      <c r="OG30" s="0"/>
+      <c r="OH30" s="0"/>
+      <c r="OI30" s="0"/>
+      <c r="OJ30" s="0"/>
+      <c r="OK30" s="0"/>
+      <c r="OL30" s="0"/>
+      <c r="OM30" s="0"/>
+      <c r="ON30" s="0"/>
+      <c r="OO30" s="0"/>
+      <c r="OP30" s="0"/>
+      <c r="OQ30" s="0"/>
+      <c r="OR30" s="0"/>
+      <c r="OS30" s="0"/>
+      <c r="OT30" s="0"/>
+      <c r="OU30" s="0"/>
+      <c r="OV30" s="0"/>
+      <c r="OW30" s="0"/>
+      <c r="OX30" s="0"/>
+      <c r="OY30" s="0"/>
+      <c r="OZ30" s="0"/>
+      <c r="PA30" s="0"/>
+      <c r="PB30" s="0"/>
+      <c r="PC30" s="0"/>
+      <c r="PD30" s="0"/>
+      <c r="PE30" s="0"/>
+      <c r="PF30" s="0"/>
+      <c r="PG30" s="0"/>
+      <c r="PH30" s="0"/>
+      <c r="PI30" s="0"/>
+      <c r="PJ30" s="0"/>
+      <c r="PK30" s="0"/>
+      <c r="PL30" s="0"/>
+      <c r="PM30" s="0"/>
+      <c r="PN30" s="0"/>
+      <c r="PO30" s="0"/>
+      <c r="PP30" s="0"/>
+      <c r="PQ30" s="0"/>
+      <c r="PR30" s="0"/>
+      <c r="PS30" s="0"/>
+      <c r="PT30" s="0"/>
+      <c r="PU30" s="0"/>
+      <c r="PV30" s="0"/>
+      <c r="PW30" s="0"/>
+      <c r="PX30" s="0"/>
+      <c r="PY30" s="0"/>
+      <c r="PZ30" s="0"/>
+      <c r="QA30" s="0"/>
+      <c r="QB30" s="0"/>
+      <c r="QC30" s="0"/>
+      <c r="QD30" s="0"/>
+      <c r="QE30" s="0"/>
+      <c r="QF30" s="0"/>
+      <c r="QG30" s="0"/>
+      <c r="QH30" s="0"/>
+      <c r="QI30" s="0"/>
+      <c r="QJ30" s="0"/>
+      <c r="QK30" s="0"/>
+      <c r="QL30" s="0"/>
+      <c r="QM30" s="0"/>
+      <c r="QN30" s="0"/>
+      <c r="QO30" s="0"/>
+      <c r="QP30" s="0"/>
+      <c r="QQ30" s="0"/>
+      <c r="QR30" s="0"/>
+      <c r="QS30" s="0"/>
+      <c r="QT30" s="0"/>
+      <c r="QU30" s="0"/>
+      <c r="QV30" s="0"/>
+      <c r="QW30" s="0"/>
+      <c r="QX30" s="0"/>
+      <c r="QY30" s="0"/>
+      <c r="QZ30" s="0"/>
+      <c r="RA30" s="0"/>
+      <c r="RB30" s="0"/>
+      <c r="RC30" s="0"/>
+      <c r="RD30" s="0"/>
+      <c r="RE30" s="0"/>
+      <c r="RF30" s="0"/>
+      <c r="RG30" s="0"/>
+      <c r="RH30" s="0"/>
+      <c r="RI30" s="0"/>
+      <c r="RJ30" s="0"/>
+      <c r="RK30" s="0"/>
+      <c r="RL30" s="0"/>
+      <c r="RM30" s="0"/>
+      <c r="RN30" s="0"/>
+      <c r="RO30" s="0"/>
+      <c r="RP30" s="0"/>
+      <c r="RQ30" s="0"/>
+      <c r="RR30" s="0"/>
+      <c r="RS30" s="0"/>
+      <c r="RT30" s="0"/>
+      <c r="RU30" s="0"/>
+      <c r="RV30" s="0"/>
+      <c r="RW30" s="0"/>
+      <c r="RX30" s="0"/>
+      <c r="RY30" s="0"/>
+      <c r="RZ30" s="0"/>
+      <c r="SA30" s="0"/>
+      <c r="SB30" s="0"/>
+      <c r="SC30" s="0"/>
+      <c r="SD30" s="0"/>
+      <c r="SE30" s="0"/>
+      <c r="SF30" s="0"/>
+      <c r="SG30" s="0"/>
+      <c r="SH30" s="0"/>
+      <c r="SI30" s="0"/>
+      <c r="SJ30" s="0"/>
+      <c r="SK30" s="0"/>
+      <c r="SL30" s="0"/>
+      <c r="SM30" s="0"/>
+      <c r="SN30" s="0"/>
+      <c r="SO30" s="0"/>
+      <c r="SP30" s="0"/>
+      <c r="SQ30" s="0"/>
+      <c r="SR30" s="0"/>
+      <c r="SS30" s="0"/>
+      <c r="ST30" s="0"/>
+      <c r="SU30" s="0"/>
+      <c r="SV30" s="0"/>
+      <c r="SW30" s="0"/>
+      <c r="SX30" s="0"/>
+      <c r="SY30" s="0"/>
+      <c r="SZ30" s="0"/>
+      <c r="TA30" s="0"/>
+      <c r="TB30" s="0"/>
+      <c r="TC30" s="0"/>
+      <c r="TD30" s="0"/>
+      <c r="TE30" s="0"/>
+      <c r="TF30" s="0"/>
+      <c r="TG30" s="0"/>
+      <c r="TH30" s="0"/>
+      <c r="TI30" s="0"/>
+      <c r="TJ30" s="0"/>
+      <c r="TK30" s="0"/>
+      <c r="TL30" s="0"/>
+      <c r="TM30" s="0"/>
+      <c r="TN30" s="0"/>
+      <c r="TO30" s="0"/>
+      <c r="TP30" s="0"/>
+      <c r="TQ30" s="0"/>
+      <c r="TR30" s="0"/>
+      <c r="TS30" s="0"/>
+      <c r="TT30" s="0"/>
+      <c r="TU30" s="0"/>
+      <c r="TV30" s="0"/>
+      <c r="TW30" s="0"/>
+      <c r="TX30" s="0"/>
+      <c r="TY30" s="0"/>
+      <c r="TZ30" s="0"/>
+      <c r="UA30" s="0"/>
+      <c r="UB30" s="0"/>
+      <c r="UC30" s="0"/>
+      <c r="UD30" s="0"/>
+      <c r="UE30" s="0"/>
+      <c r="UF30" s="0"/>
+      <c r="UG30" s="0"/>
+      <c r="UH30" s="0"/>
+      <c r="UI30" s="0"/>
+      <c r="UJ30" s="0"/>
+      <c r="UK30" s="0"/>
+      <c r="UL30" s="0"/>
+      <c r="UM30" s="0"/>
+      <c r="UN30" s="0"/>
+      <c r="UO30" s="0"/>
+      <c r="UP30" s="0"/>
+      <c r="UQ30" s="0"/>
+      <c r="UR30" s="0"/>
+      <c r="US30" s="0"/>
+      <c r="UT30" s="0"/>
+      <c r="UU30" s="0"/>
+      <c r="UV30" s="0"/>
+      <c r="UW30" s="0"/>
+      <c r="UX30" s="0"/>
+      <c r="UY30" s="0"/>
+      <c r="UZ30" s="0"/>
+      <c r="VA30" s="0"/>
+      <c r="VB30" s="0"/>
+      <c r="VC30" s="0"/>
+      <c r="VD30" s="0"/>
+      <c r="VE30" s="0"/>
+      <c r="VF30" s="0"/>
+      <c r="VG30" s="0"/>
+      <c r="VH30" s="0"/>
+      <c r="VI30" s="0"/>
+      <c r="VJ30" s="0"/>
+      <c r="VK30" s="0"/>
+      <c r="VL30" s="0"/>
+      <c r="VM30" s="0"/>
+      <c r="VN30" s="0"/>
+      <c r="VO30" s="0"/>
+      <c r="VP30" s="0"/>
+      <c r="VQ30" s="0"/>
+      <c r="VR30" s="0"/>
+      <c r="VS30" s="0"/>
+      <c r="VT30" s="0"/>
+      <c r="VU30" s="0"/>
+      <c r="VV30" s="0"/>
+      <c r="VW30" s="0"/>
+      <c r="VX30" s="0"/>
+      <c r="VY30" s="0"/>
+      <c r="VZ30" s="0"/>
+      <c r="WA30" s="0"/>
+      <c r="WB30" s="0"/>
+      <c r="WC30" s="0"/>
+      <c r="WD30" s="0"/>
+      <c r="WE30" s="0"/>
+      <c r="WF30" s="0"/>
+      <c r="WG30" s="0"/>
+      <c r="WH30" s="0"/>
+      <c r="WI30" s="0"/>
+      <c r="WJ30" s="0"/>
+      <c r="WK30" s="0"/>
+      <c r="WL30" s="0"/>
+      <c r="WM30" s="0"/>
+      <c r="WN30" s="0"/>
+      <c r="WO30" s="0"/>
+      <c r="WP30" s="0"/>
+      <c r="WQ30" s="0"/>
+      <c r="WR30" s="0"/>
+      <c r="WS30" s="0"/>
+      <c r="WT30" s="0"/>
+      <c r="WU30" s="0"/>
+      <c r="WV30" s="0"/>
+      <c r="WW30" s="0"/>
+      <c r="WX30" s="0"/>
+      <c r="WY30" s="0"/>
+      <c r="WZ30" s="0"/>
+      <c r="XA30" s="0"/>
+      <c r="XB30" s="0"/>
+      <c r="XC30" s="0"/>
+      <c r="XD30" s="0"/>
+      <c r="XE30" s="0"/>
+      <c r="XF30" s="0"/>
+      <c r="XG30" s="0"/>
+      <c r="XH30" s="0"/>
+      <c r="XI30" s="0"/>
+      <c r="XJ30" s="0"/>
+      <c r="XK30" s="0"/>
+      <c r="XL30" s="0"/>
+      <c r="XM30" s="0"/>
+      <c r="XN30" s="0"/>
+      <c r="XO30" s="0"/>
+      <c r="XP30" s="0"/>
+      <c r="XQ30" s="0"/>
+      <c r="XR30" s="0"/>
+      <c r="XS30" s="0"/>
+      <c r="XT30" s="0"/>
+      <c r="XU30" s="0"/>
+      <c r="XV30" s="0"/>
+      <c r="XW30" s="0"/>
+      <c r="XX30" s="0"/>
+      <c r="XY30" s="0"/>
+      <c r="XZ30" s="0"/>
+      <c r="YA30" s="0"/>
+      <c r="YB30" s="0"/>
+      <c r="YC30" s="0"/>
+      <c r="YD30" s="0"/>
+      <c r="YE30" s="0"/>
+      <c r="YF30" s="0"/>
+      <c r="YG30" s="0"/>
+      <c r="YH30" s="0"/>
+      <c r="YI30" s="0"/>
+      <c r="YJ30" s="0"/>
+      <c r="YK30" s="0"/>
+      <c r="YL30" s="0"/>
+      <c r="YM30" s="0"/>
+      <c r="YN30" s="0"/>
+      <c r="YO30" s="0"/>
+      <c r="YP30" s="0"/>
+      <c r="YQ30" s="0"/>
+      <c r="YR30" s="0"/>
+      <c r="YS30" s="0"/>
+      <c r="YT30" s="0"/>
+      <c r="YU30" s="0"/>
+      <c r="YV30" s="0"/>
+      <c r="YW30" s="0"/>
+      <c r="YX30" s="0"/>
+      <c r="YY30" s="0"/>
+      <c r="YZ30" s="0"/>
+      <c r="ZA30" s="0"/>
+      <c r="ZB30" s="0"/>
+      <c r="ZC30" s="0"/>
+      <c r="ZD30" s="0"/>
+      <c r="ZE30" s="0"/>
+      <c r="ZF30" s="0"/>
+      <c r="ZG30" s="0"/>
+      <c r="ZH30" s="0"/>
+      <c r="ZI30" s="0"/>
+      <c r="ZJ30" s="0"/>
+      <c r="ZK30" s="0"/>
+      <c r="ZL30" s="0"/>
+      <c r="ZM30" s="0"/>
+      <c r="ZN30" s="0"/>
+      <c r="ZO30" s="0"/>
+      <c r="ZP30" s="0"/>
+      <c r="ZQ30" s="0"/>
+      <c r="ZR30" s="0"/>
+      <c r="ZS30" s="0"/>
+      <c r="ZT30" s="0"/>
+      <c r="ZU30" s="0"/>
+      <c r="ZV30" s="0"/>
+      <c r="ZW30" s="0"/>
+      <c r="ZX30" s="0"/>
+      <c r="ZY30" s="0"/>
+      <c r="ZZ30" s="0"/>
+      <c r="AAA30" s="0"/>
+      <c r="AAB30" s="0"/>
+      <c r="AAC30" s="0"/>
+      <c r="AAD30" s="0"/>
+      <c r="AAE30" s="0"/>
+      <c r="AAF30" s="0"/>
+      <c r="AAG30" s="0"/>
+      <c r="AAH30" s="0"/>
+      <c r="AAI30" s="0"/>
+      <c r="AAJ30" s="0"/>
+      <c r="AAK30" s="0"/>
+      <c r="AAL30" s="0"/>
+      <c r="AAM30" s="0"/>
+      <c r="AAN30" s="0"/>
+      <c r="AAO30" s="0"/>
+      <c r="AAP30" s="0"/>
+      <c r="AAQ30" s="0"/>
+      <c r="AAR30" s="0"/>
+      <c r="AAS30" s="0"/>
+      <c r="AAT30" s="0"/>
+      <c r="AAU30" s="0"/>
+      <c r="AAV30" s="0"/>
+      <c r="AAW30" s="0"/>
+      <c r="AAX30" s="0"/>
+      <c r="AAY30" s="0"/>
+      <c r="AAZ30" s="0"/>
+      <c r="ABA30" s="0"/>
+      <c r="ABB30" s="0"/>
+      <c r="ABC30" s="0"/>
+      <c r="ABD30" s="0"/>
+      <c r="ABE30" s="0"/>
+      <c r="ABF30" s="0"/>
+      <c r="ABG30" s="0"/>
+      <c r="ABH30" s="0"/>
+      <c r="ABI30" s="0"/>
+      <c r="ABJ30" s="0"/>
+      <c r="ABK30" s="0"/>
+      <c r="ABL30" s="0"/>
+      <c r="ABM30" s="0"/>
+      <c r="ABN30" s="0"/>
+      <c r="ABO30" s="0"/>
+      <c r="ABP30" s="0"/>
+      <c r="ABQ30" s="0"/>
+      <c r="ABR30" s="0"/>
+      <c r="ABS30" s="0"/>
+      <c r="ABT30" s="0"/>
+      <c r="ABU30" s="0"/>
+      <c r="ABV30" s="0"/>
+      <c r="ABW30" s="0"/>
+      <c r="ABX30" s="0"/>
+      <c r="ABY30" s="0"/>
+      <c r="ABZ30" s="0"/>
+      <c r="ACA30" s="0"/>
+      <c r="ACB30" s="0"/>
+      <c r="ACC30" s="0"/>
+      <c r="ACD30" s="0"/>
+      <c r="ACE30" s="0"/>
+      <c r="ACF30" s="0"/>
+      <c r="ACG30" s="0"/>
+      <c r="ACH30" s="0"/>
+      <c r="ACI30" s="0"/>
+      <c r="ACJ30" s="0"/>
+      <c r="ACK30" s="0"/>
+      <c r="ACL30" s="0"/>
+      <c r="ACM30" s="0"/>
+      <c r="ACN30" s="0"/>
+      <c r="ACO30" s="0"/>
+      <c r="ACP30" s="0"/>
+      <c r="ACQ30" s="0"/>
+      <c r="ACR30" s="0"/>
+      <c r="ACS30" s="0"/>
+      <c r="ACT30" s="0"/>
+      <c r="ACU30" s="0"/>
+      <c r="ACV30" s="0"/>
+      <c r="ACW30" s="0"/>
+      <c r="ACX30" s="0"/>
+      <c r="ACY30" s="0"/>
+      <c r="ACZ30" s="0"/>
+      <c r="ADA30" s="0"/>
+      <c r="ADB30" s="0"/>
+      <c r="ADC30" s="0"/>
+      <c r="ADD30" s="0"/>
+      <c r="ADE30" s="0"/>
+      <c r="ADF30" s="0"/>
+      <c r="ADG30" s="0"/>
+      <c r="ADH30" s="0"/>
+      <c r="ADI30" s="0"/>
+      <c r="ADJ30" s="0"/>
+      <c r="ADK30" s="0"/>
+      <c r="ADL30" s="0"/>
+      <c r="ADM30" s="0"/>
+      <c r="ADN30" s="0"/>
+      <c r="ADO30" s="0"/>
+      <c r="ADP30" s="0"/>
+      <c r="ADQ30" s="0"/>
+      <c r="ADR30" s="0"/>
+      <c r="ADS30" s="0"/>
+      <c r="ADT30" s="0"/>
+      <c r="ADU30" s="0"/>
+      <c r="ADV30" s="0"/>
+      <c r="ADW30" s="0"/>
+      <c r="ADX30" s="0"/>
+      <c r="ADY30" s="0"/>
+      <c r="ADZ30" s="0"/>
+      <c r="AEA30" s="0"/>
+      <c r="AEB30" s="0"/>
+      <c r="AEC30" s="0"/>
+      <c r="AED30" s="0"/>
+      <c r="AEE30" s="0"/>
+      <c r="AEF30" s="0"/>
+      <c r="AEG30" s="0"/>
+      <c r="AEH30" s="0"/>
+      <c r="AEI30" s="0"/>
+      <c r="AEJ30" s="0"/>
+      <c r="AEK30" s="0"/>
+      <c r="AEL30" s="0"/>
+      <c r="AEM30" s="0"/>
+      <c r="AEN30" s="0"/>
+      <c r="AEO30" s="0"/>
+      <c r="AEP30" s="0"/>
+      <c r="AEQ30" s="0"/>
+      <c r="AER30" s="0"/>
+      <c r="AES30" s="0"/>
+      <c r="AET30" s="0"/>
+      <c r="AEU30" s="0"/>
+      <c r="AEV30" s="0"/>
+      <c r="AEW30" s="0"/>
+      <c r="AEX30" s="0"/>
+      <c r="AEY30" s="0"/>
+      <c r="AEZ30" s="0"/>
+      <c r="AFA30" s="0"/>
+      <c r="AFB30" s="0"/>
+      <c r="AFC30" s="0"/>
+      <c r="AFD30" s="0"/>
+      <c r="AFE30" s="0"/>
+      <c r="AFF30" s="0"/>
+      <c r="AFG30" s="0"/>
+      <c r="AFH30" s="0"/>
+      <c r="AFI30" s="0"/>
+      <c r="AFJ30" s="0"/>
+      <c r="AFK30" s="0"/>
+      <c r="AFL30" s="0"/>
+      <c r="AFM30" s="0"/>
+      <c r="AFN30" s="0"/>
+      <c r="AFO30" s="0"/>
+      <c r="AFP30" s="0"/>
+      <c r="AFQ30" s="0"/>
+      <c r="AFR30" s="0"/>
+      <c r="AFS30" s="0"/>
+      <c r="AFT30" s="0"/>
+      <c r="AFU30" s="0"/>
+      <c r="AFV30" s="0"/>
+      <c r="AFW30" s="0"/>
+      <c r="AFX30" s="0"/>
+      <c r="AFY30" s="0"/>
+      <c r="AFZ30" s="0"/>
+      <c r="AGA30" s="0"/>
+      <c r="AGB30" s="0"/>
+      <c r="AGC30" s="0"/>
+      <c r="AGD30" s="0"/>
+      <c r="AGE30" s="0"/>
+      <c r="AGF30" s="0"/>
+      <c r="AGG30" s="0"/>
+      <c r="AGH30" s="0"/>
+      <c r="AGI30" s="0"/>
+      <c r="AGJ30" s="0"/>
+      <c r="AGK30" s="0"/>
+      <c r="AGL30" s="0"/>
+      <c r="AGM30" s="0"/>
+      <c r="AGN30" s="0"/>
+      <c r="AGO30" s="0"/>
+      <c r="AGP30" s="0"/>
+      <c r="AGQ30" s="0"/>
+      <c r="AGR30" s="0"/>
+      <c r="AGS30" s="0"/>
+      <c r="AGT30" s="0"/>
+      <c r="AGU30" s="0"/>
+      <c r="AGV30" s="0"/>
+      <c r="AGW30" s="0"/>
+      <c r="AGX30" s="0"/>
+      <c r="AGY30" s="0"/>
+      <c r="AGZ30" s="0"/>
+      <c r="AHA30" s="0"/>
+      <c r="AHB30" s="0"/>
+      <c r="AHC30" s="0"/>
+      <c r="AHD30" s="0"/>
+      <c r="AHE30" s="0"/>
+      <c r="AHF30" s="0"/>
+      <c r="AHG30" s="0"/>
+      <c r="AHH30" s="0"/>
+      <c r="AHI30" s="0"/>
+      <c r="AHJ30" s="0"/>
+      <c r="AHK30" s="0"/>
+      <c r="AHL30" s="0"/>
+      <c r="AHM30" s="0"/>
+      <c r="AHN30" s="0"/>
+      <c r="AHO30" s="0"/>
+      <c r="AHP30" s="0"/>
+      <c r="AHQ30" s="0"/>
+      <c r="AHR30" s="0"/>
+      <c r="AHS30" s="0"/>
+      <c r="AHT30" s="0"/>
+      <c r="AHU30" s="0"/>
+      <c r="AHV30" s="0"/>
+      <c r="AHW30" s="0"/>
+      <c r="AHX30" s="0"/>
+      <c r="AHY30" s="0"/>
+      <c r="AHZ30" s="0"/>
+      <c r="AIA30" s="0"/>
+      <c r="AIB30" s="0"/>
+      <c r="AIC30" s="0"/>
+      <c r="AID30" s="0"/>
+      <c r="AIE30" s="0"/>
+      <c r="AIF30" s="0"/>
+      <c r="AIG30" s="0"/>
+      <c r="AIH30" s="0"/>
+      <c r="AII30" s="0"/>
+      <c r="AIJ30" s="0"/>
+      <c r="AIK30" s="0"/>
+      <c r="AIL30" s="0"/>
+      <c r="AIM30" s="0"/>
+      <c r="AIN30" s="0"/>
+      <c r="AIO30" s="0"/>
+      <c r="AIP30" s="0"/>
+      <c r="AIQ30" s="0"/>
+      <c r="AIR30" s="0"/>
+      <c r="AIS30" s="0"/>
+      <c r="AIT30" s="0"/>
+      <c r="AIU30" s="0"/>
+      <c r="AIV30" s="0"/>
+      <c r="AIW30" s="0"/>
+      <c r="AIX30" s="0"/>
+      <c r="AIY30" s="0"/>
+      <c r="AIZ30" s="0"/>
+      <c r="AJA30" s="0"/>
+      <c r="AJB30" s="0"/>
+      <c r="AJC30" s="0"/>
+      <c r="AJD30" s="0"/>
+      <c r="AJE30" s="0"/>
+      <c r="AJF30" s="0"/>
+      <c r="AJG30" s="0"/>
+      <c r="AJH30" s="0"/>
+      <c r="AJI30" s="0"/>
+      <c r="AJJ30" s="0"/>
+      <c r="AJK30" s="0"/>
+      <c r="AJL30" s="0"/>
+      <c r="AJM30" s="0"/>
+      <c r="AJN30" s="0"/>
+      <c r="AJO30" s="0"/>
+      <c r="AJP30" s="0"/>
+      <c r="AJQ30" s="0"/>
+      <c r="AJR30" s="0"/>
+      <c r="AJS30" s="0"/>
+      <c r="AJT30" s="0"/>
+      <c r="AJU30" s="0"/>
+      <c r="AJV30" s="0"/>
+      <c r="AJW30" s="0"/>
+      <c r="AJX30" s="0"/>
+      <c r="AJY30" s="0"/>
+      <c r="AJZ30" s="0"/>
+      <c r="AKA30" s="0"/>
+      <c r="AKB30" s="0"/>
+      <c r="AKC30" s="0"/>
+      <c r="AKD30" s="0"/>
+      <c r="AKE30" s="0"/>
+      <c r="AKF30" s="0"/>
+      <c r="AKG30" s="0"/>
+      <c r="AKH30" s="0"/>
+      <c r="AKI30" s="0"/>
+      <c r="AKJ30" s="0"/>
+      <c r="AKK30" s="0"/>
+      <c r="AKL30" s="0"/>
+      <c r="AKM30" s="0"/>
+      <c r="AKN30" s="0"/>
+      <c r="AKO30" s="0"/>
+      <c r="AKP30" s="0"/>
+      <c r="AKQ30" s="0"/>
+      <c r="AKR30" s="0"/>
+      <c r="AKS30" s="0"/>
+      <c r="AKT30" s="0"/>
+      <c r="AKU30" s="0"/>
+      <c r="AKV30" s="0"/>
+      <c r="AKW30" s="0"/>
+      <c r="AKX30" s="0"/>
+      <c r="AKY30" s="0"/>
+      <c r="AKZ30" s="0"/>
+      <c r="ALA30" s="0"/>
+      <c r="ALB30" s="0"/>
+      <c r="ALC30" s="0"/>
+      <c r="ALD30" s="0"/>
+      <c r="ALE30" s="0"/>
+      <c r="ALF30" s="0"/>
+      <c r="ALG30" s="0"/>
+      <c r="ALH30" s="0"/>
+      <c r="ALI30" s="0"/>
+      <c r="ALJ30" s="0"/>
+      <c r="ALK30" s="0"/>
+      <c r="ALL30" s="0"/>
+      <c r="ALM30" s="0"/>
+      <c r="ALN30" s="0"/>
+      <c r="ALO30" s="0"/>
+      <c r="ALP30" s="0"/>
+      <c r="ALQ30" s="0"/>
+      <c r="ALR30" s="0"/>
+      <c r="ALS30" s="0"/>
+      <c r="ALT30" s="0"/>
+      <c r="ALU30" s="0"/>
+      <c r="ALV30" s="0"/>
+      <c r="ALW30" s="0"/>
+      <c r="ALX30" s="0"/>
+      <c r="ALY30" s="0"/>
+      <c r="ALZ30" s="0"/>
+      <c r="AMA30" s="0"/>
+      <c r="AMB30" s="0"/>
+      <c r="AMC30" s="0"/>
+      <c r="AMD30" s="0"/>
+      <c r="AME30" s="0"/>
+      <c r="AMF30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
+      <c r="AM31" s="0"/>
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+      <c r="AV31" s="0"/>
+      <c r="AW31" s="0"/>
+      <c r="AX31" s="0"/>
+      <c r="AY31" s="0"/>
+      <c r="AZ31" s="0"/>
+      <c r="BA31" s="0"/>
+      <c r="BB31" s="0"/>
+      <c r="BC31" s="0"/>
+      <c r="BD31" s="0"/>
+      <c r="BE31" s="0"/>
+      <c r="BF31" s="0"/>
+      <c r="BG31" s="0"/>
+      <c r="BH31" s="0"/>
+      <c r="BI31" s="0"/>
+      <c r="BJ31" s="0"/>
+      <c r="BK31" s="0"/>
+      <c r="BL31" s="0"/>
+      <c r="BM31" s="0"/>
+      <c r="BN31" s="0"/>
+      <c r="BO31" s="0"/>
+      <c r="BP31" s="0"/>
+      <c r="BQ31" s="0"/>
+      <c r="BR31" s="0"/>
+      <c r="BS31" s="0"/>
+      <c r="BT31" s="0"/>
+      <c r="BU31" s="0"/>
+      <c r="BV31" s="0"/>
+      <c r="BW31" s="0"/>
+      <c r="BX31" s="0"/>
+      <c r="BY31" s="0"/>
+      <c r="BZ31" s="0"/>
+      <c r="CA31" s="0"/>
+      <c r="CB31" s="0"/>
+      <c r="CC31" s="0"/>
+      <c r="CD31" s="0"/>
+      <c r="CE31" s="0"/>
+      <c r="CF31" s="0"/>
+      <c r="CG31" s="0"/>
+      <c r="CH31" s="0"/>
+      <c r="CI31" s="0"/>
+      <c r="CJ31" s="0"/>
+      <c r="CK31" s="0"/>
+      <c r="CL31" s="0"/>
+      <c r="CM31" s="0"/>
+      <c r="CN31" s="0"/>
+      <c r="CO31" s="0"/>
+      <c r="CP31" s="0"/>
+      <c r="CQ31" s="0"/>
+      <c r="CR31" s="0"/>
+      <c r="CS31" s="0"/>
+      <c r="CT31" s="0"/>
+      <c r="CU31" s="0"/>
+      <c r="CV31" s="0"/>
+      <c r="CW31" s="0"/>
+      <c r="CX31" s="0"/>
+      <c r="CY31" s="0"/>
+      <c r="CZ31" s="0"/>
+      <c r="DA31" s="0"/>
+      <c r="DB31" s="0"/>
+      <c r="DC31" s="0"/>
+      <c r="DD31" s="0"/>
+      <c r="DE31" s="0"/>
+      <c r="DF31" s="0"/>
+      <c r="DG31" s="0"/>
+      <c r="DH31" s="0"/>
+      <c r="DI31" s="0"/>
+      <c r="DJ31" s="0"/>
+      <c r="DK31" s="0"/>
+      <c r="DL31" s="0"/>
+      <c r="DM31" s="0"/>
+      <c r="DN31" s="0"/>
+      <c r="DO31" s="0"/>
+      <c r="DP31" s="0"/>
+      <c r="DQ31" s="0"/>
+      <c r="DR31" s="0"/>
+      <c r="DS31" s="0"/>
+      <c r="DT31" s="0"/>
+      <c r="DU31" s="0"/>
+      <c r="DV31" s="0"/>
+      <c r="DW31" s="0"/>
+      <c r="DX31" s="0"/>
+      <c r="DY31" s="0"/>
+      <c r="DZ31" s="0"/>
+      <c r="EA31" s="0"/>
+      <c r="EB31" s="0"/>
+      <c r="EC31" s="0"/>
+      <c r="ED31" s="0"/>
+      <c r="EE31" s="0"/>
+      <c r="EF31" s="0"/>
+      <c r="EG31" s="0"/>
+      <c r="EH31" s="0"/>
+      <c r="EI31" s="0"/>
+      <c r="EJ31" s="0"/>
+      <c r="EK31" s="0"/>
+      <c r="EL31" s="0"/>
+      <c r="EM31" s="0"/>
+      <c r="EN31" s="0"/>
+      <c r="EO31" s="0"/>
+      <c r="EP31" s="0"/>
+      <c r="EQ31" s="0"/>
+      <c r="ER31" s="0"/>
+      <c r="ES31" s="0"/>
+      <c r="ET31" s="0"/>
+      <c r="EU31" s="0"/>
+      <c r="EV31" s="0"/>
+      <c r="EW31" s="0"/>
+      <c r="EX31" s="0"/>
+      <c r="EY31" s="0"/>
+      <c r="EZ31" s="0"/>
+      <c r="FA31" s="0"/>
+      <c r="FB31" s="0"/>
+      <c r="FC31" s="0"/>
+      <c r="FD31" s="0"/>
+      <c r="FE31" s="0"/>
+      <c r="FF31" s="0"/>
+      <c r="FG31" s="0"/>
+      <c r="FH31" s="0"/>
+      <c r="FI31" s="0"/>
+      <c r="FJ31" s="0"/>
+      <c r="FK31" s="0"/>
+      <c r="FL31" s="0"/>
+      <c r="FM31" s="0"/>
+      <c r="FN31" s="0"/>
+      <c r="FO31" s="0"/>
+      <c r="FP31" s="0"/>
+      <c r="FQ31" s="0"/>
+      <c r="FR31" s="0"/>
+      <c r="FS31" s="0"/>
+      <c r="FT31" s="0"/>
+      <c r="FU31" s="0"/>
+      <c r="FV31" s="0"/>
+      <c r="FW31" s="0"/>
+      <c r="FX31" s="0"/>
+      <c r="FY31" s="0"/>
+      <c r="FZ31" s="0"/>
+      <c r="GA31" s="0"/>
+      <c r="GB31" s="0"/>
+      <c r="GC31" s="0"/>
+      <c r="GD31" s="0"/>
+      <c r="GE31" s="0"/>
+      <c r="GF31" s="0"/>
+      <c r="GG31" s="0"/>
+      <c r="GH31" s="0"/>
+      <c r="GI31" s="0"/>
+      <c r="GJ31" s="0"/>
+      <c r="GK31" s="0"/>
+      <c r="GL31" s="0"/>
+      <c r="GM31" s="0"/>
+      <c r="GN31" s="0"/>
+      <c r="GO31" s="0"/>
+      <c r="GP31" s="0"/>
+      <c r="GQ31" s="0"/>
+      <c r="GR31" s="0"/>
+      <c r="GS31" s="0"/>
+      <c r="GT31" s="0"/>
+      <c r="GU31" s="0"/>
+      <c r="GV31" s="0"/>
+      <c r="GW31" s="0"/>
+      <c r="GX31" s="0"/>
+      <c r="GY31" s="0"/>
+      <c r="GZ31" s="0"/>
+      <c r="HA31" s="0"/>
+      <c r="HB31" s="0"/>
+      <c r="HC31" s="0"/>
+      <c r="HD31" s="0"/>
+      <c r="HE31" s="0"/>
+      <c r="HF31" s="0"/>
+      <c r="HG31" s="0"/>
+      <c r="HH31" s="0"/>
+      <c r="HI31" s="0"/>
+      <c r="HJ31" s="0"/>
+      <c r="HK31" s="0"/>
+      <c r="HL31" s="0"/>
+      <c r="HM31" s="0"/>
+      <c r="HN31" s="0"/>
+      <c r="HO31" s="0"/>
+      <c r="HP31" s="0"/>
+      <c r="HQ31" s="0"/>
+      <c r="HR31" s="0"/>
+      <c r="HS31" s="0"/>
+      <c r="HT31" s="0"/>
+      <c r="HU31" s="0"/>
+      <c r="HV31" s="0"/>
+      <c r="HW31" s="0"/>
+      <c r="HX31" s="0"/>
+      <c r="HY31" s="0"/>
+      <c r="HZ31" s="0"/>
+      <c r="IA31" s="0"/>
+      <c r="IB31" s="0"/>
+      <c r="IC31" s="0"/>
+      <c r="ID31" s="0"/>
+      <c r="IE31" s="0"/>
+      <c r="IF31" s="0"/>
+      <c r="IG31" s="0"/>
+      <c r="IH31" s="0"/>
+      <c r="II31" s="0"/>
+      <c r="IJ31" s="0"/>
+      <c r="IK31" s="0"/>
+      <c r="IL31" s="0"/>
+      <c r="IM31" s="0"/>
+      <c r="IN31" s="0"/>
+      <c r="IO31" s="0"/>
+      <c r="IP31" s="0"/>
+      <c r="IQ31" s="0"/>
+      <c r="IR31" s="0"/>
+      <c r="IS31" s="0"/>
+      <c r="IT31" s="0"/>
+      <c r="IU31" s="0"/>
+      <c r="IV31" s="0"/>
+      <c r="IW31" s="0"/>
+      <c r="IX31" s="0"/>
+      <c r="IY31" s="0"/>
+      <c r="IZ31" s="0"/>
+      <c r="JA31" s="0"/>
+      <c r="JB31" s="0"/>
+      <c r="JC31" s="0"/>
+      <c r="JD31" s="0"/>
+      <c r="JE31" s="0"/>
+      <c r="JF31" s="0"/>
+      <c r="JG31" s="0"/>
+      <c r="JH31" s="0"/>
+      <c r="JI31" s="0"/>
+      <c r="JJ31" s="0"/>
+      <c r="JK31" s="0"/>
+      <c r="JL31" s="0"/>
+      <c r="JM31" s="0"/>
+      <c r="JN31" s="0"/>
+      <c r="JO31" s="0"/>
+      <c r="JP31" s="0"/>
+      <c r="JQ31" s="0"/>
+      <c r="JR31" s="0"/>
+      <c r="JS31" s="0"/>
+      <c r="JT31" s="0"/>
+      <c r="JU31" s="0"/>
+      <c r="JV31" s="0"/>
+      <c r="JW31" s="0"/>
+      <c r="JX31" s="0"/>
+      <c r="JY31" s="0"/>
+      <c r="JZ31" s="0"/>
+      <c r="KA31" s="0"/>
+      <c r="KB31" s="0"/>
+      <c r="KC31" s="0"/>
+      <c r="KD31" s="0"/>
+      <c r="KE31" s="0"/>
+      <c r="KF31" s="0"/>
+      <c r="KG31" s="0"/>
+      <c r="KH31" s="0"/>
+      <c r="KI31" s="0"/>
+      <c r="KJ31" s="0"/>
+      <c r="KK31" s="0"/>
+      <c r="KL31" s="0"/>
+      <c r="KM31" s="0"/>
+      <c r="KN31" s="0"/>
+      <c r="KO31" s="0"/>
+      <c r="KP31" s="0"/>
+      <c r="KQ31" s="0"/>
+      <c r="KR31" s="0"/>
+      <c r="KS31" s="0"/>
+      <c r="KT31" s="0"/>
+      <c r="KU31" s="0"/>
+      <c r="KV31" s="0"/>
+      <c r="KW31" s="0"/>
+      <c r="KX31" s="0"/>
+      <c r="KY31" s="0"/>
+      <c r="KZ31" s="0"/>
+      <c r="LA31" s="0"/>
+      <c r="LB31" s="0"/>
+      <c r="LC31" s="0"/>
+      <c r="LD31" s="0"/>
+      <c r="LE31" s="0"/>
+      <c r="LF31" s="0"/>
+      <c r="LG31" s="0"/>
+      <c r="LH31" s="0"/>
+      <c r="LI31" s="0"/>
+      <c r="LJ31" s="0"/>
+      <c r="LK31" s="0"/>
+      <c r="LL31" s="0"/>
+      <c r="LM31" s="0"/>
+      <c r="LN31" s="0"/>
+      <c r="LO31" s="0"/>
+      <c r="LP31" s="0"/>
+      <c r="LQ31" s="0"/>
+      <c r="LR31" s="0"/>
+      <c r="LS31" s="0"/>
+      <c r="LT31" s="0"/>
+      <c r="LU31" s="0"/>
+      <c r="LV31" s="0"/>
+      <c r="LW31" s="0"/>
+      <c r="LX31" s="0"/>
+      <c r="LY31" s="0"/>
+      <c r="LZ31" s="0"/>
+      <c r="MA31" s="0"/>
+      <c r="MB31" s="0"/>
+      <c r="MC31" s="0"/>
+      <c r="MD31" s="0"/>
+      <c r="ME31" s="0"/>
+      <c r="MF31" s="0"/>
+      <c r="MG31" s="0"/>
+      <c r="MH31" s="0"/>
+      <c r="MI31" s="0"/>
+      <c r="MJ31" s="0"/>
+      <c r="MK31" s="0"/>
+      <c r="ML31" s="0"/>
+      <c r="MM31" s="0"/>
+      <c r="MN31" s="0"/>
+      <c r="MO31" s="0"/>
+      <c r="MP31" s="0"/>
+      <c r="MQ31" s="0"/>
+      <c r="MR31" s="0"/>
+      <c r="MS31" s="0"/>
+      <c r="MT31" s="0"/>
+      <c r="MU31" s="0"/>
+      <c r="MV31" s="0"/>
+      <c r="MW31" s="0"/>
+      <c r="MX31" s="0"/>
+      <c r="MY31" s="0"/>
+      <c r="MZ31" s="0"/>
+      <c r="NA31" s="0"/>
+      <c r="NB31" s="0"/>
+      <c r="NC31" s="0"/>
+      <c r="ND31" s="0"/>
+      <c r="NE31" s="0"/>
+      <c r="NF31" s="0"/>
+      <c r="NG31" s="0"/>
+      <c r="NH31" s="0"/>
+      <c r="NI31" s="0"/>
+      <c r="NJ31" s="0"/>
+      <c r="NK31" s="0"/>
+      <c r="NL31" s="0"/>
+      <c r="NM31" s="0"/>
+      <c r="NN31" s="0"/>
+      <c r="NO31" s="0"/>
+      <c r="NP31" s="0"/>
+      <c r="NQ31" s="0"/>
+      <c r="NR31" s="0"/>
+      <c r="NS31" s="0"/>
+      <c r="NT31" s="0"/>
+      <c r="NU31" s="0"/>
+      <c r="NV31" s="0"/>
+      <c r="NW31" s="0"/>
+      <c r="NX31" s="0"/>
+      <c r="NY31" s="0"/>
+      <c r="NZ31" s="0"/>
+      <c r="OA31" s="0"/>
+      <c r="OB31" s="0"/>
+      <c r="OC31" s="0"/>
+      <c r="OD31" s="0"/>
+      <c r="OE31" s="0"/>
+      <c r="OF31" s="0"/>
+      <c r="OG31" s="0"/>
+      <c r="OH31" s="0"/>
+      <c r="OI31" s="0"/>
+      <c r="OJ31" s="0"/>
+      <c r="OK31" s="0"/>
+      <c r="OL31" s="0"/>
+      <c r="OM31" s="0"/>
+      <c r="ON31" s="0"/>
+      <c r="OO31" s="0"/>
+      <c r="OP31" s="0"/>
+      <c r="OQ31" s="0"/>
+      <c r="OR31" s="0"/>
+      <c r="OS31" s="0"/>
+      <c r="OT31" s="0"/>
+      <c r="OU31" s="0"/>
+      <c r="OV31" s="0"/>
+      <c r="OW31" s="0"/>
+      <c r="OX31" s="0"/>
+      <c r="OY31" s="0"/>
+      <c r="OZ31" s="0"/>
+      <c r="PA31" s="0"/>
+      <c r="PB31" s="0"/>
+      <c r="PC31" s="0"/>
+      <c r="PD31" s="0"/>
+      <c r="PE31" s="0"/>
+      <c r="PF31" s="0"/>
+      <c r="PG31" s="0"/>
+      <c r="PH31" s="0"/>
+      <c r="PI31" s="0"/>
+      <c r="PJ31" s="0"/>
+      <c r="PK31" s="0"/>
+      <c r="PL31" s="0"/>
+      <c r="PM31" s="0"/>
+      <c r="PN31" s="0"/>
+      <c r="PO31" s="0"/>
+      <c r="PP31" s="0"/>
+      <c r="PQ31" s="0"/>
+      <c r="PR31" s="0"/>
+      <c r="PS31" s="0"/>
+      <c r="PT31" s="0"/>
+      <c r="PU31" s="0"/>
+      <c r="PV31" s="0"/>
+      <c r="PW31" s="0"/>
+      <c r="PX31" s="0"/>
+      <c r="PY31" s="0"/>
+      <c r="PZ31" s="0"/>
+      <c r="QA31" s="0"/>
+      <c r="QB31" s="0"/>
+      <c r="QC31" s="0"/>
+      <c r="QD31" s="0"/>
+      <c r="QE31" s="0"/>
+      <c r="QF31" s="0"/>
+      <c r="QG31" s="0"/>
+      <c r="QH31" s="0"/>
+      <c r="QI31" s="0"/>
+      <c r="QJ31" s="0"/>
+      <c r="QK31" s="0"/>
+      <c r="QL31" s="0"/>
+      <c r="QM31" s="0"/>
+      <c r="QN31" s="0"/>
+      <c r="QO31" s="0"/>
+      <c r="QP31" s="0"/>
+      <c r="QQ31" s="0"/>
+      <c r="QR31" s="0"/>
+      <c r="QS31" s="0"/>
+      <c r="QT31" s="0"/>
+      <c r="QU31" s="0"/>
+      <c r="QV31" s="0"/>
+      <c r="QW31" s="0"/>
+      <c r="QX31" s="0"/>
+      <c r="QY31" s="0"/>
+      <c r="QZ31" s="0"/>
+      <c r="RA31" s="0"/>
+      <c r="RB31" s="0"/>
+      <c r="RC31" s="0"/>
+      <c r="RD31" s="0"/>
+      <c r="RE31" s="0"/>
+      <c r="RF31" s="0"/>
+      <c r="RG31" s="0"/>
+      <c r="RH31" s="0"/>
+      <c r="RI31" s="0"/>
+      <c r="RJ31" s="0"/>
+      <c r="RK31" s="0"/>
+      <c r="RL31" s="0"/>
+      <c r="RM31" s="0"/>
+      <c r="RN31" s="0"/>
+      <c r="RO31" s="0"/>
+      <c r="RP31" s="0"/>
+      <c r="RQ31" s="0"/>
+      <c r="RR31" s="0"/>
+      <c r="RS31" s="0"/>
+      <c r="RT31" s="0"/>
+      <c r="RU31" s="0"/>
+      <c r="RV31" s="0"/>
+      <c r="RW31" s="0"/>
+      <c r="RX31" s="0"/>
+      <c r="RY31" s="0"/>
+      <c r="RZ31" s="0"/>
+      <c r="SA31" s="0"/>
+      <c r="SB31" s="0"/>
+      <c r="SC31" s="0"/>
+      <c r="SD31" s="0"/>
+      <c r="SE31" s="0"/>
+      <c r="SF31" s="0"/>
+      <c r="SG31" s="0"/>
+      <c r="SH31" s="0"/>
+      <c r="SI31" s="0"/>
+      <c r="SJ31" s="0"/>
+      <c r="SK31" s="0"/>
+      <c r="SL31" s="0"/>
+      <c r="SM31" s="0"/>
+      <c r="SN31" s="0"/>
+      <c r="SO31" s="0"/>
+      <c r="SP31" s="0"/>
+      <c r="SQ31" s="0"/>
+      <c r="SR31" s="0"/>
+      <c r="SS31" s="0"/>
+      <c r="ST31" s="0"/>
+      <c r="SU31" s="0"/>
+      <c r="SV31" s="0"/>
+      <c r="SW31" s="0"/>
+      <c r="SX31" s="0"/>
+      <c r="SY31" s="0"/>
+      <c r="SZ31" s="0"/>
+      <c r="TA31" s="0"/>
+      <c r="TB31" s="0"/>
+      <c r="TC31" s="0"/>
+      <c r="TD31" s="0"/>
+      <c r="TE31" s="0"/>
+      <c r="TF31" s="0"/>
+      <c r="TG31" s="0"/>
+      <c r="TH31" s="0"/>
+      <c r="TI31" s="0"/>
+      <c r="TJ31" s="0"/>
+      <c r="TK31" s="0"/>
+      <c r="TL31" s="0"/>
+      <c r="TM31" s="0"/>
+      <c r="TN31" s="0"/>
+      <c r="TO31" s="0"/>
+      <c r="TP31" s="0"/>
+      <c r="TQ31" s="0"/>
+      <c r="TR31" s="0"/>
+      <c r="TS31" s="0"/>
+      <c r="TT31" s="0"/>
+      <c r="TU31" s="0"/>
+      <c r="TV31" s="0"/>
+      <c r="TW31" s="0"/>
+      <c r="TX31" s="0"/>
+      <c r="TY31" s="0"/>
+      <c r="TZ31" s="0"/>
+      <c r="UA31" s="0"/>
+      <c r="UB31" s="0"/>
+      <c r="UC31" s="0"/>
+      <c r="UD31" s="0"/>
+      <c r="UE31" s="0"/>
+      <c r="UF31" s="0"/>
+      <c r="UG31" s="0"/>
+      <c r="UH31" s="0"/>
+      <c r="UI31" s="0"/>
+      <c r="UJ31" s="0"/>
+      <c r="UK31" s="0"/>
+      <c r="UL31" s="0"/>
+      <c r="UM31" s="0"/>
+      <c r="UN31" s="0"/>
+      <c r="UO31" s="0"/>
+      <c r="UP31" s="0"/>
+      <c r="UQ31" s="0"/>
+      <c r="UR31" s="0"/>
+      <c r="US31" s="0"/>
+      <c r="UT31" s="0"/>
+      <c r="UU31" s="0"/>
+      <c r="UV31" s="0"/>
+      <c r="UW31" s="0"/>
+      <c r="UX31" s="0"/>
+      <c r="UY31" s="0"/>
+      <c r="UZ31" s="0"/>
+      <c r="VA31" s="0"/>
+      <c r="VB31" s="0"/>
+      <c r="VC31" s="0"/>
+      <c r="VD31" s="0"/>
+      <c r="VE31" s="0"/>
+      <c r="VF31" s="0"/>
+      <c r="VG31" s="0"/>
+      <c r="VH31" s="0"/>
+      <c r="VI31" s="0"/>
+      <c r="VJ31" s="0"/>
+      <c r="VK31" s="0"/>
+      <c r="VL31" s="0"/>
+      <c r="VM31" s="0"/>
+      <c r="VN31" s="0"/>
+      <c r="VO31" s="0"/>
+      <c r="VP31" s="0"/>
+      <c r="VQ31" s="0"/>
+      <c r="VR31" s="0"/>
+      <c r="VS31" s="0"/>
+      <c r="VT31" s="0"/>
+      <c r="VU31" s="0"/>
+      <c r="VV31" s="0"/>
+      <c r="VW31" s="0"/>
+      <c r="VX31" s="0"/>
+      <c r="VY31" s="0"/>
+      <c r="VZ31" s="0"/>
+      <c r="WA31" s="0"/>
+      <c r="WB31" s="0"/>
+      <c r="WC31" s="0"/>
+      <c r="WD31" s="0"/>
+      <c r="WE31" s="0"/>
+      <c r="WF31" s="0"/>
+      <c r="WG31" s="0"/>
+      <c r="WH31" s="0"/>
+      <c r="WI31" s="0"/>
+      <c r="WJ31" s="0"/>
+      <c r="WK31" s="0"/>
+      <c r="WL31" s="0"/>
+      <c r="WM31" s="0"/>
+      <c r="WN31" s="0"/>
+      <c r="WO31" s="0"/>
+      <c r="WP31" s="0"/>
+      <c r="WQ31" s="0"/>
+      <c r="WR31" s="0"/>
+      <c r="WS31" s="0"/>
+      <c r="WT31" s="0"/>
+      <c r="WU31" s="0"/>
+      <c r="WV31" s="0"/>
+      <c r="WW31" s="0"/>
+      <c r="WX31" s="0"/>
+      <c r="WY31" s="0"/>
+      <c r="WZ31" s="0"/>
+      <c r="XA31" s="0"/>
+      <c r="XB31" s="0"/>
+      <c r="XC31" s="0"/>
+      <c r="XD31" s="0"/>
+      <c r="XE31" s="0"/>
+      <c r="XF31" s="0"/>
+      <c r="XG31" s="0"/>
+      <c r="XH31" s="0"/>
+      <c r="XI31" s="0"/>
+      <c r="XJ31" s="0"/>
+      <c r="XK31" s="0"/>
+      <c r="XL31" s="0"/>
+      <c r="XM31" s="0"/>
+      <c r="XN31" s="0"/>
+      <c r="XO31" s="0"/>
+      <c r="XP31" s="0"/>
+      <c r="XQ31" s="0"/>
+      <c r="XR31" s="0"/>
+      <c r="XS31" s="0"/>
+      <c r="XT31" s="0"/>
+      <c r="XU31" s="0"/>
+      <c r="XV31" s="0"/>
+      <c r="XW31" s="0"/>
+      <c r="XX31" s="0"/>
+      <c r="XY31" s="0"/>
+      <c r="XZ31" s="0"/>
+      <c r="YA31" s="0"/>
+      <c r="YB31" s="0"/>
+      <c r="YC31" s="0"/>
+      <c r="YD31" s="0"/>
+      <c r="YE31" s="0"/>
+      <c r="YF31" s="0"/>
+      <c r="YG31" s="0"/>
+      <c r="YH31" s="0"/>
+      <c r="YI31" s="0"/>
+      <c r="YJ31" s="0"/>
+      <c r="YK31" s="0"/>
+      <c r="YL31" s="0"/>
+      <c r="YM31" s="0"/>
+      <c r="YN31" s="0"/>
+      <c r="YO31" s="0"/>
+      <c r="YP31" s="0"/>
+      <c r="YQ31" s="0"/>
+      <c r="YR31" s="0"/>
+      <c r="YS31" s="0"/>
+      <c r="YT31" s="0"/>
+      <c r="YU31" s="0"/>
+      <c r="YV31" s="0"/>
+      <c r="YW31" s="0"/>
+      <c r="YX31" s="0"/>
+      <c r="YY31" s="0"/>
+      <c r="YZ31" s="0"/>
+      <c r="ZA31" s="0"/>
+      <c r="ZB31" s="0"/>
+      <c r="ZC31" s="0"/>
+      <c r="ZD31" s="0"/>
+      <c r="ZE31" s="0"/>
+      <c r="ZF31" s="0"/>
+      <c r="ZG31" s="0"/>
+      <c r="ZH31" s="0"/>
+      <c r="ZI31" s="0"/>
+      <c r="ZJ31" s="0"/>
+      <c r="ZK31" s="0"/>
+      <c r="ZL31" s="0"/>
+      <c r="ZM31" s="0"/>
+      <c r="ZN31" s="0"/>
+      <c r="ZO31" s="0"/>
+      <c r="ZP31" s="0"/>
+      <c r="ZQ31" s="0"/>
+      <c r="ZR31" s="0"/>
+      <c r="ZS31" s="0"/>
+      <c r="ZT31" s="0"/>
+      <c r="ZU31" s="0"/>
+      <c r="ZV31" s="0"/>
+      <c r="ZW31" s="0"/>
+      <c r="ZX31" s="0"/>
+      <c r="ZY31" s="0"/>
+      <c r="ZZ31" s="0"/>
+      <c r="AAA31" s="0"/>
+      <c r="AAB31" s="0"/>
+      <c r="AAC31" s="0"/>
+      <c r="AAD31" s="0"/>
+      <c r="AAE31" s="0"/>
+      <c r="AAF31" s="0"/>
+      <c r="AAG31" s="0"/>
+      <c r="AAH31" s="0"/>
+      <c r="AAI31" s="0"/>
+      <c r="AAJ31" s="0"/>
+      <c r="AAK31" s="0"/>
+      <c r="AAL31" s="0"/>
+      <c r="AAM31" s="0"/>
+      <c r="AAN31" s="0"/>
+      <c r="AAO31" s="0"/>
+      <c r="AAP31" s="0"/>
+      <c r="AAQ31" s="0"/>
+      <c r="AAR31" s="0"/>
+      <c r="AAS31" s="0"/>
+      <c r="AAT31" s="0"/>
+      <c r="AAU31" s="0"/>
+      <c r="AAV31" s="0"/>
+      <c r="AAW31" s="0"/>
+      <c r="AAX31" s="0"/>
+      <c r="AAY31" s="0"/>
+      <c r="AAZ31" s="0"/>
+      <c r="ABA31" s="0"/>
+      <c r="ABB31" s="0"/>
+      <c r="ABC31" s="0"/>
+      <c r="ABD31" s="0"/>
+      <c r="ABE31" s="0"/>
+      <c r="ABF31" s="0"/>
+      <c r="ABG31" s="0"/>
+      <c r="ABH31" s="0"/>
+      <c r="ABI31" s="0"/>
+      <c r="ABJ31" s="0"/>
+      <c r="ABK31" s="0"/>
+      <c r="ABL31" s="0"/>
+      <c r="ABM31" s="0"/>
+      <c r="ABN31" s="0"/>
+      <c r="ABO31" s="0"/>
+      <c r="ABP31" s="0"/>
+      <c r="ABQ31" s="0"/>
+      <c r="ABR31" s="0"/>
+      <c r="ABS31" s="0"/>
+      <c r="ABT31" s="0"/>
+      <c r="ABU31" s="0"/>
+      <c r="ABV31" s="0"/>
+      <c r="ABW31" s="0"/>
+      <c r="ABX31" s="0"/>
+      <c r="ABY31" s="0"/>
+      <c r="ABZ31" s="0"/>
+      <c r="ACA31" s="0"/>
+      <c r="ACB31" s="0"/>
+      <c r="ACC31" s="0"/>
+      <c r="ACD31" s="0"/>
+      <c r="ACE31" s="0"/>
+      <c r="ACF31" s="0"/>
+      <c r="ACG31" s="0"/>
+      <c r="ACH31" s="0"/>
+      <c r="ACI31" s="0"/>
+      <c r="ACJ31" s="0"/>
+      <c r="ACK31" s="0"/>
+      <c r="ACL31" s="0"/>
+      <c r="ACM31" s="0"/>
+      <c r="ACN31" s="0"/>
+      <c r="ACO31" s="0"/>
+      <c r="ACP31" s="0"/>
+      <c r="ACQ31" s="0"/>
+      <c r="ACR31" s="0"/>
+      <c r="ACS31" s="0"/>
+      <c r="ACT31" s="0"/>
+      <c r="ACU31" s="0"/>
+      <c r="ACV31" s="0"/>
+      <c r="ACW31" s="0"/>
+      <c r="ACX31" s="0"/>
+      <c r="ACY31" s="0"/>
+      <c r="ACZ31" s="0"/>
+      <c r="ADA31" s="0"/>
+      <c r="ADB31" s="0"/>
+      <c r="ADC31" s="0"/>
+      <c r="ADD31" s="0"/>
+      <c r="ADE31" s="0"/>
+      <c r="ADF31" s="0"/>
+      <c r="ADG31" s="0"/>
+      <c r="ADH31" s="0"/>
+      <c r="ADI31" s="0"/>
+      <c r="ADJ31" s="0"/>
+      <c r="ADK31" s="0"/>
+      <c r="ADL31" s="0"/>
+      <c r="ADM31" s="0"/>
+      <c r="ADN31" s="0"/>
+      <c r="ADO31" s="0"/>
+      <c r="ADP31" s="0"/>
+      <c r="ADQ31" s="0"/>
+      <c r="ADR31" s="0"/>
+      <c r="ADS31" s="0"/>
+      <c r="ADT31" s="0"/>
+      <c r="ADU31" s="0"/>
+      <c r="ADV31" s="0"/>
+      <c r="ADW31" s="0"/>
+      <c r="ADX31" s="0"/>
+      <c r="ADY31" s="0"/>
+      <c r="ADZ31" s="0"/>
+      <c r="AEA31" s="0"/>
+      <c r="AEB31" s="0"/>
+      <c r="AEC31" s="0"/>
+      <c r="AED31" s="0"/>
+      <c r="AEE31" s="0"/>
+      <c r="AEF31" s="0"/>
+      <c r="AEG31" s="0"/>
+      <c r="AEH31" s="0"/>
+      <c r="AEI31" s="0"/>
+      <c r="AEJ31" s="0"/>
+      <c r="AEK31" s="0"/>
+      <c r="AEL31" s="0"/>
+      <c r="AEM31" s="0"/>
+      <c r="AEN31" s="0"/>
+      <c r="AEO31" s="0"/>
+      <c r="AEP31" s="0"/>
+      <c r="AEQ31" s="0"/>
+      <c r="AER31" s="0"/>
+      <c r="AES31" s="0"/>
+      <c r="AET31" s="0"/>
+      <c r="AEU31" s="0"/>
+      <c r="AEV31" s="0"/>
+      <c r="AEW31" s="0"/>
+      <c r="AEX31" s="0"/>
+      <c r="AEY31" s="0"/>
+      <c r="AEZ31" s="0"/>
+      <c r="AFA31" s="0"/>
+      <c r="AFB31" s="0"/>
+      <c r="AFC31" s="0"/>
+      <c r="AFD31" s="0"/>
+      <c r="AFE31" s="0"/>
+      <c r="AFF31" s="0"/>
+      <c r="AFG31" s="0"/>
+      <c r="AFH31" s="0"/>
+      <c r="AFI31" s="0"/>
+      <c r="AFJ31" s="0"/>
+      <c r="AFK31" s="0"/>
+      <c r="AFL31" s="0"/>
+      <c r="AFM31" s="0"/>
+      <c r="AFN31" s="0"/>
+      <c r="AFO31" s="0"/>
+      <c r="AFP31" s="0"/>
+      <c r="AFQ31" s="0"/>
+      <c r="AFR31" s="0"/>
+      <c r="AFS31" s="0"/>
+      <c r="AFT31" s="0"/>
+      <c r="AFU31" s="0"/>
+      <c r="AFV31" s="0"/>
+      <c r="AFW31" s="0"/>
+      <c r="AFX31" s="0"/>
+      <c r="AFY31" s="0"/>
+      <c r="AFZ31" s="0"/>
+      <c r="AGA31" s="0"/>
+      <c r="AGB31" s="0"/>
+      <c r="AGC31" s="0"/>
+      <c r="AGD31" s="0"/>
+      <c r="AGE31" s="0"/>
+      <c r="AGF31" s="0"/>
+      <c r="AGG31" s="0"/>
+      <c r="AGH31" s="0"/>
+      <c r="AGI31" s="0"/>
+      <c r="AGJ31" s="0"/>
+      <c r="AGK31" s="0"/>
+      <c r="AGL31" s="0"/>
+      <c r="AGM31" s="0"/>
+      <c r="AGN31" s="0"/>
+      <c r="AGO31" s="0"/>
+      <c r="AGP31" s="0"/>
+      <c r="AGQ31" s="0"/>
+      <c r="AGR31" s="0"/>
+      <c r="AGS31" s="0"/>
+      <c r="AGT31" s="0"/>
+      <c r="AGU31" s="0"/>
+      <c r="AGV31" s="0"/>
+      <c r="AGW31" s="0"/>
+      <c r="AGX31" s="0"/>
+      <c r="AGY31" s="0"/>
+      <c r="AGZ31" s="0"/>
+      <c r="AHA31" s="0"/>
+      <c r="AHB31" s="0"/>
+      <c r="AHC31" s="0"/>
+      <c r="AHD31" s="0"/>
+      <c r="AHE31" s="0"/>
+      <c r="AHF31" s="0"/>
+      <c r="AHG31" s="0"/>
+      <c r="AHH31" s="0"/>
+      <c r="AHI31" s="0"/>
+      <c r="AHJ31" s="0"/>
+      <c r="AHK31" s="0"/>
+      <c r="AHL31" s="0"/>
+      <c r="AHM31" s="0"/>
+      <c r="AHN31" s="0"/>
+      <c r="AHO31" s="0"/>
+      <c r="AHP31" s="0"/>
+      <c r="AHQ31" s="0"/>
+      <c r="AHR31" s="0"/>
+      <c r="AHS31" s="0"/>
+      <c r="AHT31" s="0"/>
+      <c r="AHU31" s="0"/>
+      <c r="AHV31" s="0"/>
+      <c r="AHW31" s="0"/>
+      <c r="AHX31" s="0"/>
+      <c r="AHY31" s="0"/>
+      <c r="AHZ31" s="0"/>
+      <c r="AIA31" s="0"/>
+      <c r="AIB31" s="0"/>
+      <c r="AIC31" s="0"/>
+      <c r="AID31" s="0"/>
+      <c r="AIE31" s="0"/>
+      <c r="AIF31" s="0"/>
+      <c r="AIG31" s="0"/>
+      <c r="AIH31" s="0"/>
+      <c r="AII31" s="0"/>
+      <c r="AIJ31" s="0"/>
+      <c r="AIK31" s="0"/>
+      <c r="AIL31" s="0"/>
+      <c r="AIM31" s="0"/>
+      <c r="AIN31" s="0"/>
+      <c r="AIO31" s="0"/>
+      <c r="AIP31" s="0"/>
+      <c r="AIQ31" s="0"/>
+      <c r="AIR31" s="0"/>
+      <c r="AIS31" s="0"/>
+      <c r="AIT31" s="0"/>
+      <c r="AIU31" s="0"/>
+      <c r="AIV31" s="0"/>
+      <c r="AIW31" s="0"/>
+      <c r="AIX31" s="0"/>
+      <c r="AIY31" s="0"/>
+      <c r="AIZ31" s="0"/>
+      <c r="AJA31" s="0"/>
+      <c r="AJB31" s="0"/>
+      <c r="AJC31" s="0"/>
+      <c r="AJD31" s="0"/>
+      <c r="AJE31" s="0"/>
+      <c r="AJF31" s="0"/>
+      <c r="AJG31" s="0"/>
+      <c r="AJH31" s="0"/>
+      <c r="AJI31" s="0"/>
+      <c r="AJJ31" s="0"/>
+      <c r="AJK31" s="0"/>
+      <c r="AJL31" s="0"/>
+      <c r="AJM31" s="0"/>
+      <c r="AJN31" s="0"/>
+      <c r="AJO31" s="0"/>
+      <c r="AJP31" s="0"/>
+      <c r="AJQ31" s="0"/>
+      <c r="AJR31" s="0"/>
+      <c r="AJS31" s="0"/>
+      <c r="AJT31" s="0"/>
+      <c r="AJU31" s="0"/>
+      <c r="AJV31" s="0"/>
+      <c r="AJW31" s="0"/>
+      <c r="AJX31" s="0"/>
+      <c r="AJY31" s="0"/>
+      <c r="AJZ31" s="0"/>
+      <c r="AKA31" s="0"/>
+      <c r="AKB31" s="0"/>
+      <c r="AKC31" s="0"/>
+      <c r="AKD31" s="0"/>
+      <c r="AKE31" s="0"/>
+      <c r="AKF31" s="0"/>
+      <c r="AKG31" s="0"/>
+      <c r="AKH31" s="0"/>
+      <c r="AKI31" s="0"/>
+      <c r="AKJ31" s="0"/>
+      <c r="AKK31" s="0"/>
+      <c r="AKL31" s="0"/>
+      <c r="AKM31" s="0"/>
+      <c r="AKN31" s="0"/>
+      <c r="AKO31" s="0"/>
+      <c r="AKP31" s="0"/>
+      <c r="AKQ31" s="0"/>
+      <c r="AKR31" s="0"/>
+      <c r="AKS31" s="0"/>
+      <c r="AKT31" s="0"/>
+      <c r="AKU31" s="0"/>
+      <c r="AKV31" s="0"/>
+      <c r="AKW31" s="0"/>
+      <c r="AKX31" s="0"/>
+      <c r="AKY31" s="0"/>
+      <c r="AKZ31" s="0"/>
+      <c r="ALA31" s="0"/>
+      <c r="ALB31" s="0"/>
+      <c r="ALC31" s="0"/>
+      <c r="ALD31" s="0"/>
+      <c r="ALE31" s="0"/>
+      <c r="ALF31" s="0"/>
+      <c r="ALG31" s="0"/>
+      <c r="ALH31" s="0"/>
+      <c r="ALI31" s="0"/>
+      <c r="ALJ31" s="0"/>
+      <c r="ALK31" s="0"/>
+      <c r="ALL31" s="0"/>
+      <c r="ALM31" s="0"/>
+      <c r="ALN31" s="0"/>
+      <c r="ALO31" s="0"/>
+      <c r="ALP31" s="0"/>
+      <c r="ALQ31" s="0"/>
+      <c r="ALR31" s="0"/>
+      <c r="ALS31" s="0"/>
+      <c r="ALT31" s="0"/>
+      <c r="ALU31" s="0"/>
+      <c r="ALV31" s="0"/>
+      <c r="ALW31" s="0"/>
+      <c r="ALX31" s="0"/>
+      <c r="ALY31" s="0"/>
+      <c r="ALZ31" s="0"/>
+      <c r="AMA31" s="0"/>
+      <c r="AMB31" s="0"/>
+      <c r="AMC31" s="0"/>
+      <c r="AMD31" s="0"/>
+      <c r="AME31" s="0"/>
+      <c r="AMF31" s="0"/>
+      <c r="AMG31" s="0"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="0"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="8"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
+      <c r="BP32" s="0"/>
+      <c r="BQ32" s="0"/>
+      <c r="BR32" s="0"/>
+      <c r="BS32" s="0"/>
+      <c r="BT32" s="0"/>
+      <c r="BU32" s="0"/>
+      <c r="BV32" s="0"/>
+      <c r="BW32" s="0"/>
+      <c r="BX32" s="0"/>
+      <c r="BY32" s="0"/>
+      <c r="BZ32" s="0"/>
+      <c r="CA32" s="0"/>
+      <c r="CB32" s="0"/>
+      <c r="CC32" s="0"/>
+      <c r="CD32" s="0"/>
+      <c r="CE32" s="0"/>
+      <c r="CF32" s="0"/>
+      <c r="CG32" s="0"/>
+      <c r="CH32" s="0"/>
+      <c r="CI32" s="0"/>
+      <c r="CJ32" s="0"/>
+      <c r="CK32" s="0"/>
+      <c r="CL32" s="0"/>
+      <c r="CM32" s="0"/>
+      <c r="CN32" s="0"/>
+      <c r="CO32" s="0"/>
+      <c r="CP32" s="0"/>
+      <c r="CQ32" s="0"/>
+      <c r="CR32" s="0"/>
+      <c r="CS32" s="0"/>
+      <c r="CT32" s="0"/>
+      <c r="CU32" s="0"/>
+      <c r="CV32" s="0"/>
+      <c r="CW32" s="0"/>
+      <c r="CX32" s="0"/>
+      <c r="CY32" s="0"/>
+      <c r="CZ32" s="0"/>
+      <c r="DA32" s="0"/>
+      <c r="DB32" s="0"/>
+      <c r="DC32" s="0"/>
+      <c r="DD32" s="0"/>
+      <c r="DE32" s="0"/>
+      <c r="DF32" s="0"/>
+      <c r="DG32" s="0"/>
+      <c r="DH32" s="0"/>
+      <c r="DI32" s="0"/>
+      <c r="DJ32" s="0"/>
+      <c r="DK32" s="0"/>
+      <c r="DL32" s="0"/>
+      <c r="DM32" s="0"/>
+      <c r="DN32" s="0"/>
+      <c r="DO32" s="0"/>
+      <c r="DP32" s="0"/>
+      <c r="DQ32" s="0"/>
+      <c r="DR32" s="0"/>
+      <c r="DS32" s="0"/>
+      <c r="DT32" s="0"/>
+      <c r="DU32" s="0"/>
+      <c r="DV32" s="0"/>
+      <c r="DW32" s="0"/>
+      <c r="DX32" s="0"/>
+      <c r="DY32" s="0"/>
+      <c r="DZ32" s="0"/>
+      <c r="EA32" s="0"/>
+      <c r="EB32" s="0"/>
+      <c r="EC32" s="0"/>
+      <c r="ED32" s="0"/>
+      <c r="EE32" s="0"/>
+      <c r="EF32" s="0"/>
+      <c r="EG32" s="0"/>
+      <c r="EH32" s="0"/>
+      <c r="EI32" s="0"/>
+      <c r="EJ32" s="0"/>
+      <c r="EK32" s="0"/>
+      <c r="EL32" s="0"/>
+      <c r="EM32" s="0"/>
+      <c r="EN32" s="0"/>
+      <c r="EO32" s="0"/>
+      <c r="EP32" s="0"/>
+      <c r="EQ32" s="0"/>
+      <c r="ER32" s="0"/>
+      <c r="ES32" s="0"/>
+      <c r="ET32" s="0"/>
+      <c r="EU32" s="0"/>
+      <c r="EV32" s="0"/>
+      <c r="EW32" s="0"/>
+      <c r="EX32" s="0"/>
+      <c r="EY32" s="0"/>
+      <c r="EZ32" s="0"/>
+      <c r="FA32" s="0"/>
+      <c r="FB32" s="0"/>
+      <c r="FC32" s="0"/>
+      <c r="FD32" s="0"/>
+      <c r="FE32" s="0"/>
+      <c r="FF32" s="0"/>
+      <c r="FG32" s="0"/>
+      <c r="FH32" s="0"/>
+      <c r="FI32" s="0"/>
+      <c r="FJ32" s="0"/>
+      <c r="FK32" s="0"/>
+      <c r="FL32" s="0"/>
+      <c r="FM32" s="0"/>
+      <c r="FN32" s="0"/>
+      <c r="FO32" s="0"/>
+      <c r="FP32" s="0"/>
+      <c r="FQ32" s="0"/>
+      <c r="FR32" s="0"/>
+      <c r="FS32" s="0"/>
+      <c r="FT32" s="0"/>
+      <c r="FU32" s="0"/>
+      <c r="FV32" s="0"/>
+      <c r="FW32" s="0"/>
+      <c r="FX32" s="0"/>
+      <c r="FY32" s="0"/>
+      <c r="FZ32" s="0"/>
+      <c r="GA32" s="0"/>
+      <c r="GB32" s="0"/>
+      <c r="GC32" s="0"/>
+      <c r="GD32" s="0"/>
+      <c r="GE32" s="0"/>
+      <c r="GF32" s="0"/>
+      <c r="GG32" s="0"/>
+      <c r="GH32" s="0"/>
+      <c r="GI32" s="0"/>
+      <c r="GJ32" s="0"/>
+      <c r="GK32" s="0"/>
+      <c r="GL32" s="0"/>
+      <c r="GM32" s="0"/>
+      <c r="GN32" s="0"/>
+      <c r="GO32" s="0"/>
+      <c r="GP32" s="0"/>
+      <c r="GQ32" s="0"/>
+      <c r="GR32" s="0"/>
+      <c r="GS32" s="0"/>
+      <c r="GT32" s="0"/>
+      <c r="GU32" s="0"/>
+      <c r="GV32" s="0"/>
+      <c r="GW32" s="0"/>
+      <c r="GX32" s="0"/>
+      <c r="GY32" s="0"/>
+      <c r="GZ32" s="0"/>
+      <c r="HA32" s="0"/>
+      <c r="HB32" s="0"/>
+      <c r="HC32" s="0"/>
+      <c r="HD32" s="0"/>
+      <c r="HE32" s="0"/>
+      <c r="HF32" s="0"/>
+      <c r="HG32" s="0"/>
+      <c r="HH32" s="0"/>
+      <c r="HI32" s="0"/>
+      <c r="HJ32" s="0"/>
+      <c r="HK32" s="0"/>
+      <c r="HL32" s="0"/>
+      <c r="HM32" s="0"/>
+      <c r="HN32" s="0"/>
+      <c r="HO32" s="0"/>
+      <c r="HP32" s="0"/>
+      <c r="HQ32" s="0"/>
+      <c r="HR32" s="0"/>
+      <c r="HS32" s="0"/>
+      <c r="HT32" s="0"/>
+      <c r="HU32" s="0"/>
+      <c r="HV32" s="0"/>
+      <c r="HW32" s="0"/>
+      <c r="HX32" s="0"/>
+      <c r="HY32" s="0"/>
+      <c r="HZ32" s="0"/>
+      <c r="IA32" s="0"/>
+      <c r="IB32" s="0"/>
+      <c r="IC32" s="0"/>
+      <c r="ID32" s="0"/>
+      <c r="IE32" s="0"/>
+      <c r="IF32" s="0"/>
+      <c r="IG32" s="0"/>
+      <c r="IH32" s="0"/>
+      <c r="II32" s="0"/>
+      <c r="IJ32" s="0"/>
+      <c r="IK32" s="0"/>
+      <c r="IL32" s="0"/>
+      <c r="IM32" s="0"/>
+      <c r="IN32" s="0"/>
+      <c r="IO32" s="0"/>
+      <c r="IP32" s="0"/>
+      <c r="IQ32" s="0"/>
+      <c r="IR32" s="0"/>
+      <c r="IS32" s="0"/>
+      <c r="IT32" s="0"/>
+      <c r="IU32" s="0"/>
+      <c r="IV32" s="0"/>
+      <c r="IW32" s="0"/>
+      <c r="IX32" s="0"/>
+      <c r="IY32" s="0"/>
+      <c r="IZ32" s="0"/>
+      <c r="JA32" s="0"/>
+      <c r="JB32" s="0"/>
+      <c r="JC32" s="0"/>
+      <c r="JD32" s="0"/>
+      <c r="JE32" s="0"/>
+      <c r="JF32" s="0"/>
+      <c r="JG32" s="0"/>
+      <c r="JH32" s="0"/>
+      <c r="JI32" s="0"/>
+      <c r="JJ32" s="0"/>
+      <c r="JK32" s="0"/>
+      <c r="JL32" s="0"/>
+      <c r="JM32" s="0"/>
+      <c r="JN32" s="0"/>
+      <c r="JO32" s="0"/>
+      <c r="JP32" s="0"/>
+      <c r="JQ32" s="0"/>
+      <c r="JR32" s="0"/>
+      <c r="JS32" s="0"/>
+      <c r="JT32" s="0"/>
+      <c r="JU32" s="0"/>
+      <c r="JV32" s="0"/>
+      <c r="JW32" s="0"/>
+      <c r="JX32" s="0"/>
+      <c r="JY32" s="0"/>
+      <c r="JZ32" s="0"/>
+      <c r="KA32" s="0"/>
+      <c r="KB32" s="0"/>
+      <c r="KC32" s="0"/>
+      <c r="KD32" s="0"/>
+      <c r="KE32" s="0"/>
+      <c r="KF32" s="0"/>
+      <c r="KG32" s="0"/>
+      <c r="KH32" s="0"/>
+      <c r="KI32" s="0"/>
+      <c r="KJ32" s="0"/>
+      <c r="KK32" s="0"/>
+      <c r="KL32" s="0"/>
+      <c r="KM32" s="0"/>
+      <c r="KN32" s="0"/>
+      <c r="KO32" s="0"/>
+      <c r="KP32" s="0"/>
+      <c r="KQ32" s="0"/>
+      <c r="KR32" s="0"/>
+      <c r="KS32" s="0"/>
+      <c r="KT32" s="0"/>
+      <c r="KU32" s="0"/>
+      <c r="KV32" s="0"/>
+      <c r="KW32" s="0"/>
+      <c r="KX32" s="0"/>
+      <c r="KY32" s="0"/>
+      <c r="KZ32" s="0"/>
+      <c r="LA32" s="0"/>
+      <c r="LB32" s="0"/>
+      <c r="LC32" s="0"/>
+      <c r="LD32" s="0"/>
+      <c r="LE32" s="0"/>
+      <c r="LF32" s="0"/>
+      <c r="LG32" s="0"/>
+      <c r="LH32" s="0"/>
+      <c r="LI32" s="0"/>
+      <c r="LJ32" s="0"/>
+      <c r="LK32" s="0"/>
+      <c r="LL32" s="0"/>
+      <c r="LM32" s="0"/>
+      <c r="LN32" s="0"/>
+      <c r="LO32" s="0"/>
+      <c r="LP32" s="0"/>
+      <c r="LQ32" s="0"/>
+      <c r="LR32" s="0"/>
+      <c r="LS32" s="0"/>
+      <c r="LT32" s="0"/>
+      <c r="LU32" s="0"/>
+      <c r="LV32" s="0"/>
+      <c r="LW32" s="0"/>
+      <c r="LX32" s="0"/>
+      <c r="LY32" s="0"/>
+      <c r="LZ32" s="0"/>
+      <c r="MA32" s="0"/>
+      <c r="MB32" s="0"/>
+      <c r="MC32" s="0"/>
+      <c r="MD32" s="0"/>
+      <c r="ME32" s="0"/>
+      <c r="MF32" s="0"/>
+      <c r="MG32" s="0"/>
+      <c r="MH32" s="0"/>
+      <c r="MI32" s="0"/>
+      <c r="MJ32" s="0"/>
+      <c r="MK32" s="0"/>
+      <c r="ML32" s="0"/>
+      <c r="MM32" s="0"/>
+      <c r="MN32" s="0"/>
+      <c r="MO32" s="0"/>
+      <c r="MP32" s="0"/>
+      <c r="MQ32" s="0"/>
+      <c r="MR32" s="0"/>
+      <c r="MS32" s="0"/>
+      <c r="MT32" s="0"/>
+      <c r="MU32" s="0"/>
+      <c r="MV32" s="0"/>
+      <c r="MW32" s="0"/>
+      <c r="MX32" s="0"/>
+      <c r="MY32" s="0"/>
+      <c r="MZ32" s="0"/>
+      <c r="NA32" s="0"/>
+      <c r="NB32" s="0"/>
+      <c r="NC32" s="0"/>
+      <c r="ND32" s="0"/>
+      <c r="NE32" s="0"/>
+      <c r="NF32" s="0"/>
+      <c r="NG32" s="0"/>
+      <c r="NH32" s="0"/>
+      <c r="NI32" s="0"/>
+      <c r="NJ32" s="0"/>
+      <c r="NK32" s="0"/>
+      <c r="NL32" s="0"/>
+      <c r="NM32" s="0"/>
+      <c r="NN32" s="0"/>
+      <c r="NO32" s="0"/>
+      <c r="NP32" s="0"/>
+      <c r="NQ32" s="0"/>
+      <c r="NR32" s="0"/>
+      <c r="NS32" s="0"/>
+      <c r="NT32" s="0"/>
+      <c r="NU32" s="0"/>
+      <c r="NV32" s="0"/>
+      <c r="NW32" s="0"/>
+      <c r="NX32" s="0"/>
+      <c r="NY32" s="0"/>
+      <c r="NZ32" s="0"/>
+      <c r="OA32" s="0"/>
+      <c r="OB32" s="0"/>
+      <c r="OC32" s="0"/>
+      <c r="OD32" s="0"/>
+      <c r="OE32" s="0"/>
+      <c r="OF32" s="0"/>
+      <c r="OG32" s="0"/>
+      <c r="OH32" s="0"/>
+      <c r="OI32" s="0"/>
+      <c r="OJ32" s="0"/>
+      <c r="OK32" s="0"/>
+      <c r="OL32" s="0"/>
+      <c r="OM32" s="0"/>
+      <c r="ON32" s="0"/>
+      <c r="OO32" s="0"/>
+      <c r="OP32" s="0"/>
+      <c r="OQ32" s="0"/>
+      <c r="OR32" s="0"/>
+      <c r="OS32" s="0"/>
+      <c r="OT32" s="0"/>
+      <c r="OU32" s="0"/>
+      <c r="OV32" s="0"/>
+      <c r="OW32" s="0"/>
+      <c r="OX32" s="0"/>
+      <c r="OY32" s="0"/>
+      <c r="OZ32" s="0"/>
+      <c r="PA32" s="0"/>
+      <c r="PB32" s="0"/>
+      <c r="PC32" s="0"/>
+      <c r="PD32" s="0"/>
+      <c r="PE32" s="0"/>
+      <c r="PF32" s="0"/>
+      <c r="PG32" s="0"/>
+      <c r="PH32" s="0"/>
+      <c r="PI32" s="0"/>
+      <c r="PJ32" s="0"/>
+      <c r="PK32" s="0"/>
+      <c r="PL32" s="0"/>
+      <c r="PM32" s="0"/>
+      <c r="PN32" s="0"/>
+      <c r="PO32" s="0"/>
+      <c r="PP32" s="0"/>
+      <c r="PQ32" s="0"/>
+      <c r="PR32" s="0"/>
+      <c r="PS32" s="0"/>
+      <c r="PT32" s="0"/>
+      <c r="PU32" s="0"/>
+      <c r="PV32" s="0"/>
+      <c r="PW32" s="0"/>
+      <c r="PX32" s="0"/>
+      <c r="PY32" s="0"/>
+      <c r="PZ32" s="0"/>
+      <c r="QA32" s="0"/>
+      <c r="QB32" s="0"/>
+      <c r="QC32" s="0"/>
+      <c r="QD32" s="0"/>
+      <c r="QE32" s="0"/>
+      <c r="QF32" s="0"/>
+      <c r="QG32" s="0"/>
+      <c r="QH32" s="0"/>
+      <c r="QI32" s="0"/>
+      <c r="QJ32" s="0"/>
+      <c r="QK32" s="0"/>
+      <c r="QL32" s="0"/>
+      <c r="QM32" s="0"/>
+      <c r="QN32" s="0"/>
+      <c r="QO32" s="0"/>
+      <c r="QP32" s="0"/>
+      <c r="QQ32" s="0"/>
+      <c r="QR32" s="0"/>
+      <c r="QS32" s="0"/>
+      <c r="QT32" s="0"/>
+      <c r="QU32" s="0"/>
+      <c r="QV32" s="0"/>
+      <c r="QW32" s="0"/>
+      <c r="QX32" s="0"/>
+      <c r="QY32" s="0"/>
+      <c r="QZ32" s="0"/>
+      <c r="RA32" s="0"/>
+      <c r="RB32" s="0"/>
+      <c r="RC32" s="0"/>
+      <c r="RD32" s="0"/>
+      <c r="RE32" s="0"/>
+      <c r="RF32" s="0"/>
+      <c r="RG32" s="0"/>
+      <c r="RH32" s="0"/>
+      <c r="RI32" s="0"/>
+      <c r="RJ32" s="0"/>
+      <c r="RK32" s="0"/>
+      <c r="RL32" s="0"/>
+      <c r="RM32" s="0"/>
+      <c r="RN32" s="0"/>
+      <c r="RO32" s="0"/>
+      <c r="RP32" s="0"/>
+      <c r="RQ32" s="0"/>
+      <c r="RR32" s="0"/>
+      <c r="RS32" s="0"/>
+      <c r="RT32" s="0"/>
+      <c r="RU32" s="0"/>
+      <c r="RV32" s="0"/>
+      <c r="RW32" s="0"/>
+      <c r="RX32" s="0"/>
+      <c r="RY32" s="0"/>
+      <c r="RZ32" s="0"/>
+      <c r="SA32" s="0"/>
+      <c r="SB32" s="0"/>
+      <c r="SC32" s="0"/>
+      <c r="SD32" s="0"/>
+      <c r="SE32" s="0"/>
+      <c r="SF32" s="0"/>
+      <c r="SG32" s="0"/>
+      <c r="SH32" s="0"/>
+      <c r="SI32" s="0"/>
+      <c r="SJ32" s="0"/>
+      <c r="SK32" s="0"/>
+      <c r="SL32" s="0"/>
+      <c r="SM32" s="0"/>
+      <c r="SN32" s="0"/>
+      <c r="SO32" s="0"/>
+      <c r="SP32" s="0"/>
+      <c r="SQ32" s="0"/>
+      <c r="SR32" s="0"/>
+      <c r="SS32" s="0"/>
+      <c r="ST32" s="0"/>
+      <c r="SU32" s="0"/>
+      <c r="SV32" s="0"/>
+      <c r="SW32" s="0"/>
+      <c r="SX32" s="0"/>
+      <c r="SY32" s="0"/>
+      <c r="SZ32" s="0"/>
+      <c r="TA32" s="0"/>
+      <c r="TB32" s="0"/>
+      <c r="TC32" s="0"/>
+      <c r="TD32" s="0"/>
+      <c r="TE32" s="0"/>
+      <c r="TF32" s="0"/>
+      <c r="TG32" s="0"/>
+      <c r="TH32" s="0"/>
+      <c r="TI32" s="0"/>
+      <c r="TJ32" s="0"/>
+      <c r="TK32" s="0"/>
+      <c r="TL32" s="0"/>
+      <c r="TM32" s="0"/>
+      <c r="TN32" s="0"/>
+      <c r="TO32" s="0"/>
+      <c r="TP32" s="0"/>
+      <c r="TQ32" s="0"/>
+      <c r="TR32" s="0"/>
+      <c r="TS32" s="0"/>
+      <c r="TT32" s="0"/>
+      <c r="TU32" s="0"/>
+      <c r="TV32" s="0"/>
+      <c r="TW32" s="0"/>
+      <c r="TX32" s="0"/>
+      <c r="TY32" s="0"/>
+      <c r="TZ32" s="0"/>
+      <c r="UA32" s="0"/>
+      <c r="UB32" s="0"/>
+      <c r="UC32" s="0"/>
+      <c r="UD32" s="0"/>
+      <c r="UE32" s="0"/>
+      <c r="UF32" s="0"/>
+      <c r="UG32" s="0"/>
+      <c r="UH32" s="0"/>
+      <c r="UI32" s="0"/>
+      <c r="UJ32" s="0"/>
+      <c r="UK32" s="0"/>
+      <c r="UL32" s="0"/>
+      <c r="UM32" s="0"/>
+      <c r="UN32" s="0"/>
+      <c r="UO32" s="0"/>
+      <c r="UP32" s="0"/>
+      <c r="UQ32" s="0"/>
+      <c r="UR32" s="0"/>
+      <c r="US32" s="0"/>
+      <c r="UT32" s="0"/>
+      <c r="UU32" s="0"/>
+      <c r="UV32" s="0"/>
+      <c r="UW32" s="0"/>
+      <c r="UX32" s="0"/>
+      <c r="UY32" s="0"/>
+      <c r="UZ32" s="0"/>
+      <c r="VA32" s="0"/>
+      <c r="VB32" s="0"/>
+      <c r="VC32" s="0"/>
+      <c r="VD32" s="0"/>
+      <c r="VE32" s="0"/>
+      <c r="VF32" s="0"/>
+      <c r="VG32" s="0"/>
+      <c r="VH32" s="0"/>
+      <c r="VI32" s="0"/>
+      <c r="VJ32" s="0"/>
+      <c r="VK32" s="0"/>
+      <c r="VL32" s="0"/>
+      <c r="VM32" s="0"/>
+      <c r="VN32" s="0"/>
+      <c r="VO32" s="0"/>
+      <c r="VP32" s="0"/>
+      <c r="VQ32" s="0"/>
+      <c r="VR32" s="0"/>
+      <c r="VS32" s="0"/>
+      <c r="VT32" s="0"/>
+      <c r="VU32" s="0"/>
+      <c r="VV32" s="0"/>
+      <c r="VW32" s="0"/>
+      <c r="VX32" s="0"/>
+      <c r="VY32" s="0"/>
+      <c r="VZ32" s="0"/>
+      <c r="WA32" s="0"/>
+      <c r="WB32" s="0"/>
+      <c r="WC32" s="0"/>
+      <c r="WD32" s="0"/>
+      <c r="WE32" s="0"/>
+      <c r="WF32" s="0"/>
+      <c r="WG32" s="0"/>
+      <c r="WH32" s="0"/>
+      <c r="WI32" s="0"/>
+      <c r="WJ32" s="0"/>
+      <c r="WK32" s="0"/>
+      <c r="WL32" s="0"/>
+      <c r="WM32" s="0"/>
+      <c r="WN32" s="0"/>
+      <c r="WO32" s="0"/>
+      <c r="WP32" s="0"/>
+      <c r="WQ32" s="0"/>
+      <c r="WR32" s="0"/>
+      <c r="WS32" s="0"/>
+      <c r="WT32" s="0"/>
+      <c r="WU32" s="0"/>
+      <c r="WV32" s="0"/>
+      <c r="WW32" s="0"/>
+      <c r="WX32" s="0"/>
+      <c r="WY32" s="0"/>
+      <c r="WZ32" s="0"/>
+      <c r="XA32" s="0"/>
+      <c r="XB32" s="0"/>
+      <c r="XC32" s="0"/>
+      <c r="XD32" s="0"/>
+      <c r="XE32" s="0"/>
+      <c r="XF32" s="0"/>
+      <c r="XG32" s="0"/>
+      <c r="XH32" s="0"/>
+      <c r="XI32" s="0"/>
+      <c r="XJ32" s="0"/>
+      <c r="XK32" s="0"/>
+      <c r="XL32" s="0"/>
+      <c r="XM32" s="0"/>
+      <c r="XN32" s="0"/>
+      <c r="XO32" s="0"/>
+      <c r="XP32" s="0"/>
+      <c r="XQ32" s="0"/>
+      <c r="XR32" s="0"/>
+      <c r="XS32" s="0"/>
+      <c r="XT32" s="0"/>
+      <c r="XU32" s="0"/>
+      <c r="XV32" s="0"/>
+      <c r="XW32" s="0"/>
+      <c r="XX32" s="0"/>
+      <c r="XY32" s="0"/>
+      <c r="XZ32" s="0"/>
+      <c r="YA32" s="0"/>
+      <c r="YB32" s="0"/>
+      <c r="YC32" s="0"/>
+      <c r="YD32" s="0"/>
+      <c r="YE32" s="0"/>
+      <c r="YF32" s="0"/>
+      <c r="YG32" s="0"/>
+      <c r="YH32" s="0"/>
+      <c r="YI32" s="0"/>
+      <c r="YJ32" s="0"/>
+      <c r="YK32" s="0"/>
+      <c r="YL32" s="0"/>
+      <c r="YM32" s="0"/>
+      <c r="YN32" s="0"/>
+      <c r="YO32" s="0"/>
+      <c r="YP32" s="0"/>
+      <c r="YQ32" s="0"/>
+      <c r="YR32" s="0"/>
+      <c r="YS32" s="0"/>
+      <c r="YT32" s="0"/>
+      <c r="YU32" s="0"/>
+      <c r="YV32" s="0"/>
+      <c r="YW32" s="0"/>
+      <c r="YX32" s="0"/>
+      <c r="YY32" s="0"/>
+      <c r="YZ32" s="0"/>
+      <c r="ZA32" s="0"/>
+      <c r="ZB32" s="0"/>
+      <c r="ZC32" s="0"/>
+      <c r="ZD32" s="0"/>
+      <c r="ZE32" s="0"/>
+      <c r="ZF32" s="0"/>
+      <c r="ZG32" s="0"/>
+      <c r="ZH32" s="0"/>
+      <c r="ZI32" s="0"/>
+      <c r="ZJ32" s="0"/>
+      <c r="ZK32" s="0"/>
+      <c r="ZL32" s="0"/>
+      <c r="ZM32" s="0"/>
+      <c r="ZN32" s="0"/>
+      <c r="ZO32" s="0"/>
+      <c r="ZP32" s="0"/>
+      <c r="ZQ32" s="0"/>
+      <c r="ZR32" s="0"/>
+      <c r="ZS32" s="0"/>
+      <c r="ZT32" s="0"/>
+      <c r="ZU32" s="0"/>
+      <c r="ZV32" s="0"/>
+      <c r="ZW32" s="0"/>
+      <c r="ZX32" s="0"/>
+      <c r="ZY32" s="0"/>
+      <c r="ZZ32" s="0"/>
+      <c r="AAA32" s="0"/>
+      <c r="AAB32" s="0"/>
+      <c r="AAC32" s="0"/>
+      <c r="AAD32" s="0"/>
+      <c r="AAE32" s="0"/>
+      <c r="AAF32" s="0"/>
+      <c r="AAG32" s="0"/>
+      <c r="AAH32" s="0"/>
+      <c r="AAI32" s="0"/>
+      <c r="AAJ32" s="0"/>
+      <c r="AAK32" s="0"/>
+      <c r="AAL32" s="0"/>
+      <c r="AAM32" s="0"/>
+      <c r="AAN32" s="0"/>
+      <c r="AAO32" s="0"/>
+      <c r="AAP32" s="0"/>
+      <c r="AAQ32" s="0"/>
+      <c r="AAR32" s="0"/>
+      <c r="AAS32" s="0"/>
+      <c r="AAT32" s="0"/>
+      <c r="AAU32" s="0"/>
+      <c r="AAV32" s="0"/>
+      <c r="AAW32" s="0"/>
+      <c r="AAX32" s="0"/>
+      <c r="AAY32" s="0"/>
+      <c r="AAZ32" s="0"/>
+      <c r="ABA32" s="0"/>
+      <c r="ABB32" s="0"/>
+      <c r="ABC32" s="0"/>
+      <c r="ABD32" s="0"/>
+      <c r="ABE32" s="0"/>
+      <c r="ABF32" s="0"/>
+      <c r="ABG32" s="0"/>
+      <c r="ABH32" s="0"/>
+      <c r="ABI32" s="0"/>
+      <c r="ABJ32" s="0"/>
+      <c r="ABK32" s="0"/>
+      <c r="ABL32" s="0"/>
+      <c r="ABM32" s="0"/>
+      <c r="ABN32" s="0"/>
+      <c r="ABO32" s="0"/>
+      <c r="ABP32" s="0"/>
+      <c r="ABQ32" s="0"/>
+      <c r="ABR32" s="0"/>
+      <c r="ABS32" s="0"/>
+      <c r="ABT32" s="0"/>
+      <c r="ABU32" s="0"/>
+      <c r="ABV32" s="0"/>
+      <c r="ABW32" s="0"/>
+      <c r="ABX32" s="0"/>
+      <c r="ABY32" s="0"/>
+      <c r="ABZ32" s="0"/>
+      <c r="ACA32" s="0"/>
+      <c r="ACB32" s="0"/>
+      <c r="ACC32" s="0"/>
+      <c r="ACD32" s="0"/>
+      <c r="ACE32" s="0"/>
+      <c r="ACF32" s="0"/>
+      <c r="ACG32" s="0"/>
+      <c r="ACH32" s="0"/>
+      <c r="ACI32" s="0"/>
+      <c r="ACJ32" s="0"/>
+      <c r="ACK32" s="0"/>
+      <c r="ACL32" s="0"/>
+      <c r="ACM32" s="0"/>
+      <c r="ACN32" s="0"/>
+      <c r="ACO32" s="0"/>
+      <c r="ACP32" s="0"/>
+      <c r="ACQ32" s="0"/>
+      <c r="ACR32" s="0"/>
+      <c r="ACS32" s="0"/>
+      <c r="ACT32" s="0"/>
+      <c r="ACU32" s="0"/>
+      <c r="ACV32" s="0"/>
+      <c r="ACW32" s="0"/>
+      <c r="ACX32" s="0"/>
+      <c r="ACY32" s="0"/>
+      <c r="ACZ32" s="0"/>
+      <c r="ADA32" s="0"/>
+      <c r="ADB32" s="0"/>
+      <c r="ADC32" s="0"/>
+      <c r="ADD32" s="0"/>
+      <c r="ADE32" s="0"/>
+      <c r="ADF32" s="0"/>
+      <c r="ADG32" s="0"/>
+      <c r="ADH32" s="0"/>
+      <c r="ADI32" s="0"/>
+      <c r="ADJ32" s="0"/>
+      <c r="ADK32" s="0"/>
+      <c r="ADL32" s="0"/>
+      <c r="ADM32" s="0"/>
+      <c r="ADN32" s="0"/>
+      <c r="ADO32" s="0"/>
+      <c r="ADP32" s="0"/>
+      <c r="ADQ32" s="0"/>
+      <c r="ADR32" s="0"/>
+      <c r="ADS32" s="0"/>
+      <c r="ADT32" s="0"/>
+      <c r="ADU32" s="0"/>
+      <c r="ADV32" s="0"/>
+      <c r="ADW32" s="0"/>
+      <c r="ADX32" s="0"/>
+      <c r="ADY32" s="0"/>
+      <c r="ADZ32" s="0"/>
+      <c r="AEA32" s="0"/>
+      <c r="AEB32" s="0"/>
+      <c r="AEC32" s="0"/>
+      <c r="AED32" s="0"/>
+      <c r="AEE32" s="0"/>
+      <c r="AEF32" s="0"/>
+      <c r="AEG32" s="0"/>
+      <c r="AEH32" s="0"/>
+      <c r="AEI32" s="0"/>
+      <c r="AEJ32" s="0"/>
+      <c r="AEK32" s="0"/>
+      <c r="AEL32" s="0"/>
+      <c r="AEM32" s="0"/>
+      <c r="AEN32" s="0"/>
+      <c r="AEO32" s="0"/>
+      <c r="AEP32" s="0"/>
+      <c r="AEQ32" s="0"/>
+      <c r="AER32" s="0"/>
+      <c r="AES32" s="0"/>
+      <c r="AET32" s="0"/>
+      <c r="AEU32" s="0"/>
+      <c r="AEV32" s="0"/>
+      <c r="AEW32" s="0"/>
+      <c r="AEX32" s="0"/>
+      <c r="AEY32" s="0"/>
+      <c r="AEZ32" s="0"/>
+      <c r="AFA32" s="0"/>
+      <c r="AFB32" s="0"/>
+      <c r="AFC32" s="0"/>
+      <c r="AFD32" s="0"/>
+      <c r="AFE32" s="0"/>
+      <c r="AFF32" s="0"/>
+      <c r="AFG32" s="0"/>
+      <c r="AFH32" s="0"/>
+      <c r="AFI32" s="0"/>
+      <c r="AFJ32" s="0"/>
+      <c r="AFK32" s="0"/>
+      <c r="AFL32" s="0"/>
+      <c r="AFM32" s="0"/>
+      <c r="AFN32" s="0"/>
+      <c r="AFO32" s="0"/>
+      <c r="AFP32" s="0"/>
+      <c r="AFQ32" s="0"/>
+      <c r="AFR32" s="0"/>
+      <c r="AFS32" s="0"/>
+      <c r="AFT32" s="0"/>
+      <c r="AFU32" s="0"/>
+      <c r="AFV32" s="0"/>
+      <c r="AFW32" s="0"/>
+      <c r="AFX32" s="0"/>
+      <c r="AFY32" s="0"/>
+      <c r="AFZ32" s="0"/>
+      <c r="AGA32" s="0"/>
+      <c r="AGB32" s="0"/>
+      <c r="AGC32" s="0"/>
+      <c r="AGD32" s="0"/>
+      <c r="AGE32" s="0"/>
+      <c r="AGF32" s="0"/>
+      <c r="AGG32" s="0"/>
+      <c r="AGH32" s="0"/>
+      <c r="AGI32" s="0"/>
+      <c r="AGJ32" s="0"/>
+      <c r="AGK32" s="0"/>
+      <c r="AGL32" s="0"/>
+      <c r="AGM32" s="0"/>
+      <c r="AGN32" s="0"/>
+      <c r="AGO32" s="0"/>
+      <c r="AGP32" s="0"/>
+      <c r="AGQ32" s="0"/>
+      <c r="AGR32" s="0"/>
+      <c r="AGS32" s="0"/>
+      <c r="AGT32" s="0"/>
+      <c r="AGU32" s="0"/>
+      <c r="AGV32" s="0"/>
+      <c r="AGW32" s="0"/>
+      <c r="AGX32" s="0"/>
+      <c r="AGY32" s="0"/>
+      <c r="AGZ32" s="0"/>
+      <c r="AHA32" s="0"/>
+      <c r="AHB32" s="0"/>
+      <c r="AHC32" s="0"/>
+      <c r="AHD32" s="0"/>
+      <c r="AHE32" s="0"/>
+      <c r="AHF32" s="0"/>
+      <c r="AHG32" s="0"/>
+      <c r="AHH32" s="0"/>
+      <c r="AHI32" s="0"/>
+      <c r="AHJ32" s="0"/>
+      <c r="AHK32" s="0"/>
+      <c r="AHL32" s="0"/>
+      <c r="AHM32" s="0"/>
+      <c r="AHN32" s="0"/>
+      <c r="AHO32" s="0"/>
+      <c r="AHP32" s="0"/>
+      <c r="AHQ32" s="0"/>
+      <c r="AHR32" s="0"/>
+      <c r="AHS32" s="0"/>
+      <c r="AHT32" s="0"/>
+      <c r="AHU32" s="0"/>
+      <c r="AHV32" s="0"/>
+      <c r="AHW32" s="0"/>
+      <c r="AHX32" s="0"/>
+      <c r="AHY32" s="0"/>
+      <c r="AHZ32" s="0"/>
+      <c r="AIA32" s="0"/>
+      <c r="AIB32" s="0"/>
+      <c r="AIC32" s="0"/>
+      <c r="AID32" s="0"/>
+      <c r="AIE32" s="0"/>
+      <c r="AIF32" s="0"/>
+      <c r="AIG32" s="0"/>
+      <c r="AIH32" s="0"/>
+      <c r="AII32" s="0"/>
+      <c r="AIJ32" s="0"/>
+      <c r="AIK32" s="0"/>
+      <c r="AIL32" s="0"/>
+      <c r="AIM32" s="0"/>
+      <c r="AIN32" s="0"/>
+      <c r="AIO32" s="0"/>
+      <c r="AIP32" s="0"/>
+      <c r="AIQ32" s="0"/>
+      <c r="AIR32" s="0"/>
+      <c r="AIS32" s="0"/>
+      <c r="AIT32" s="0"/>
+      <c r="AIU32" s="0"/>
+      <c r="AIV32" s="0"/>
+      <c r="AIW32" s="0"/>
+      <c r="AIX32" s="0"/>
+      <c r="AIY32" s="0"/>
+      <c r="AIZ32" s="0"/>
+      <c r="AJA32" s="0"/>
+      <c r="AJB32" s="0"/>
+      <c r="AJC32" s="0"/>
+      <c r="AJD32" s="0"/>
+      <c r="AJE32" s="0"/>
+      <c r="AJF32" s="0"/>
+      <c r="AJG32" s="0"/>
+      <c r="AJH32" s="0"/>
+      <c r="AJI32" s="0"/>
+      <c r="AJJ32" s="0"/>
+      <c r="AJK32" s="0"/>
+      <c r="AJL32" s="0"/>
+      <c r="AJM32" s="0"/>
+      <c r="AJN32" s="0"/>
+      <c r="AJO32" s="0"/>
+      <c r="AJP32" s="0"/>
+      <c r="AJQ32" s="0"/>
+      <c r="AJR32" s="0"/>
+      <c r="AJS32" s="0"/>
+      <c r="AJT32" s="0"/>
+      <c r="AJU32" s="0"/>
+      <c r="AJV32" s="0"/>
+      <c r="AJW32" s="0"/>
+      <c r="AJX32" s="0"/>
+      <c r="AJY32" s="0"/>
+      <c r="AJZ32" s="0"/>
+      <c r="AKA32" s="0"/>
+      <c r="AKB32" s="0"/>
+      <c r="AKC32" s="0"/>
+      <c r="AKD32" s="0"/>
+      <c r="AKE32" s="0"/>
+      <c r="AKF32" s="0"/>
+      <c r="AKG32" s="0"/>
+      <c r="AKH32" s="0"/>
+      <c r="AKI32" s="0"/>
+      <c r="AKJ32" s="0"/>
+      <c r="AKK32" s="0"/>
+      <c r="AKL32" s="0"/>
+      <c r="AKM32" s="0"/>
+      <c r="AKN32" s="0"/>
+      <c r="AKO32" s="0"/>
+      <c r="AKP32" s="0"/>
+      <c r="AKQ32" s="0"/>
+      <c r="AKR32" s="0"/>
+      <c r="AKS32" s="0"/>
+      <c r="AKT32" s="0"/>
+      <c r="AKU32" s="0"/>
+      <c r="AKV32" s="0"/>
+      <c r="AKW32" s="0"/>
+      <c r="AKX32" s="0"/>
+      <c r="AKY32" s="0"/>
+      <c r="AKZ32" s="0"/>
+      <c r="ALA32" s="0"/>
+      <c r="ALB32" s="0"/>
+      <c r="ALC32" s="0"/>
+      <c r="ALD32" s="0"/>
+      <c r="ALE32" s="0"/>
+      <c r="ALF32" s="0"/>
+      <c r="ALG32" s="0"/>
+      <c r="ALH32" s="0"/>
+      <c r="ALI32" s="0"/>
+      <c r="ALJ32" s="0"/>
+      <c r="ALK32" s="0"/>
+      <c r="ALL32" s="0"/>
+      <c r="ALM32" s="0"/>
+      <c r="ALN32" s="0"/>
+      <c r="ALO32" s="0"/>
+      <c r="ALP32" s="0"/>
+      <c r="ALQ32" s="0"/>
+      <c r="ALR32" s="0"/>
+      <c r="ALS32" s="0"/>
+      <c r="ALT32" s="0"/>
+      <c r="ALU32" s="0"/>
+      <c r="ALV32" s="0"/>
+      <c r="ALW32" s="0"/>
+      <c r="ALX32" s="0"/>
+      <c r="ALY32" s="0"/>
+      <c r="ALZ32" s="0"/>
+      <c r="AMA32" s="0"/>
+      <c r="AMB32" s="0"/>
+      <c r="AMC32" s="0"/>
+      <c r="AMD32" s="0"/>
+      <c r="AME32" s="0"/>
+      <c r="AMF32" s="0"/>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+      <c r="AX33" s="0"/>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+      <c r="BI33" s="0"/>
+      <c r="BJ33" s="0"/>
+      <c r="BK33" s="0"/>
+      <c r="BL33" s="0"/>
+      <c r="BM33" s="0"/>
+      <c r="BN33" s="0"/>
+      <c r="BO33" s="0"/>
+      <c r="BP33" s="0"/>
+      <c r="BQ33" s="0"/>
+      <c r="BR33" s="0"/>
+      <c r="BS33" s="0"/>
+      <c r="BT33" s="0"/>
+      <c r="BU33" s="0"/>
+      <c r="BV33" s="0"/>
+      <c r="BW33" s="0"/>
+      <c r="BX33" s="0"/>
+      <c r="BY33" s="0"/>
+      <c r="BZ33" s="0"/>
+      <c r="CA33" s="0"/>
+      <c r="CB33" s="0"/>
+      <c r="CC33" s="0"/>
+      <c r="CD33" s="0"/>
+      <c r="CE33" s="0"/>
+      <c r="CF33" s="0"/>
+      <c r="CG33" s="0"/>
+      <c r="CH33" s="0"/>
+      <c r="CI33" s="0"/>
+      <c r="CJ33" s="0"/>
+      <c r="CK33" s="0"/>
+      <c r="CL33" s="0"/>
+      <c r="CM33" s="0"/>
+      <c r="CN33" s="0"/>
+      <c r="CO33" s="0"/>
+      <c r="CP33" s="0"/>
+      <c r="CQ33" s="0"/>
+      <c r="CR33" s="0"/>
+      <c r="CS33" s="0"/>
+      <c r="CT33" s="0"/>
+      <c r="CU33" s="0"/>
+      <c r="CV33" s="0"/>
+      <c r="CW33" s="0"/>
+      <c r="CX33" s="0"/>
+      <c r="CY33" s="0"/>
+      <c r="CZ33" s="0"/>
+      <c r="DA33" s="0"/>
+      <c r="DB33" s="0"/>
+      <c r="DC33" s="0"/>
+      <c r="DD33" s="0"/>
+      <c r="DE33" s="0"/>
+      <c r="DF33" s="0"/>
+      <c r="DG33" s="0"/>
+      <c r="DH33" s="0"/>
+      <c r="DI33" s="0"/>
+      <c r="DJ33" s="0"/>
+      <c r="DK33" s="0"/>
+      <c r="DL33" s="0"/>
+      <c r="DM33" s="0"/>
+      <c r="DN33" s="0"/>
+      <c r="DO33" s="0"/>
+      <c r="DP33" s="0"/>
+      <c r="DQ33" s="0"/>
+      <c r="DR33" s="0"/>
+      <c r="DS33" s="0"/>
+      <c r="DT33" s="0"/>
+      <c r="DU33" s="0"/>
+      <c r="DV33" s="0"/>
+      <c r="DW33" s="0"/>
+      <c r="DX33" s="0"/>
+      <c r="DY33" s="0"/>
+      <c r="DZ33" s="0"/>
+      <c r="EA33" s="0"/>
+      <c r="EB33" s="0"/>
+      <c r="EC33" s="0"/>
+      <c r="ED33" s="0"/>
+      <c r="EE33" s="0"/>
+      <c r="EF33" s="0"/>
+      <c r="EG33" s="0"/>
+      <c r="EH33" s="0"/>
+      <c r="EI33" s="0"/>
+      <c r="EJ33" s="0"/>
+      <c r="EK33" s="0"/>
+      <c r="EL33" s="0"/>
+      <c r="EM33" s="0"/>
+      <c r="EN33" s="0"/>
+      <c r="EO33" s="0"/>
+      <c r="EP33" s="0"/>
+      <c r="EQ33" s="0"/>
+      <c r="ER33" s="0"/>
+      <c r="ES33" s="0"/>
+      <c r="ET33" s="0"/>
+      <c r="EU33" s="0"/>
+      <c r="EV33" s="0"/>
+      <c r="EW33" s="0"/>
+      <c r="EX33" s="0"/>
+      <c r="EY33" s="0"/>
+      <c r="EZ33" s="0"/>
+      <c r="FA33" s="0"/>
+      <c r="FB33" s="0"/>
+      <c r="FC33" s="0"/>
+      <c r="FD33" s="0"/>
+      <c r="FE33" s="0"/>
+      <c r="FF33" s="0"/>
+      <c r="FG33" s="0"/>
+      <c r="FH33" s="0"/>
+      <c r="FI33" s="0"/>
+      <c r="FJ33" s="0"/>
+      <c r="FK33" s="0"/>
+      <c r="FL33" s="0"/>
+      <c r="FM33" s="0"/>
+      <c r="FN33" s="0"/>
+      <c r="FO33" s="0"/>
+      <c r="FP33" s="0"/>
+      <c r="FQ33" s="0"/>
+      <c r="FR33" s="0"/>
+      <c r="FS33" s="0"/>
+      <c r="FT33" s="0"/>
+      <c r="FU33" s="0"/>
+      <c r="FV33" s="0"/>
+      <c r="FW33" s="0"/>
+      <c r="FX33" s="0"/>
+      <c r="FY33" s="0"/>
+      <c r="FZ33" s="0"/>
+      <c r="GA33" s="0"/>
+      <c r="GB33" s="0"/>
+      <c r="GC33" s="0"/>
+      <c r="GD33" s="0"/>
+      <c r="GE33" s="0"/>
+      <c r="GF33" s="0"/>
+      <c r="GG33" s="0"/>
+      <c r="GH33" s="0"/>
+      <c r="GI33" s="0"/>
+      <c r="GJ33" s="0"/>
+      <c r="GK33" s="0"/>
+      <c r="GL33" s="0"/>
+      <c r="GM33" s="0"/>
+      <c r="GN33" s="0"/>
+      <c r="GO33" s="0"/>
+      <c r="GP33" s="0"/>
+      <c r="GQ33" s="0"/>
+      <c r="GR33" s="0"/>
+      <c r="GS33" s="0"/>
+      <c r="GT33" s="0"/>
+      <c r="GU33" s="0"/>
+      <c r="GV33" s="0"/>
+      <c r="GW33" s="0"/>
+      <c r="GX33" s="0"/>
+      <c r="GY33" s="0"/>
+      <c r="GZ33" s="0"/>
+      <c r="HA33" s="0"/>
+      <c r="HB33" s="0"/>
+      <c r="HC33" s="0"/>
+      <c r="HD33" s="0"/>
+      <c r="HE33" s="0"/>
+      <c r="HF33" s="0"/>
+      <c r="HG33" s="0"/>
+      <c r="HH33" s="0"/>
+      <c r="HI33" s="0"/>
+      <c r="HJ33" s="0"/>
+      <c r="HK33" s="0"/>
+      <c r="HL33" s="0"/>
+      <c r="HM33" s="0"/>
+      <c r="HN33" s="0"/>
+      <c r="HO33" s="0"/>
+      <c r="HP33" s="0"/>
+      <c r="HQ33" s="0"/>
+      <c r="HR33" s="0"/>
+      <c r="HS33" s="0"/>
+      <c r="HT33" s="0"/>
+      <c r="HU33" s="0"/>
+      <c r="HV33" s="0"/>
+      <c r="HW33" s="0"/>
+      <c r="HX33" s="0"/>
+      <c r="HY33" s="0"/>
+      <c r="HZ33" s="0"/>
+      <c r="IA33" s="0"/>
+      <c r="IB33" s="0"/>
+      <c r="IC33" s="0"/>
+      <c r="ID33" s="0"/>
+      <c r="IE33" s="0"/>
+      <c r="IF33" s="0"/>
+      <c r="IG33" s="0"/>
+      <c r="IH33" s="0"/>
+      <c r="II33" s="0"/>
+      <c r="IJ33" s="0"/>
+      <c r="IK33" s="0"/>
+      <c r="IL33" s="0"/>
+      <c r="IM33" s="0"/>
+      <c r="IN33" s="0"/>
+      <c r="IO33" s="0"/>
+      <c r="IP33" s="0"/>
+      <c r="IQ33" s="0"/>
+      <c r="IR33" s="0"/>
+      <c r="IS33" s="0"/>
+      <c r="IT33" s="0"/>
+      <c r="IU33" s="0"/>
+      <c r="IV33" s="0"/>
+      <c r="IW33" s="0"/>
+      <c r="IX33" s="0"/>
+      <c r="IY33" s="0"/>
+      <c r="IZ33" s="0"/>
+      <c r="JA33" s="0"/>
+      <c r="JB33" s="0"/>
+      <c r="JC33" s="0"/>
+      <c r="JD33" s="0"/>
+      <c r="JE33" s="0"/>
+      <c r="JF33" s="0"/>
+      <c r="JG33" s="0"/>
+      <c r="JH33" s="0"/>
+      <c r="JI33" s="0"/>
+      <c r="JJ33" s="0"/>
+      <c r="JK33" s="0"/>
+      <c r="JL33" s="0"/>
+      <c r="JM33" s="0"/>
+      <c r="JN33" s="0"/>
+      <c r="JO33" s="0"/>
+      <c r="JP33" s="0"/>
+      <c r="JQ33" s="0"/>
+      <c r="JR33" s="0"/>
+      <c r="JS33" s="0"/>
+      <c r="JT33" s="0"/>
+      <c r="JU33" s="0"/>
+      <c r="JV33" s="0"/>
+      <c r="JW33" s="0"/>
+      <c r="JX33" s="0"/>
+      <c r="JY33" s="0"/>
+      <c r="JZ33" s="0"/>
+      <c r="KA33" s="0"/>
+      <c r="KB33" s="0"/>
+      <c r="KC33" s="0"/>
+      <c r="KD33" s="0"/>
+      <c r="KE33" s="0"/>
+      <c r="KF33" s="0"/>
+      <c r="KG33" s="0"/>
+      <c r="KH33" s="0"/>
+      <c r="KI33" s="0"/>
+      <c r="KJ33" s="0"/>
+      <c r="KK33" s="0"/>
+      <c r="KL33" s="0"/>
+      <c r="KM33" s="0"/>
+      <c r="KN33" s="0"/>
+      <c r="KO33" s="0"/>
+      <c r="KP33" s="0"/>
+      <c r="KQ33" s="0"/>
+      <c r="KR33" s="0"/>
+      <c r="KS33" s="0"/>
+      <c r="KT33" s="0"/>
+      <c r="KU33" s="0"/>
+      <c r="KV33" s="0"/>
+      <c r="KW33" s="0"/>
+      <c r="KX33" s="0"/>
+      <c r="KY33" s="0"/>
+      <c r="KZ33" s="0"/>
+      <c r="LA33" s="0"/>
+      <c r="LB33" s="0"/>
+      <c r="LC33" s="0"/>
+      <c r="LD33" s="0"/>
+      <c r="LE33" s="0"/>
+      <c r="LF33" s="0"/>
+      <c r="LG33" s="0"/>
+      <c r="LH33" s="0"/>
+      <c r="LI33" s="0"/>
+      <c r="LJ33" s="0"/>
+      <c r="LK33" s="0"/>
+      <c r="LL33" s="0"/>
+      <c r="LM33" s="0"/>
+      <c r="LN33" s="0"/>
+      <c r="LO33" s="0"/>
+      <c r="LP33" s="0"/>
+      <c r="LQ33" s="0"/>
+      <c r="LR33" s="0"/>
+      <c r="LS33" s="0"/>
+      <c r="LT33" s="0"/>
+      <c r="LU33" s="0"/>
+      <c r="LV33" s="0"/>
+      <c r="LW33" s="0"/>
+      <c r="LX33" s="0"/>
+      <c r="LY33" s="0"/>
+      <c r="LZ33" s="0"/>
+      <c r="MA33" s="0"/>
+      <c r="MB33" s="0"/>
+      <c r="MC33" s="0"/>
+      <c r="MD33" s="0"/>
+      <c r="ME33" s="0"/>
+      <c r="MF33" s="0"/>
+      <c r="MG33" s="0"/>
+      <c r="MH33" s="0"/>
+      <c r="MI33" s="0"/>
+      <c r="MJ33" s="0"/>
+      <c r="MK33" s="0"/>
+      <c r="ML33" s="0"/>
+      <c r="MM33" s="0"/>
+      <c r="MN33" s="0"/>
+      <c r="MO33" s="0"/>
+      <c r="MP33" s="0"/>
+      <c r="MQ33" s="0"/>
+      <c r="MR33" s="0"/>
+      <c r="MS33" s="0"/>
+      <c r="MT33" s="0"/>
+      <c r="MU33" s="0"/>
+      <c r="MV33" s="0"/>
+      <c r="MW33" s="0"/>
+      <c r="MX33" s="0"/>
+      <c r="MY33" s="0"/>
+      <c r="MZ33" s="0"/>
+      <c r="NA33" s="0"/>
+      <c r="NB33" s="0"/>
+      <c r="NC33" s="0"/>
+      <c r="ND33" s="0"/>
+      <c r="NE33" s="0"/>
+      <c r="NF33" s="0"/>
+      <c r="NG33" s="0"/>
+      <c r="NH33" s="0"/>
+      <c r="NI33" s="0"/>
+      <c r="NJ33" s="0"/>
+      <c r="NK33" s="0"/>
+      <c r="NL33" s="0"/>
+      <c r="NM33" s="0"/>
+      <c r="NN33" s="0"/>
+      <c r="NO33" s="0"/>
+      <c r="NP33" s="0"/>
+      <c r="NQ33" s="0"/>
+      <c r="NR33" s="0"/>
+      <c r="NS33" s="0"/>
+      <c r="NT33" s="0"/>
+      <c r="NU33" s="0"/>
+      <c r="NV33" s="0"/>
+      <c r="NW33" s="0"/>
+      <c r="NX33" s="0"/>
+      <c r="NY33" s="0"/>
+      <c r="NZ33" s="0"/>
+      <c r="OA33" s="0"/>
+      <c r="OB33" s="0"/>
+      <c r="OC33" s="0"/>
+      <c r="OD33" s="0"/>
+      <c r="OE33" s="0"/>
+      <c r="OF33" s="0"/>
+      <c r="OG33" s="0"/>
+      <c r="OH33" s="0"/>
+      <c r="OI33" s="0"/>
+      <c r="OJ33" s="0"/>
+      <c r="OK33" s="0"/>
+      <c r="OL33" s="0"/>
+      <c r="OM33" s="0"/>
+      <c r="ON33" s="0"/>
+      <c r="OO33" s="0"/>
+      <c r="OP33" s="0"/>
+      <c r="OQ33" s="0"/>
+      <c r="OR33" s="0"/>
+      <c r="OS33" s="0"/>
+      <c r="OT33" s="0"/>
+      <c r="OU33" s="0"/>
+      <c r="OV33" s="0"/>
+      <c r="OW33" s="0"/>
+      <c r="OX33" s="0"/>
+      <c r="OY33" s="0"/>
+      <c r="OZ33" s="0"/>
+      <c r="PA33" s="0"/>
+      <c r="PB33" s="0"/>
+      <c r="PC33" s="0"/>
+      <c r="PD33" s="0"/>
+      <c r="PE33" s="0"/>
+      <c r="PF33" s="0"/>
+      <c r="PG33" s="0"/>
+      <c r="PH33" s="0"/>
+      <c r="PI33" s="0"/>
+      <c r="PJ33" s="0"/>
+      <c r="PK33" s="0"/>
+      <c r="PL33" s="0"/>
+      <c r="PM33" s="0"/>
+      <c r="PN33" s="0"/>
+      <c r="PO33" s="0"/>
+      <c r="PP33" s="0"/>
+      <c r="PQ33" s="0"/>
+      <c r="PR33" s="0"/>
+      <c r="PS33" s="0"/>
+      <c r="PT33" s="0"/>
+      <c r="PU33" s="0"/>
+      <c r="PV33" s="0"/>
+      <c r="PW33" s="0"/>
+      <c r="PX33" s="0"/>
+      <c r="PY33" s="0"/>
+      <c r="PZ33" s="0"/>
+      <c r="QA33" s="0"/>
+      <c r="QB33" s="0"/>
+      <c r="QC33" s="0"/>
+      <c r="QD33" s="0"/>
+      <c r="QE33" s="0"/>
+      <c r="QF33" s="0"/>
+      <c r="QG33" s="0"/>
+      <c r="QH33" s="0"/>
+      <c r="QI33" s="0"/>
+      <c r="QJ33" s="0"/>
+      <c r="QK33" s="0"/>
+      <c r="QL33" s="0"/>
+      <c r="QM33" s="0"/>
+      <c r="QN33" s="0"/>
+      <c r="QO33" s="0"/>
+      <c r="QP33" s="0"/>
+      <c r="QQ33" s="0"/>
+      <c r="QR33" s="0"/>
+      <c r="QS33" s="0"/>
+      <c r="QT33" s="0"/>
+      <c r="QU33" s="0"/>
+      <c r="QV33" s="0"/>
+      <c r="QW33" s="0"/>
+      <c r="QX33" s="0"/>
+      <c r="QY33" s="0"/>
+      <c r="QZ33" s="0"/>
+      <c r="RA33" s="0"/>
+      <c r="RB33" s="0"/>
+      <c r="RC33" s="0"/>
+      <c r="RD33" s="0"/>
+      <c r="RE33" s="0"/>
+      <c r="RF33" s="0"/>
+      <c r="RG33" s="0"/>
+      <c r="RH33" s="0"/>
+      <c r="RI33" s="0"/>
+      <c r="RJ33" s="0"/>
+      <c r="RK33" s="0"/>
+      <c r="RL33" s="0"/>
+      <c r="RM33" s="0"/>
+      <c r="RN33" s="0"/>
+      <c r="RO33" s="0"/>
+      <c r="RP33" s="0"/>
+      <c r="RQ33" s="0"/>
+      <c r="RR33" s="0"/>
+      <c r="RS33" s="0"/>
+      <c r="RT33" s="0"/>
+      <c r="RU33" s="0"/>
+      <c r="RV33" s="0"/>
+      <c r="RW33" s="0"/>
+      <c r="RX33" s="0"/>
+      <c r="RY33" s="0"/>
+      <c r="RZ33" s="0"/>
+      <c r="SA33" s="0"/>
+      <c r="SB33" s="0"/>
+      <c r="SC33" s="0"/>
+      <c r="SD33" s="0"/>
+      <c r="SE33" s="0"/>
+      <c r="SF33" s="0"/>
+      <c r="SG33" s="0"/>
+      <c r="SH33" s="0"/>
+      <c r="SI33" s="0"/>
+      <c r="SJ33" s="0"/>
+      <c r="SK33" s="0"/>
+      <c r="SL33" s="0"/>
+      <c r="SM33" s="0"/>
+      <c r="SN33" s="0"/>
+      <c r="SO33" s="0"/>
+      <c r="SP33" s="0"/>
+      <c r="SQ33" s="0"/>
+      <c r="SR33" s="0"/>
+      <c r="SS33" s="0"/>
+      <c r="ST33" s="0"/>
+      <c r="SU33" s="0"/>
+      <c r="SV33" s="0"/>
+      <c r="SW33" s="0"/>
+      <c r="SX33" s="0"/>
+      <c r="SY33" s="0"/>
+      <c r="SZ33" s="0"/>
+      <c r="TA33" s="0"/>
+      <c r="TB33" s="0"/>
+      <c r="TC33" s="0"/>
+      <c r="TD33" s="0"/>
+      <c r="TE33" s="0"/>
+      <c r="TF33" s="0"/>
+      <c r="TG33" s="0"/>
+      <c r="TH33" s="0"/>
+      <c r="TI33" s="0"/>
+      <c r="TJ33" s="0"/>
+      <c r="TK33" s="0"/>
+      <c r="TL33" s="0"/>
+      <c r="TM33" s="0"/>
+      <c r="TN33" s="0"/>
+      <c r="TO33" s="0"/>
+      <c r="TP33" s="0"/>
+      <c r="TQ33" s="0"/>
+      <c r="TR33" s="0"/>
+      <c r="TS33" s="0"/>
+      <c r="TT33" s="0"/>
+      <c r="TU33" s="0"/>
+      <c r="TV33" s="0"/>
+      <c r="TW33" s="0"/>
+      <c r="TX33" s="0"/>
+      <c r="TY33" s="0"/>
+      <c r="TZ33" s="0"/>
+      <c r="UA33" s="0"/>
+      <c r="UB33" s="0"/>
+      <c r="UC33" s="0"/>
+      <c r="UD33" s="0"/>
+      <c r="UE33" s="0"/>
+      <c r="UF33" s="0"/>
+      <c r="UG33" s="0"/>
+      <c r="UH33" s="0"/>
+      <c r="UI33" s="0"/>
+      <c r="UJ33" s="0"/>
+      <c r="UK33" s="0"/>
+      <c r="UL33" s="0"/>
+      <c r="UM33" s="0"/>
+      <c r="UN33" s="0"/>
+      <c r="UO33" s="0"/>
+      <c r="UP33" s="0"/>
+      <c r="UQ33" s="0"/>
+      <c r="UR33" s="0"/>
+      <c r="US33" s="0"/>
+      <c r="UT33" s="0"/>
+      <c r="UU33" s="0"/>
+      <c r="UV33" s="0"/>
+      <c r="UW33" s="0"/>
+      <c r="UX33" s="0"/>
+      <c r="UY33" s="0"/>
+      <c r="UZ33" s="0"/>
+      <c r="VA33" s="0"/>
+      <c r="VB33" s="0"/>
+      <c r="VC33" s="0"/>
+      <c r="VD33" s="0"/>
+      <c r="VE33" s="0"/>
+      <c r="VF33" s="0"/>
+      <c r="VG33" s="0"/>
+      <c r="VH33" s="0"/>
+      <c r="VI33" s="0"/>
+      <c r="VJ33" s="0"/>
+      <c r="VK33" s="0"/>
+      <c r="VL33" s="0"/>
+      <c r="VM33" s="0"/>
+      <c r="VN33" s="0"/>
+      <c r="VO33" s="0"/>
+      <c r="VP33" s="0"/>
+      <c r="VQ33" s="0"/>
+      <c r="VR33" s="0"/>
+      <c r="VS33" s="0"/>
+      <c r="VT33" s="0"/>
+      <c r="VU33" s="0"/>
+      <c r="VV33" s="0"/>
+      <c r="VW33" s="0"/>
+      <c r="VX33" s="0"/>
+      <c r="VY33" s="0"/>
+      <c r="VZ33" s="0"/>
+      <c r="WA33" s="0"/>
+      <c r="WB33" s="0"/>
+      <c r="WC33" s="0"/>
+      <c r="WD33" s="0"/>
+      <c r="WE33" s="0"/>
+      <c r="WF33" s="0"/>
+      <c r="WG33" s="0"/>
+      <c r="WH33" s="0"/>
+      <c r="WI33" s="0"/>
+      <c r="WJ33" s="0"/>
+      <c r="WK33" s="0"/>
+      <c r="WL33" s="0"/>
+      <c r="WM33" s="0"/>
+      <c r="WN33" s="0"/>
+      <c r="WO33" s="0"/>
+      <c r="WP33" s="0"/>
+      <c r="WQ33" s="0"/>
+      <c r="WR33" s="0"/>
+      <c r="WS33" s="0"/>
+      <c r="WT33" s="0"/>
+      <c r="WU33" s="0"/>
+      <c r="WV33" s="0"/>
+      <c r="WW33" s="0"/>
+      <c r="WX33" s="0"/>
+      <c r="WY33" s="0"/>
+      <c r="WZ33" s="0"/>
+      <c r="XA33" s="0"/>
+      <c r="XB33" s="0"/>
+      <c r="XC33" s="0"/>
+      <c r="XD33" s="0"/>
+      <c r="XE33" s="0"/>
+      <c r="XF33" s="0"/>
+      <c r="XG33" s="0"/>
+      <c r="XH33" s="0"/>
+      <c r="XI33" s="0"/>
+      <c r="XJ33" s="0"/>
+      <c r="XK33" s="0"/>
+      <c r="XL33" s="0"/>
+      <c r="XM33" s="0"/>
+      <c r="XN33" s="0"/>
+      <c r="XO33" s="0"/>
+      <c r="XP33" s="0"/>
+      <c r="XQ33" s="0"/>
+      <c r="XR33" s="0"/>
+      <c r="XS33" s="0"/>
+      <c r="XT33" s="0"/>
+      <c r="XU33" s="0"/>
+      <c r="XV33" s="0"/>
+      <c r="XW33" s="0"/>
+      <c r="XX33" s="0"/>
+      <c r="XY33" s="0"/>
+      <c r="XZ33" s="0"/>
+      <c r="YA33" s="0"/>
+      <c r="YB33" s="0"/>
+      <c r="YC33" s="0"/>
+      <c r="YD33" s="0"/>
+      <c r="YE33" s="0"/>
+      <c r="YF33" s="0"/>
+      <c r="YG33" s="0"/>
+      <c r="YH33" s="0"/>
+      <c r="YI33" s="0"/>
+      <c r="YJ33" s="0"/>
+      <c r="YK33" s="0"/>
+      <c r="YL33" s="0"/>
+      <c r="YM33" s="0"/>
+      <c r="YN33" s="0"/>
+      <c r="YO33" s="0"/>
+      <c r="YP33" s="0"/>
+      <c r="YQ33" s="0"/>
+      <c r="YR33" s="0"/>
+      <c r="YS33" s="0"/>
+      <c r="YT33" s="0"/>
+      <c r="YU33" s="0"/>
+      <c r="YV33" s="0"/>
+      <c r="YW33" s="0"/>
+      <c r="YX33" s="0"/>
+      <c r="YY33" s="0"/>
+      <c r="YZ33" s="0"/>
+      <c r="ZA33" s="0"/>
+      <c r="ZB33" s="0"/>
+      <c r="ZC33" s="0"/>
+      <c r="ZD33" s="0"/>
+      <c r="ZE33" s="0"/>
+      <c r="ZF33" s="0"/>
+      <c r="ZG33" s="0"/>
+      <c r="ZH33" s="0"/>
+      <c r="ZI33" s="0"/>
+      <c r="ZJ33" s="0"/>
+      <c r="ZK33" s="0"/>
+      <c r="ZL33" s="0"/>
+      <c r="ZM33" s="0"/>
+      <c r="ZN33" s="0"/>
+      <c r="ZO33" s="0"/>
+      <c r="ZP33" s="0"/>
+      <c r="ZQ33" s="0"/>
+      <c r="ZR33" s="0"/>
+      <c r="ZS33" s="0"/>
+      <c r="ZT33" s="0"/>
+      <c r="ZU33" s="0"/>
+      <c r="ZV33" s="0"/>
+      <c r="ZW33" s="0"/>
+      <c r="ZX33" s="0"/>
+      <c r="ZY33" s="0"/>
+      <c r="ZZ33" s="0"/>
+      <c r="AAA33" s="0"/>
+      <c r="AAB33" s="0"/>
+      <c r="AAC33" s="0"/>
+      <c r="AAD33" s="0"/>
+      <c r="AAE33" s="0"/>
+      <c r="AAF33" s="0"/>
+      <c r="AAG33" s="0"/>
+      <c r="AAH33" s="0"/>
+      <c r="AAI33" s="0"/>
+      <c r="AAJ33" s="0"/>
+      <c r="AAK33" s="0"/>
+      <c r="AAL33" s="0"/>
+      <c r="AAM33" s="0"/>
+      <c r="AAN33" s="0"/>
+      <c r="AAO33" s="0"/>
+      <c r="AAP33" s="0"/>
+      <c r="AAQ33" s="0"/>
+      <c r="AAR33" s="0"/>
+      <c r="AAS33" s="0"/>
+      <c r="AAT33" s="0"/>
+      <c r="AAU33" s="0"/>
+      <c r="AAV33" s="0"/>
+      <c r="AAW33" s="0"/>
+      <c r="AAX33" s="0"/>
+      <c r="AAY33" s="0"/>
+      <c r="AAZ33" s="0"/>
+      <c r="ABA33" s="0"/>
+      <c r="ABB33" s="0"/>
+      <c r="ABC33" s="0"/>
+      <c r="ABD33" s="0"/>
+      <c r="ABE33" s="0"/>
+      <c r="ABF33" s="0"/>
+      <c r="ABG33" s="0"/>
+      <c r="ABH33" s="0"/>
+      <c r="ABI33" s="0"/>
+      <c r="ABJ33" s="0"/>
+      <c r="ABK33" s="0"/>
+      <c r="ABL33" s="0"/>
+      <c r="ABM33" s="0"/>
+      <c r="ABN33" s="0"/>
+      <c r="ABO33" s="0"/>
+      <c r="ABP33" s="0"/>
+      <c r="ABQ33" s="0"/>
+      <c r="ABR33" s="0"/>
+      <c r="ABS33" s="0"/>
+      <c r="ABT33" s="0"/>
+      <c r="ABU33" s="0"/>
+      <c r="ABV33" s="0"/>
+      <c r="ABW33" s="0"/>
+      <c r="ABX33" s="0"/>
+      <c r="ABY33" s="0"/>
+      <c r="ABZ33" s="0"/>
+      <c r="ACA33" s="0"/>
+      <c r="ACB33" s="0"/>
+      <c r="ACC33" s="0"/>
+      <c r="ACD33" s="0"/>
+      <c r="ACE33" s="0"/>
+      <c r="ACF33" s="0"/>
+      <c r="ACG33" s="0"/>
+      <c r="ACH33" s="0"/>
+      <c r="ACI33" s="0"/>
+      <c r="ACJ33" s="0"/>
+      <c r="ACK33" s="0"/>
+      <c r="ACL33" s="0"/>
+      <c r="ACM33" s="0"/>
+      <c r="ACN33" s="0"/>
+      <c r="ACO33" s="0"/>
+      <c r="ACP33" s="0"/>
+      <c r="ACQ33" s="0"/>
+      <c r="ACR33" s="0"/>
+      <c r="ACS33" s="0"/>
+      <c r="ACT33" s="0"/>
+      <c r="ACU33" s="0"/>
+      <c r="ACV33" s="0"/>
+      <c r="ACW33" s="0"/>
+      <c r="ACX33" s="0"/>
+      <c r="ACY33" s="0"/>
+      <c r="ACZ33" s="0"/>
+      <c r="ADA33" s="0"/>
+      <c r="ADB33" s="0"/>
+      <c r="ADC33" s="0"/>
+      <c r="ADD33" s="0"/>
+      <c r="ADE33" s="0"/>
+      <c r="ADF33" s="0"/>
+      <c r="ADG33" s="0"/>
+      <c r="ADH33" s="0"/>
+      <c r="ADI33" s="0"/>
+      <c r="ADJ33" s="0"/>
+      <c r="ADK33" s="0"/>
+      <c r="ADL33" s="0"/>
+      <c r="ADM33" s="0"/>
+      <c r="ADN33" s="0"/>
+      <c r="ADO33" s="0"/>
+      <c r="ADP33" s="0"/>
+      <c r="ADQ33" s="0"/>
+      <c r="ADR33" s="0"/>
+      <c r="ADS33" s="0"/>
+      <c r="ADT33" s="0"/>
+      <c r="ADU33" s="0"/>
+      <c r="ADV33" s="0"/>
+      <c r="ADW33" s="0"/>
+      <c r="ADX33" s="0"/>
+      <c r="ADY33" s="0"/>
+      <c r="ADZ33" s="0"/>
+      <c r="AEA33" s="0"/>
+      <c r="AEB33" s="0"/>
+      <c r="AEC33" s="0"/>
+      <c r="AED33" s="0"/>
+      <c r="AEE33" s="0"/>
+      <c r="AEF33" s="0"/>
+      <c r="AEG33" s="0"/>
+      <c r="AEH33" s="0"/>
+      <c r="AEI33" s="0"/>
+      <c r="AEJ33" s="0"/>
+      <c r="AEK33" s="0"/>
+      <c r="AEL33" s="0"/>
+      <c r="AEM33" s="0"/>
+      <c r="AEN33" s="0"/>
+      <c r="AEO33" s="0"/>
+      <c r="AEP33" s="0"/>
+      <c r="AEQ33" s="0"/>
+      <c r="AER33" s="0"/>
+      <c r="AES33" s="0"/>
+      <c r="AET33" s="0"/>
+      <c r="AEU33" s="0"/>
+      <c r="AEV33" s="0"/>
+      <c r="AEW33" s="0"/>
+      <c r="AEX33" s="0"/>
+      <c r="AEY33" s="0"/>
+      <c r="AEZ33" s="0"/>
+      <c r="AFA33" s="0"/>
+      <c r="AFB33" s="0"/>
+      <c r="AFC33" s="0"/>
+      <c r="AFD33" s="0"/>
+      <c r="AFE33" s="0"/>
+      <c r="AFF33" s="0"/>
+      <c r="AFG33" s="0"/>
+      <c r="AFH33" s="0"/>
+      <c r="AFI33" s="0"/>
+      <c r="AFJ33" s="0"/>
+      <c r="AFK33" s="0"/>
+      <c r="AFL33" s="0"/>
+      <c r="AFM33" s="0"/>
+      <c r="AFN33" s="0"/>
+      <c r="AFO33" s="0"/>
+      <c r="AFP33" s="0"/>
+      <c r="AFQ33" s="0"/>
+      <c r="AFR33" s="0"/>
+      <c r="AFS33" s="0"/>
+      <c r="AFT33" s="0"/>
+      <c r="AFU33" s="0"/>
+      <c r="AFV33" s="0"/>
+      <c r="AFW33" s="0"/>
+      <c r="AFX33" s="0"/>
+      <c r="AFY33" s="0"/>
+      <c r="AFZ33" s="0"/>
+      <c r="AGA33" s="0"/>
+      <c r="AGB33" s="0"/>
+      <c r="AGC33" s="0"/>
+      <c r="AGD33" s="0"/>
+      <c r="AGE33" s="0"/>
+      <c r="AGF33" s="0"/>
+      <c r="AGG33" s="0"/>
+      <c r="AGH33" s="0"/>
+      <c r="AGI33" s="0"/>
+      <c r="AGJ33" s="0"/>
+      <c r="AGK33" s="0"/>
+      <c r="AGL33" s="0"/>
+      <c r="AGM33" s="0"/>
+      <c r="AGN33" s="0"/>
+      <c r="AGO33" s="0"/>
+      <c r="AGP33" s="0"/>
+      <c r="AGQ33" s="0"/>
+      <c r="AGR33" s="0"/>
+      <c r="AGS33" s="0"/>
+      <c r="AGT33" s="0"/>
+      <c r="AGU33" s="0"/>
+      <c r="AGV33" s="0"/>
+      <c r="AGW33" s="0"/>
+      <c r="AGX33" s="0"/>
+      <c r="AGY33" s="0"/>
+      <c r="AGZ33" s="0"/>
+      <c r="AHA33" s="0"/>
+      <c r="AHB33" s="0"/>
+      <c r="AHC33" s="0"/>
+      <c r="AHD33" s="0"/>
+      <c r="AHE33" s="0"/>
+      <c r="AHF33" s="0"/>
+      <c r="AHG33" s="0"/>
+      <c r="AHH33" s="0"/>
+      <c r="AHI33" s="0"/>
+      <c r="AHJ33" s="0"/>
+      <c r="AHK33" s="0"/>
+      <c r="AHL33" s="0"/>
+      <c r="AHM33" s="0"/>
+      <c r="AHN33" s="0"/>
+      <c r="AHO33" s="0"/>
+      <c r="AHP33" s="0"/>
+      <c r="AHQ33" s="0"/>
+      <c r="AHR33" s="0"/>
+      <c r="AHS33" s="0"/>
+      <c r="AHT33" s="0"/>
+      <c r="AHU33" s="0"/>
+      <c r="AHV33" s="0"/>
+      <c r="AHW33" s="0"/>
+      <c r="AHX33" s="0"/>
+      <c r="AHY33" s="0"/>
+      <c r="AHZ33" s="0"/>
+      <c r="AIA33" s="0"/>
+      <c r="AIB33" s="0"/>
+      <c r="AIC33" s="0"/>
+      <c r="AID33" s="0"/>
+      <c r="AIE33" s="0"/>
+      <c r="AIF33" s="0"/>
+      <c r="AIG33" s="0"/>
+      <c r="AIH33" s="0"/>
+      <c r="AII33" s="0"/>
+      <c r="AIJ33" s="0"/>
+      <c r="AIK33" s="0"/>
+      <c r="AIL33" s="0"/>
+      <c r="AIM33" s="0"/>
+      <c r="AIN33" s="0"/>
+      <c r="AIO33" s="0"/>
+      <c r="AIP33" s="0"/>
+      <c r="AIQ33" s="0"/>
+      <c r="AIR33" s="0"/>
+      <c r="AIS33" s="0"/>
+      <c r="AIT33" s="0"/>
+      <c r="AIU33" s="0"/>
+      <c r="AIV33" s="0"/>
+      <c r="AIW33" s="0"/>
+      <c r="AIX33" s="0"/>
+      <c r="AIY33" s="0"/>
+      <c r="AIZ33" s="0"/>
+      <c r="AJA33" s="0"/>
+      <c r="AJB33" s="0"/>
+      <c r="AJC33" s="0"/>
+      <c r="AJD33" s="0"/>
+      <c r="AJE33" s="0"/>
+      <c r="AJF33" s="0"/>
+      <c r="AJG33" s="0"/>
+      <c r="AJH33" s="0"/>
+      <c r="AJI33" s="0"/>
+      <c r="AJJ33" s="0"/>
+      <c r="AJK33" s="0"/>
+      <c r="AJL33" s="0"/>
+      <c r="AJM33" s="0"/>
+      <c r="AJN33" s="0"/>
+      <c r="AJO33" s="0"/>
+      <c r="AJP33" s="0"/>
+      <c r="AJQ33" s="0"/>
+      <c r="AJR33" s="0"/>
+      <c r="AJS33" s="0"/>
+      <c r="AJT33" s="0"/>
+      <c r="AJU33" s="0"/>
+      <c r="AJV33" s="0"/>
+      <c r="AJW33" s="0"/>
+      <c r="AJX33" s="0"/>
+      <c r="AJY33" s="0"/>
+      <c r="AJZ33" s="0"/>
+      <c r="AKA33" s="0"/>
+      <c r="AKB33" s="0"/>
+      <c r="AKC33" s="0"/>
+      <c r="AKD33" s="0"/>
+      <c r="AKE33" s="0"/>
+      <c r="AKF33" s="0"/>
+      <c r="AKG33" s="0"/>
+      <c r="AKH33" s="0"/>
+      <c r="AKI33" s="0"/>
+      <c r="AKJ33" s="0"/>
+      <c r="AKK33" s="0"/>
+      <c r="AKL33" s="0"/>
+      <c r="AKM33" s="0"/>
+      <c r="AKN33" s="0"/>
+      <c r="AKO33" s="0"/>
+      <c r="AKP33" s="0"/>
+      <c r="AKQ33" s="0"/>
+      <c r="AKR33" s="0"/>
+      <c r="AKS33" s="0"/>
+      <c r="AKT33" s="0"/>
+      <c r="AKU33" s="0"/>
+      <c r="AKV33" s="0"/>
+      <c r="AKW33" s="0"/>
+      <c r="AKX33" s="0"/>
+      <c r="AKY33" s="0"/>
+      <c r="AKZ33" s="0"/>
+      <c r="ALA33" s="0"/>
+      <c r="ALB33" s="0"/>
+      <c r="ALC33" s="0"/>
+      <c r="ALD33" s="0"/>
+      <c r="ALE33" s="0"/>
+      <c r="ALF33" s="0"/>
+      <c r="ALG33" s="0"/>
+      <c r="ALH33" s="0"/>
+      <c r="ALI33" s="0"/>
+      <c r="ALJ33" s="0"/>
+      <c r="ALK33" s="0"/>
+      <c r="ALL33" s="0"/>
+      <c r="ALM33" s="0"/>
+      <c r="ALN33" s="0"/>
+      <c r="ALO33" s="0"/>
+      <c r="ALP33" s="0"/>
+      <c r="ALQ33" s="0"/>
+      <c r="ALR33" s="0"/>
+      <c r="ALS33" s="0"/>
+      <c r="ALT33" s="0"/>
+      <c r="ALU33" s="0"/>
+      <c r="ALV33" s="0"/>
+      <c r="ALW33" s="0"/>
+      <c r="ALX33" s="0"/>
+      <c r="ALY33" s="0"/>
+      <c r="ALZ33" s="0"/>
+      <c r="AMA33" s="0"/>
+      <c r="AMB33" s="0"/>
+      <c r="AMC33" s="0"/>
+      <c r="AMD33" s="0"/>
+      <c r="AME33" s="0"/>
+      <c r="AMF33" s="0"/>
+      <c r="AMG33" s="0"/>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="0"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="8"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AF34" s="0"/>
+      <c r="AG34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
+      <c r="AL34" s="0"/>
+      <c r="AM34" s="0"/>
+      <c r="AN34" s="0"/>
+      <c r="AO34" s="0"/>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+      <c r="AR34" s="0"/>
+      <c r="AS34" s="0"/>
+      <c r="AT34" s="0"/>
+      <c r="AU34" s="0"/>
+      <c r="AV34" s="0"/>
+      <c r="AW34" s="0"/>
+      <c r="AX34" s="0"/>
+      <c r="AY34" s="0"/>
+      <c r="AZ34" s="0"/>
+      <c r="BA34" s="0"/>
+      <c r="BB34" s="0"/>
+      <c r="BC34" s="0"/>
+      <c r="BD34" s="0"/>
+      <c r="BE34" s="0"/>
+      <c r="BF34" s="0"/>
+      <c r="BG34" s="0"/>
+      <c r="BH34" s="0"/>
+      <c r="BI34" s="0"/>
+      <c r="BJ34" s="0"/>
+      <c r="BK34" s="0"/>
+      <c r="BL34" s="0"/>
+      <c r="BM34" s="0"/>
+      <c r="BN34" s="0"/>
+      <c r="BO34" s="0"/>
+      <c r="BP34" s="0"/>
+      <c r="BQ34" s="0"/>
+      <c r="BR34" s="0"/>
+      <c r="BS34" s="0"/>
+      <c r="BT34" s="0"/>
+      <c r="BU34" s="0"/>
+      <c r="BV34" s="0"/>
+      <c r="BW34" s="0"/>
+      <c r="BX34" s="0"/>
+      <c r="BY34" s="0"/>
+      <c r="BZ34" s="0"/>
+      <c r="CA34" s="0"/>
+      <c r="CB34" s="0"/>
+      <c r="CC34" s="0"/>
+      <c r="CD34" s="0"/>
+      <c r="CE34" s="0"/>
+      <c r="CF34" s="0"/>
+      <c r="CG34" s="0"/>
+      <c r="CH34" s="0"/>
+      <c r="CI34" s="0"/>
+      <c r="CJ34" s="0"/>
+      <c r="CK34" s="0"/>
+      <c r="CL34" s="0"/>
+      <c r="CM34" s="0"/>
+      <c r="CN34" s="0"/>
+      <c r="CO34" s="0"/>
+      <c r="CP34" s="0"/>
+      <c r="CQ34" s="0"/>
+      <c r="CR34" s="0"/>
+      <c r="CS34" s="0"/>
+      <c r="CT34" s="0"/>
+      <c r="CU34" s="0"/>
+      <c r="CV34" s="0"/>
+      <c r="CW34" s="0"/>
+      <c r="CX34" s="0"/>
+      <c r="CY34" s="0"/>
+      <c r="CZ34" s="0"/>
+      <c r="DA34" s="0"/>
+      <c r="DB34" s="0"/>
+      <c r="DC34" s="0"/>
+      <c r="DD34" s="0"/>
+      <c r="DE34" s="0"/>
+      <c r="DF34" s="0"/>
+      <c r="DG34" s="0"/>
+      <c r="DH34" s="0"/>
+      <c r="DI34" s="0"/>
+      <c r="DJ34" s="0"/>
+      <c r="DK34" s="0"/>
+      <c r="DL34" s="0"/>
+      <c r="DM34" s="0"/>
+      <c r="DN34" s="0"/>
+      <c r="DO34" s="0"/>
+      <c r="DP34" s="0"/>
+      <c r="DQ34" s="0"/>
+      <c r="DR34" s="0"/>
+      <c r="DS34" s="0"/>
+      <c r="DT34" s="0"/>
+      <c r="DU34" s="0"/>
+      <c r="DV34" s="0"/>
+      <c r="DW34" s="0"/>
+      <c r="DX34" s="0"/>
+      <c r="DY34" s="0"/>
+      <c r="DZ34" s="0"/>
+      <c r="EA34" s="0"/>
+      <c r="EB34" s="0"/>
+      <c r="EC34" s="0"/>
+      <c r="ED34" s="0"/>
+      <c r="EE34" s="0"/>
+      <c r="EF34" s="0"/>
+      <c r="EG34" s="0"/>
+      <c r="EH34" s="0"/>
+      <c r="EI34" s="0"/>
+      <c r="EJ34" s="0"/>
+      <c r="EK34" s="0"/>
+      <c r="EL34" s="0"/>
+      <c r="EM34" s="0"/>
+      <c r="EN34" s="0"/>
+      <c r="EO34" s="0"/>
+      <c r="EP34" s="0"/>
+      <c r="EQ34" s="0"/>
+      <c r="ER34" s="0"/>
+      <c r="ES34" s="0"/>
+      <c r="ET34" s="0"/>
+      <c r="EU34" s="0"/>
+      <c r="EV34" s="0"/>
+      <c r="EW34" s="0"/>
+      <c r="EX34" s="0"/>
+      <c r="EY34" s="0"/>
+      <c r="EZ34" s="0"/>
+      <c r="FA34" s="0"/>
+      <c r="FB34" s="0"/>
+      <c r="FC34" s="0"/>
+      <c r="FD34" s="0"/>
+      <c r="FE34" s="0"/>
+      <c r="FF34" s="0"/>
+      <c r="FG34" s="0"/>
+      <c r="FH34" s="0"/>
+      <c r="FI34" s="0"/>
+      <c r="FJ34" s="0"/>
+      <c r="FK34" s="0"/>
+      <c r="FL34" s="0"/>
+      <c r="FM34" s="0"/>
+      <c r="FN34" s="0"/>
+      <c r="FO34" s="0"/>
+      <c r="FP34" s="0"/>
+      <c r="FQ34" s="0"/>
+      <c r="FR34" s="0"/>
+      <c r="FS34" s="0"/>
+      <c r="FT34" s="0"/>
+      <c r="FU34" s="0"/>
+      <c r="FV34" s="0"/>
+      <c r="FW34" s="0"/>
+      <c r="FX34" s="0"/>
+      <c r="FY34" s="0"/>
+      <c r="FZ34" s="0"/>
+      <c r="GA34" s="0"/>
+      <c r="GB34" s="0"/>
+      <c r="GC34" s="0"/>
+      <c r="GD34" s="0"/>
+      <c r="GE34" s="0"/>
+      <c r="GF34" s="0"/>
+      <c r="GG34" s="0"/>
+      <c r="GH34" s="0"/>
+      <c r="GI34" s="0"/>
+      <c r="GJ34" s="0"/>
+      <c r="GK34" s="0"/>
+      <c r="GL34" s="0"/>
+      <c r="GM34" s="0"/>
+      <c r="GN34" s="0"/>
+      <c r="GO34" s="0"/>
+      <c r="GP34" s="0"/>
+      <c r="GQ34" s="0"/>
+      <c r="GR34" s="0"/>
+      <c r="GS34" s="0"/>
+      <c r="GT34" s="0"/>
+      <c r="GU34" s="0"/>
+      <c r="GV34" s="0"/>
+      <c r="GW34" s="0"/>
+      <c r="GX34" s="0"/>
+      <c r="GY34" s="0"/>
+      <c r="GZ34" s="0"/>
+      <c r="HA34" s="0"/>
+      <c r="HB34" s="0"/>
+      <c r="HC34" s="0"/>
+      <c r="HD34" s="0"/>
+      <c r="HE34" s="0"/>
+      <c r="HF34" s="0"/>
+      <c r="HG34" s="0"/>
+      <c r="HH34" s="0"/>
+      <c r="HI34" s="0"/>
+      <c r="HJ34" s="0"/>
+      <c r="HK34" s="0"/>
+      <c r="HL34" s="0"/>
+      <c r="HM34" s="0"/>
+      <c r="HN34" s="0"/>
+      <c r="HO34" s="0"/>
+      <c r="HP34" s="0"/>
+      <c r="HQ34" s="0"/>
+      <c r="HR34" s="0"/>
+      <c r="HS34" s="0"/>
+      <c r="HT34" s="0"/>
+      <c r="HU34" s="0"/>
+      <c r="HV34" s="0"/>
+      <c r="HW34" s="0"/>
+      <c r="HX34" s="0"/>
+      <c r="HY34" s="0"/>
+      <c r="HZ34" s="0"/>
+      <c r="IA34" s="0"/>
+      <c r="IB34" s="0"/>
+      <c r="IC34" s="0"/>
+      <c r="ID34" s="0"/>
+      <c r="IE34" s="0"/>
+      <c r="IF34" s="0"/>
+      <c r="IG34" s="0"/>
+      <c r="IH34" s="0"/>
+      <c r="II34" s="0"/>
+      <c r="IJ34" s="0"/>
+      <c r="IK34" s="0"/>
+      <c r="IL34" s="0"/>
+      <c r="IM34" s="0"/>
+      <c r="IN34" s="0"/>
+      <c r="IO34" s="0"/>
+      <c r="IP34" s="0"/>
+      <c r="IQ34" s="0"/>
+      <c r="IR34" s="0"/>
+      <c r="IS34" s="0"/>
+      <c r="IT34" s="0"/>
+      <c r="IU34" s="0"/>
+      <c r="IV34" s="0"/>
+      <c r="IW34" s="0"/>
+      <c r="IX34" s="0"/>
+      <c r="IY34" s="0"/>
+      <c r="IZ34" s="0"/>
+      <c r="JA34" s="0"/>
+      <c r="JB34" s="0"/>
+      <c r="JC34" s="0"/>
+      <c r="JD34" s="0"/>
+      <c r="JE34" s="0"/>
+      <c r="JF34" s="0"/>
+      <c r="JG34" s="0"/>
+      <c r="JH34" s="0"/>
+      <c r="JI34" s="0"/>
+      <c r="JJ34" s="0"/>
+      <c r="JK34" s="0"/>
+      <c r="JL34" s="0"/>
+      <c r="JM34" s="0"/>
+      <c r="JN34" s="0"/>
+      <c r="JO34" s="0"/>
+      <c r="JP34" s="0"/>
+      <c r="JQ34" s="0"/>
+      <c r="JR34" s="0"/>
+      <c r="JS34" s="0"/>
+      <c r="JT34" s="0"/>
+      <c r="JU34" s="0"/>
+      <c r="JV34" s="0"/>
+      <c r="JW34" s="0"/>
+      <c r="JX34" s="0"/>
+      <c r="JY34" s="0"/>
+      <c r="JZ34" s="0"/>
+      <c r="KA34" s="0"/>
+      <c r="KB34" s="0"/>
+      <c r="KC34" s="0"/>
+      <c r="KD34" s="0"/>
+      <c r="KE34" s="0"/>
+      <c r="KF34" s="0"/>
+      <c r="KG34" s="0"/>
+      <c r="KH34" s="0"/>
+      <c r="KI34" s="0"/>
+      <c r="KJ34" s="0"/>
+      <c r="KK34" s="0"/>
+      <c r="KL34" s="0"/>
+      <c r="KM34" s="0"/>
+      <c r="KN34" s="0"/>
+      <c r="KO34" s="0"/>
+      <c r="KP34" s="0"/>
+      <c r="KQ34" s="0"/>
+      <c r="KR34" s="0"/>
+      <c r="KS34" s="0"/>
+      <c r="KT34" s="0"/>
+      <c r="KU34" s="0"/>
+      <c r="KV34" s="0"/>
+      <c r="KW34" s="0"/>
+      <c r="KX34" s="0"/>
+      <c r="KY34" s="0"/>
+      <c r="KZ34" s="0"/>
+      <c r="LA34" s="0"/>
+      <c r="LB34" s="0"/>
+      <c r="LC34" s="0"/>
+      <c r="LD34" s="0"/>
+      <c r="LE34" s="0"/>
+      <c r="LF34" s="0"/>
+      <c r="LG34" s="0"/>
+      <c r="LH34" s="0"/>
+      <c r="LI34" s="0"/>
+      <c r="LJ34" s="0"/>
+      <c r="LK34" s="0"/>
+      <c r="LL34" s="0"/>
+      <c r="LM34" s="0"/>
+      <c r="LN34" s="0"/>
+      <c r="LO34" s="0"/>
+      <c r="LP34" s="0"/>
+      <c r="LQ34" s="0"/>
+      <c r="LR34" s="0"/>
+      <c r="LS34" s="0"/>
+      <c r="LT34" s="0"/>
+      <c r="LU34" s="0"/>
+      <c r="LV34" s="0"/>
+      <c r="LW34" s="0"/>
+      <c r="LX34" s="0"/>
+      <c r="LY34" s="0"/>
+      <c r="LZ34" s="0"/>
+      <c r="MA34" s="0"/>
+      <c r="MB34" s="0"/>
+      <c r="MC34" s="0"/>
+      <c r="MD34" s="0"/>
+      <c r="ME34" s="0"/>
+      <c r="MF34" s="0"/>
+      <c r="MG34" s="0"/>
+      <c r="MH34" s="0"/>
+      <c r="MI34" s="0"/>
+      <c r="MJ34" s="0"/>
+      <c r="MK34" s="0"/>
+      <c r="ML34" s="0"/>
+      <c r="MM34" s="0"/>
+      <c r="MN34" s="0"/>
+      <c r="MO34" s="0"/>
+      <c r="MP34" s="0"/>
+      <c r="MQ34" s="0"/>
+      <c r="MR34" s="0"/>
+      <c r="MS34" s="0"/>
+      <c r="MT34" s="0"/>
+      <c r="MU34" s="0"/>
+      <c r="MV34" s="0"/>
+      <c r="MW34" s="0"/>
+      <c r="MX34" s="0"/>
+      <c r="MY34" s="0"/>
+      <c r="MZ34" s="0"/>
+      <c r="NA34" s="0"/>
+      <c r="NB34" s="0"/>
+      <c r="NC34" s="0"/>
+      <c r="ND34" s="0"/>
+      <c r="NE34" s="0"/>
+      <c r="NF34" s="0"/>
+      <c r="NG34" s="0"/>
+      <c r="NH34" s="0"/>
+      <c r="NI34" s="0"/>
+      <c r="NJ34" s="0"/>
+      <c r="NK34" s="0"/>
+      <c r="NL34" s="0"/>
+      <c r="NM34" s="0"/>
+      <c r="NN34" s="0"/>
+      <c r="NO34" s="0"/>
+      <c r="NP34" s="0"/>
+      <c r="NQ34" s="0"/>
+      <c r="NR34" s="0"/>
+      <c r="NS34" s="0"/>
+      <c r="NT34" s="0"/>
+      <c r="NU34" s="0"/>
+      <c r="NV34" s="0"/>
+      <c r="NW34" s="0"/>
+      <c r="NX34" s="0"/>
+      <c r="NY34" s="0"/>
+      <c r="NZ34" s="0"/>
+      <c r="OA34" s="0"/>
+      <c r="OB34" s="0"/>
+      <c r="OC34" s="0"/>
+      <c r="OD34" s="0"/>
+      <c r="OE34" s="0"/>
+      <c r="OF34" s="0"/>
+      <c r="OG34" s="0"/>
+      <c r="OH34" s="0"/>
+      <c r="OI34" s="0"/>
+      <c r="OJ34" s="0"/>
+      <c r="OK34" s="0"/>
+      <c r="OL34" s="0"/>
+      <c r="OM34" s="0"/>
+      <c r="ON34" s="0"/>
+      <c r="OO34" s="0"/>
+      <c r="OP34" s="0"/>
+      <c r="OQ34" s="0"/>
+      <c r="OR34" s="0"/>
+      <c r="OS34" s="0"/>
+      <c r="OT34" s="0"/>
+      <c r="OU34" s="0"/>
+      <c r="OV34" s="0"/>
+      <c r="OW34" s="0"/>
+      <c r="OX34" s="0"/>
+      <c r="OY34" s="0"/>
+      <c r="OZ34" s="0"/>
+      <c r="PA34" s="0"/>
+      <c r="PB34" s="0"/>
+      <c r="PC34" s="0"/>
+      <c r="PD34" s="0"/>
+      <c r="PE34" s="0"/>
+      <c r="PF34" s="0"/>
+      <c r="PG34" s="0"/>
+      <c r="PH34" s="0"/>
+      <c r="PI34" s="0"/>
+      <c r="PJ34" s="0"/>
+      <c r="PK34" s="0"/>
+      <c r="PL34" s="0"/>
+      <c r="PM34" s="0"/>
+      <c r="PN34" s="0"/>
+      <c r="PO34" s="0"/>
+      <c r="PP34" s="0"/>
+      <c r="PQ34" s="0"/>
+      <c r="PR34" s="0"/>
+      <c r="PS34" s="0"/>
+      <c r="PT34" s="0"/>
+      <c r="PU34" s="0"/>
+      <c r="PV34" s="0"/>
+      <c r="PW34" s="0"/>
+      <c r="PX34" s="0"/>
+      <c r="PY34" s="0"/>
+      <c r="PZ34" s="0"/>
+      <c r="QA34" s="0"/>
+      <c r="QB34" s="0"/>
+      <c r="QC34" s="0"/>
+      <c r="QD34" s="0"/>
+      <c r="QE34" s="0"/>
+      <c r="QF34" s="0"/>
+      <c r="QG34" s="0"/>
+      <c r="QH34" s="0"/>
+      <c r="QI34" s="0"/>
+      <c r="QJ34" s="0"/>
+      <c r="QK34" s="0"/>
+      <c r="QL34" s="0"/>
+      <c r="QM34" s="0"/>
+      <c r="QN34" s="0"/>
+      <c r="QO34" s="0"/>
+      <c r="QP34" s="0"/>
+      <c r="QQ34" s="0"/>
+      <c r="QR34" s="0"/>
+      <c r="QS34" s="0"/>
+      <c r="QT34" s="0"/>
+      <c r="QU34" s="0"/>
+      <c r="QV34" s="0"/>
+      <c r="QW34" s="0"/>
+      <c r="QX34" s="0"/>
+      <c r="QY34" s="0"/>
+      <c r="QZ34" s="0"/>
+      <c r="RA34" s="0"/>
+      <c r="RB34" s="0"/>
+      <c r="RC34" s="0"/>
+      <c r="RD34" s="0"/>
+      <c r="RE34" s="0"/>
+      <c r="RF34" s="0"/>
+      <c r="RG34" s="0"/>
+      <c r="RH34" s="0"/>
+      <c r="RI34" s="0"/>
+      <c r="RJ34" s="0"/>
+      <c r="RK34" s="0"/>
+      <c r="RL34" s="0"/>
+      <c r="RM34" s="0"/>
+      <c r="RN34" s="0"/>
+      <c r="RO34" s="0"/>
+      <c r="RP34" s="0"/>
+      <c r="RQ34" s="0"/>
+      <c r="RR34" s="0"/>
+      <c r="RS34" s="0"/>
+      <c r="RT34" s="0"/>
+      <c r="RU34" s="0"/>
+      <c r="RV34" s="0"/>
+      <c r="RW34" s="0"/>
+      <c r="RX34" s="0"/>
+      <c r="RY34" s="0"/>
+      <c r="RZ34" s="0"/>
+      <c r="SA34" s="0"/>
+      <c r="SB34" s="0"/>
+      <c r="SC34" s="0"/>
+      <c r="SD34" s="0"/>
+      <c r="SE34" s="0"/>
+      <c r="SF34" s="0"/>
+      <c r="SG34" s="0"/>
+      <c r="SH34" s="0"/>
+      <c r="SI34" s="0"/>
+      <c r="SJ34" s="0"/>
+      <c r="SK34" s="0"/>
+      <c r="SL34" s="0"/>
+      <c r="SM34" s="0"/>
+      <c r="SN34" s="0"/>
+      <c r="SO34" s="0"/>
+      <c r="SP34" s="0"/>
+      <c r="SQ34" s="0"/>
+      <c r="SR34" s="0"/>
+      <c r="SS34" s="0"/>
+      <c r="ST34" s="0"/>
+      <c r="SU34" s="0"/>
+      <c r="SV34" s="0"/>
+      <c r="SW34" s="0"/>
+      <c r="SX34" s="0"/>
+      <c r="SY34" s="0"/>
+      <c r="SZ34" s="0"/>
+      <c r="TA34" s="0"/>
+      <c r="TB34" s="0"/>
+      <c r="TC34" s="0"/>
+      <c r="TD34" s="0"/>
+      <c r="TE34" s="0"/>
+      <c r="TF34" s="0"/>
+      <c r="TG34" s="0"/>
+      <c r="TH34" s="0"/>
+      <c r="TI34" s="0"/>
+      <c r="TJ34" s="0"/>
+      <c r="TK34" s="0"/>
+      <c r="TL34" s="0"/>
+      <c r="TM34" s="0"/>
+      <c r="TN34" s="0"/>
+      <c r="TO34" s="0"/>
+      <c r="TP34" s="0"/>
+      <c r="TQ34" s="0"/>
+      <c r="TR34" s="0"/>
+      <c r="TS34" s="0"/>
+      <c r="TT34" s="0"/>
+      <c r="TU34" s="0"/>
+      <c r="TV34" s="0"/>
+      <c r="TW34" s="0"/>
+      <c r="TX34" s="0"/>
+      <c r="TY34" s="0"/>
+      <c r="TZ34" s="0"/>
+      <c r="UA34" s="0"/>
+      <c r="UB34" s="0"/>
+      <c r="UC34" s="0"/>
+      <c r="UD34" s="0"/>
+      <c r="UE34" s="0"/>
+      <c r="UF34" s="0"/>
+      <c r="UG34" s="0"/>
+      <c r="UH34" s="0"/>
+      <c r="UI34" s="0"/>
+      <c r="UJ34" s="0"/>
+      <c r="UK34" s="0"/>
+      <c r="UL34" s="0"/>
+      <c r="UM34" s="0"/>
+      <c r="UN34" s="0"/>
+      <c r="UO34" s="0"/>
+      <c r="UP34" s="0"/>
+      <c r="UQ34" s="0"/>
+      <c r="UR34" s="0"/>
+      <c r="US34" s="0"/>
+      <c r="UT34" s="0"/>
+      <c r="UU34" s="0"/>
+      <c r="UV34" s="0"/>
+      <c r="UW34" s="0"/>
+      <c r="UX34" s="0"/>
+      <c r="UY34" s="0"/>
+      <c r="UZ34" s="0"/>
+      <c r="VA34" s="0"/>
+      <c r="VB34" s="0"/>
+      <c r="VC34" s="0"/>
+      <c r="VD34" s="0"/>
+      <c r="VE34" s="0"/>
+      <c r="VF34" s="0"/>
+      <c r="VG34" s="0"/>
+      <c r="VH34" s="0"/>
+      <c r="VI34" s="0"/>
+      <c r="VJ34" s="0"/>
+      <c r="VK34" s="0"/>
+      <c r="VL34" s="0"/>
+      <c r="VM34" s="0"/>
+      <c r="VN34" s="0"/>
+      <c r="VO34" s="0"/>
+      <c r="VP34" s="0"/>
+      <c r="VQ34" s="0"/>
+      <c r="VR34" s="0"/>
+      <c r="VS34" s="0"/>
+      <c r="VT34" s="0"/>
+      <c r="VU34" s="0"/>
+      <c r="VV34" s="0"/>
+      <c r="VW34" s="0"/>
+      <c r="VX34" s="0"/>
+      <c r="VY34" s="0"/>
+      <c r="VZ34" s="0"/>
+      <c r="WA34" s="0"/>
+      <c r="WB34" s="0"/>
+      <c r="WC34" s="0"/>
+      <c r="WD34" s="0"/>
+      <c r="WE34" s="0"/>
+      <c r="WF34" s="0"/>
+      <c r="WG34" s="0"/>
+      <c r="WH34" s="0"/>
+      <c r="WI34" s="0"/>
+      <c r="WJ34" s="0"/>
+      <c r="WK34" s="0"/>
+      <c r="WL34" s="0"/>
+      <c r="WM34" s="0"/>
+      <c r="WN34" s="0"/>
+      <c r="WO34" s="0"/>
+      <c r="WP34" s="0"/>
+      <c r="WQ34" s="0"/>
+      <c r="WR34" s="0"/>
+      <c r="WS34" s="0"/>
+      <c r="WT34" s="0"/>
+      <c r="WU34" s="0"/>
+      <c r="WV34" s="0"/>
+      <c r="WW34" s="0"/>
+      <c r="WX34" s="0"/>
+      <c r="WY34" s="0"/>
+      <c r="WZ34" s="0"/>
+      <c r="XA34" s="0"/>
+      <c r="XB34" s="0"/>
+      <c r="XC34" s="0"/>
+      <c r="XD34" s="0"/>
+      <c r="XE34" s="0"/>
+      <c r="XF34" s="0"/>
+      <c r="XG34" s="0"/>
+      <c r="XH34" s="0"/>
+      <c r="XI34" s="0"/>
+      <c r="XJ34" s="0"/>
+      <c r="XK34" s="0"/>
+      <c r="XL34" s="0"/>
+      <c r="XM34" s="0"/>
+      <c r="XN34" s="0"/>
+      <c r="XO34" s="0"/>
+      <c r="XP34" s="0"/>
+      <c r="XQ34" s="0"/>
+      <c r="XR34" s="0"/>
+      <c r="XS34" s="0"/>
+      <c r="XT34" s="0"/>
+      <c r="XU34" s="0"/>
+      <c r="XV34" s="0"/>
+      <c r="XW34" s="0"/>
+      <c r="XX34" s="0"/>
+      <c r="XY34" s="0"/>
+      <c r="XZ34" s="0"/>
+      <c r="YA34" s="0"/>
+      <c r="YB34" s="0"/>
+      <c r="YC34" s="0"/>
+      <c r="YD34" s="0"/>
+      <c r="YE34" s="0"/>
+      <c r="YF34" s="0"/>
+      <c r="YG34" s="0"/>
+      <c r="YH34" s="0"/>
+      <c r="YI34" s="0"/>
+      <c r="YJ34" s="0"/>
+      <c r="YK34" s="0"/>
+      <c r="YL34" s="0"/>
+      <c r="YM34" s="0"/>
+      <c r="YN34" s="0"/>
+      <c r="YO34" s="0"/>
+      <c r="YP34" s="0"/>
+      <c r="YQ34" s="0"/>
+      <c r="YR34" s="0"/>
+      <c r="YS34" s="0"/>
+      <c r="YT34" s="0"/>
+      <c r="YU34" s="0"/>
+      <c r="YV34" s="0"/>
+      <c r="YW34" s="0"/>
+      <c r="YX34" s="0"/>
+      <c r="YY34" s="0"/>
+      <c r="YZ34" s="0"/>
+      <c r="ZA34" s="0"/>
+      <c r="ZB34" s="0"/>
+      <c r="ZC34" s="0"/>
+      <c r="ZD34" s="0"/>
+      <c r="ZE34" s="0"/>
+      <c r="ZF34" s="0"/>
+      <c r="ZG34" s="0"/>
+      <c r="ZH34" s="0"/>
+      <c r="ZI34" s="0"/>
+      <c r="ZJ34" s="0"/>
+      <c r="ZK34" s="0"/>
+      <c r="ZL34" s="0"/>
+      <c r="ZM34" s="0"/>
+      <c r="ZN34" s="0"/>
+      <c r="ZO34" s="0"/>
+      <c r="ZP34" s="0"/>
+      <c r="ZQ34" s="0"/>
+      <c r="ZR34" s="0"/>
+      <c r="ZS34" s="0"/>
+      <c r="ZT34" s="0"/>
+      <c r="ZU34" s="0"/>
+      <c r="ZV34" s="0"/>
+      <c r="ZW34" s="0"/>
+      <c r="ZX34" s="0"/>
+      <c r="ZY34" s="0"/>
+      <c r="ZZ34" s="0"/>
+      <c r="AAA34" s="0"/>
+      <c r="AAB34" s="0"/>
+      <c r="AAC34" s="0"/>
+      <c r="AAD34" s="0"/>
+      <c r="AAE34" s="0"/>
+      <c r="AAF34" s="0"/>
+      <c r="AAG34" s="0"/>
+      <c r="AAH34" s="0"/>
+      <c r="AAI34" s="0"/>
+      <c r="AAJ34" s="0"/>
+      <c r="AAK34" s="0"/>
+      <c r="AAL34" s="0"/>
+      <c r="AAM34" s="0"/>
+      <c r="AAN34" s="0"/>
+      <c r="AAO34" s="0"/>
+      <c r="AAP34" s="0"/>
+      <c r="AAQ34" s="0"/>
+      <c r="AAR34" s="0"/>
+      <c r="AAS34" s="0"/>
+      <c r="AAT34" s="0"/>
+      <c r="AAU34" s="0"/>
+      <c r="AAV34" s="0"/>
+      <c r="AAW34" s="0"/>
+      <c r="AAX34" s="0"/>
+      <c r="AAY34" s="0"/>
+      <c r="AAZ34" s="0"/>
+      <c r="ABA34" s="0"/>
+      <c r="ABB34" s="0"/>
+      <c r="ABC34" s="0"/>
+      <c r="ABD34" s="0"/>
+      <c r="ABE34" s="0"/>
+      <c r="ABF34" s="0"/>
+      <c r="ABG34" s="0"/>
+      <c r="ABH34" s="0"/>
+      <c r="ABI34" s="0"/>
+      <c r="ABJ34" s="0"/>
+      <c r="ABK34" s="0"/>
+      <c r="ABL34" s="0"/>
+      <c r="ABM34" s="0"/>
+      <c r="ABN34" s="0"/>
+      <c r="ABO34" s="0"/>
+      <c r="ABP34" s="0"/>
+      <c r="ABQ34" s="0"/>
+      <c r="ABR34" s="0"/>
+      <c r="ABS34" s="0"/>
+      <c r="ABT34" s="0"/>
+      <c r="ABU34" s="0"/>
+      <c r="ABV34" s="0"/>
+      <c r="ABW34" s="0"/>
+      <c r="ABX34" s="0"/>
+      <c r="ABY34" s="0"/>
+      <c r="ABZ34" s="0"/>
+      <c r="ACA34" s="0"/>
+      <c r="ACB34" s="0"/>
+      <c r="ACC34" s="0"/>
+      <c r="ACD34" s="0"/>
+      <c r="ACE34" s="0"/>
+      <c r="ACF34" s="0"/>
+      <c r="ACG34" s="0"/>
+      <c r="ACH34" s="0"/>
+      <c r="ACI34" s="0"/>
+      <c r="ACJ34" s="0"/>
+      <c r="ACK34" s="0"/>
+      <c r="ACL34" s="0"/>
+      <c r="ACM34" s="0"/>
+      <c r="ACN34" s="0"/>
+      <c r="ACO34" s="0"/>
+      <c r="ACP34" s="0"/>
+      <c r="ACQ34" s="0"/>
+      <c r="ACR34" s="0"/>
+      <c r="ACS34" s="0"/>
+      <c r="ACT34" s="0"/>
+      <c r="ACU34" s="0"/>
+      <c r="ACV34" s="0"/>
+      <c r="ACW34" s="0"/>
+      <c r="ACX34" s="0"/>
+      <c r="ACY34" s="0"/>
+      <c r="ACZ34" s="0"/>
+      <c r="ADA34" s="0"/>
+      <c r="ADB34" s="0"/>
+      <c r="ADC34" s="0"/>
+      <c r="ADD34" s="0"/>
+      <c r="ADE34" s="0"/>
+      <c r="ADF34" s="0"/>
+      <c r="ADG34" s="0"/>
+      <c r="ADH34" s="0"/>
+      <c r="ADI34" s="0"/>
+      <c r="ADJ34" s="0"/>
+      <c r="ADK34" s="0"/>
+      <c r="ADL34" s="0"/>
+      <c r="ADM34" s="0"/>
+      <c r="ADN34" s="0"/>
+      <c r="ADO34" s="0"/>
+      <c r="ADP34" s="0"/>
+      <c r="ADQ34" s="0"/>
+      <c r="ADR34" s="0"/>
+      <c r="ADS34" s="0"/>
+      <c r="ADT34" s="0"/>
+      <c r="ADU34" s="0"/>
+      <c r="ADV34" s="0"/>
+      <c r="ADW34" s="0"/>
+      <c r="ADX34" s="0"/>
+      <c r="ADY34" s="0"/>
+      <c r="ADZ34" s="0"/>
+      <c r="AEA34" s="0"/>
+      <c r="AEB34" s="0"/>
+      <c r="AEC34" s="0"/>
+      <c r="AED34" s="0"/>
+      <c r="AEE34" s="0"/>
+      <c r="AEF34" s="0"/>
+      <c r="AEG34" s="0"/>
+      <c r="AEH34" s="0"/>
+      <c r="AEI34" s="0"/>
+      <c r="AEJ34" s="0"/>
+      <c r="AEK34" s="0"/>
+      <c r="AEL34" s="0"/>
+      <c r="AEM34" s="0"/>
+      <c r="AEN34" s="0"/>
+      <c r="AEO34" s="0"/>
+      <c r="AEP34" s="0"/>
+      <c r="AEQ34" s="0"/>
+      <c r="AER34" s="0"/>
+      <c r="AES34" s="0"/>
+      <c r="AET34" s="0"/>
+      <c r="AEU34" s="0"/>
+      <c r="AEV34" s="0"/>
+      <c r="AEW34" s="0"/>
+      <c r="AEX34" s="0"/>
+      <c r="AEY34" s="0"/>
+      <c r="AEZ34" s="0"/>
+      <c r="AFA34" s="0"/>
+      <c r="AFB34" s="0"/>
+      <c r="AFC34" s="0"/>
+      <c r="AFD34" s="0"/>
+      <c r="AFE34" s="0"/>
+      <c r="AFF34" s="0"/>
+      <c r="AFG34" s="0"/>
+      <c r="AFH34" s="0"/>
+      <c r="AFI34" s="0"/>
+      <c r="AFJ34" s="0"/>
+      <c r="AFK34" s="0"/>
+      <c r="AFL34" s="0"/>
+      <c r="AFM34" s="0"/>
+      <c r="AFN34" s="0"/>
+      <c r="AFO34" s="0"/>
+      <c r="AFP34" s="0"/>
+      <c r="AFQ34" s="0"/>
+      <c r="AFR34" s="0"/>
+      <c r="AFS34" s="0"/>
+      <c r="AFT34" s="0"/>
+      <c r="AFU34" s="0"/>
+      <c r="AFV34" s="0"/>
+      <c r="AFW34" s="0"/>
+      <c r="AFX34" s="0"/>
+      <c r="AFY34" s="0"/>
+      <c r="AFZ34" s="0"/>
+      <c r="AGA34" s="0"/>
+      <c r="AGB34" s="0"/>
+      <c r="AGC34" s="0"/>
+      <c r="AGD34" s="0"/>
+      <c r="AGE34" s="0"/>
+      <c r="AGF34" s="0"/>
+      <c r="AGG34" s="0"/>
+      <c r="AGH34" s="0"/>
+      <c r="AGI34" s="0"/>
+      <c r="AGJ34" s="0"/>
+      <c r="AGK34" s="0"/>
+      <c r="AGL34" s="0"/>
+      <c r="AGM34" s="0"/>
+      <c r="AGN34" s="0"/>
+      <c r="AGO34" s="0"/>
+      <c r="AGP34" s="0"/>
+      <c r="AGQ34" s="0"/>
+      <c r="AGR34" s="0"/>
+      <c r="AGS34" s="0"/>
+      <c r="AGT34" s="0"/>
+      <c r="AGU34" s="0"/>
+      <c r="AGV34" s="0"/>
+      <c r="AGW34" s="0"/>
+      <c r="AGX34" s="0"/>
+      <c r="AGY34" s="0"/>
+      <c r="AGZ34" s="0"/>
+      <c r="AHA34" s="0"/>
+      <c r="AHB34" s="0"/>
+      <c r="AHC34" s="0"/>
+      <c r="AHD34" s="0"/>
+      <c r="AHE34" s="0"/>
+      <c r="AHF34" s="0"/>
+      <c r="AHG34" s="0"/>
+      <c r="AHH34" s="0"/>
+      <c r="AHI34" s="0"/>
+      <c r="AHJ34" s="0"/>
+      <c r="AHK34" s="0"/>
+      <c r="AHL34" s="0"/>
+      <c r="AHM34" s="0"/>
+      <c r="AHN34" s="0"/>
+      <c r="AHO34" s="0"/>
+      <c r="AHP34" s="0"/>
+      <c r="AHQ34" s="0"/>
+      <c r="AHR34" s="0"/>
+      <c r="AHS34" s="0"/>
+      <c r="AHT34" s="0"/>
+      <c r="AHU34" s="0"/>
+      <c r="AHV34" s="0"/>
+      <c r="AHW34" s="0"/>
+      <c r="AHX34" s="0"/>
+      <c r="AHY34" s="0"/>
+      <c r="AHZ34" s="0"/>
+      <c r="AIA34" s="0"/>
+      <c r="AIB34" s="0"/>
+      <c r="AIC34" s="0"/>
+      <c r="AID34" s="0"/>
+      <c r="AIE34" s="0"/>
+      <c r="AIF34" s="0"/>
+      <c r="AIG34" s="0"/>
+      <c r="AIH34" s="0"/>
+      <c r="AII34" s="0"/>
+      <c r="AIJ34" s="0"/>
+      <c r="AIK34" s="0"/>
+      <c r="AIL34" s="0"/>
+      <c r="AIM34" s="0"/>
+      <c r="AIN34" s="0"/>
+      <c r="AIO34" s="0"/>
+      <c r="AIP34" s="0"/>
+      <c r="AIQ34" s="0"/>
+      <c r="AIR34" s="0"/>
+      <c r="AIS34" s="0"/>
+      <c r="AIT34" s="0"/>
+      <c r="AIU34" s="0"/>
+      <c r="AIV34" s="0"/>
+      <c r="AIW34" s="0"/>
+      <c r="AIX34" s="0"/>
+      <c r="AIY34" s="0"/>
+      <c r="AIZ34" s="0"/>
+      <c r="AJA34" s="0"/>
+      <c r="AJB34" s="0"/>
+      <c r="AJC34" s="0"/>
+      <c r="AJD34" s="0"/>
+      <c r="AJE34" s="0"/>
+      <c r="AJF34" s="0"/>
+      <c r="AJG34" s="0"/>
+      <c r="AJH34" s="0"/>
+      <c r="AJI34" s="0"/>
+      <c r="AJJ34" s="0"/>
+      <c r="AJK34" s="0"/>
+      <c r="AJL34" s="0"/>
+      <c r="AJM34" s="0"/>
+      <c r="AJN34" s="0"/>
+      <c r="AJO34" s="0"/>
+      <c r="AJP34" s="0"/>
+      <c r="AJQ34" s="0"/>
+      <c r="AJR34" s="0"/>
+      <c r="AJS34" s="0"/>
+      <c r="AJT34" s="0"/>
+      <c r="AJU34" s="0"/>
+      <c r="AJV34" s="0"/>
+      <c r="AJW34" s="0"/>
+      <c r="AJX34" s="0"/>
+      <c r="AJY34" s="0"/>
+      <c r="AJZ34" s="0"/>
+      <c r="AKA34" s="0"/>
+      <c r="AKB34" s="0"/>
+      <c r="AKC34" s="0"/>
+      <c r="AKD34" s="0"/>
+      <c r="AKE34" s="0"/>
+      <c r="AKF34" s="0"/>
+      <c r="AKG34" s="0"/>
+      <c r="AKH34" s="0"/>
+      <c r="AKI34" s="0"/>
+      <c r="AKJ34" s="0"/>
+      <c r="AKK34" s="0"/>
+      <c r="AKL34" s="0"/>
+      <c r="AKM34" s="0"/>
+      <c r="AKN34" s="0"/>
+      <c r="AKO34" s="0"/>
+      <c r="AKP34" s="0"/>
+      <c r="AKQ34" s="0"/>
+      <c r="AKR34" s="0"/>
+      <c r="AKS34" s="0"/>
+      <c r="AKT34" s="0"/>
+      <c r="AKU34" s="0"/>
+      <c r="AKV34" s="0"/>
+      <c r="AKW34" s="0"/>
+      <c r="AKX34" s="0"/>
+      <c r="AKY34" s="0"/>
+      <c r="AKZ34" s="0"/>
+      <c r="ALA34" s="0"/>
+      <c r="ALB34" s="0"/>
+      <c r="ALC34" s="0"/>
+      <c r="ALD34" s="0"/>
+      <c r="ALE34" s="0"/>
+      <c r="ALF34" s="0"/>
+      <c r="ALG34" s="0"/>
+      <c r="ALH34" s="0"/>
+      <c r="ALI34" s="0"/>
+      <c r="ALJ34" s="0"/>
+      <c r="ALK34" s="0"/>
+      <c r="ALL34" s="0"/>
+      <c r="ALM34" s="0"/>
+      <c r="ALN34" s="0"/>
+      <c r="ALO34" s="0"/>
+      <c r="ALP34" s="0"/>
+      <c r="ALQ34" s="0"/>
+      <c r="ALR34" s="0"/>
+      <c r="ALS34" s="0"/>
+      <c r="ALT34" s="0"/>
+      <c r="ALU34" s="0"/>
+      <c r="ALV34" s="0"/>
+      <c r="ALW34" s="0"/>
+      <c r="ALX34" s="0"/>
+      <c r="ALY34" s="0"/>
+      <c r="ALZ34" s="0"/>
+      <c r="AMA34" s="0"/>
+      <c r="AMB34" s="0"/>
+      <c r="AMC34" s="0"/>
+      <c r="AMD34" s="0"/>
+      <c r="AME34" s="0"/>
+      <c r="AMF34" s="0"/>
+      <c r="AMG34" s="0"/>
+      <c r="AMH34" s="0"/>
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+      <c r="AX35" s="0"/>
+      <c r="AY35" s="0"/>
+      <c r="AZ35" s="0"/>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+      <c r="BM35" s="0"/>
+      <c r="BN35" s="0"/>
+      <c r="BO35" s="0"/>
+      <c r="BP35" s="0"/>
+      <c r="BQ35" s="0"/>
+      <c r="BR35" s="0"/>
+      <c r="BS35" s="0"/>
+      <c r="BT35" s="0"/>
+      <c r="BU35" s="0"/>
+      <c r="BV35" s="0"/>
+      <c r="BW35" s="0"/>
+      <c r="BX35" s="0"/>
+      <c r="BY35" s="0"/>
+      <c r="BZ35" s="0"/>
+      <c r="CA35" s="0"/>
+      <c r="CB35" s="0"/>
+      <c r="CC35" s="0"/>
+      <c r="CD35" s="0"/>
+      <c r="CE35" s="0"/>
+      <c r="CF35" s="0"/>
+      <c r="CG35" s="0"/>
+      <c r="CH35" s="0"/>
+      <c r="CI35" s="0"/>
+      <c r="CJ35" s="0"/>
+      <c r="CK35" s="0"/>
+      <c r="CL35" s="0"/>
+      <c r="CM35" s="0"/>
+      <c r="CN35" s="0"/>
+      <c r="CO35" s="0"/>
+      <c r="CP35" s="0"/>
+      <c r="CQ35" s="0"/>
+      <c r="CR35" s="0"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="0"/>
+      <c r="CU35" s="0"/>
+      <c r="CV35" s="0"/>
+      <c r="CW35" s="0"/>
+      <c r="CX35" s="0"/>
+      <c r="CY35" s="0"/>
+      <c r="CZ35" s="0"/>
+      <c r="DA35" s="0"/>
+      <c r="DB35" s="0"/>
+      <c r="DC35" s="0"/>
+      <c r="DD35" s="0"/>
+      <c r="DE35" s="0"/>
+      <c r="DF35" s="0"/>
+      <c r="DG35" s="0"/>
+      <c r="DH35" s="0"/>
+      <c r="DI35" s="0"/>
+      <c r="DJ35" s="0"/>
+      <c r="DK35" s="0"/>
+      <c r="DL35" s="0"/>
+      <c r="DM35" s="0"/>
+      <c r="DN35" s="0"/>
+      <c r="DO35" s="0"/>
+      <c r="DP35" s="0"/>
+      <c r="DQ35" s="0"/>
+      <c r="DR35" s="0"/>
+      <c r="DS35" s="0"/>
+      <c r="DT35" s="0"/>
+      <c r="DU35" s="0"/>
+      <c r="DV35" s="0"/>
+      <c r="DW35" s="0"/>
+      <c r="DX35" s="0"/>
+      <c r="DY35" s="0"/>
+      <c r="DZ35" s="0"/>
+      <c r="EA35" s="0"/>
+      <c r="EB35" s="0"/>
+      <c r="EC35" s="0"/>
+      <c r="ED35" s="0"/>
+      <c r="EE35" s="0"/>
+      <c r="EF35" s="0"/>
+      <c r="EG35" s="0"/>
+      <c r="EH35" s="0"/>
+      <c r="EI35" s="0"/>
+      <c r="EJ35" s="0"/>
+      <c r="EK35" s="0"/>
+      <c r="EL35" s="0"/>
+      <c r="EM35" s="0"/>
+      <c r="EN35" s="0"/>
+      <c r="EO35" s="0"/>
+      <c r="EP35" s="0"/>
+      <c r="EQ35" s="0"/>
+      <c r="ER35" s="0"/>
+      <c r="ES35" s="0"/>
+      <c r="ET35" s="0"/>
+      <c r="EU35" s="0"/>
+      <c r="EV35" s="0"/>
+      <c r="EW35" s="0"/>
+      <c r="EX35" s="0"/>
+      <c r="EY35" s="0"/>
+      <c r="EZ35" s="0"/>
+      <c r="FA35" s="0"/>
+      <c r="FB35" s="0"/>
+      <c r="FC35" s="0"/>
+      <c r="FD35" s="0"/>
+      <c r="FE35" s="0"/>
+      <c r="FF35" s="0"/>
+      <c r="FG35" s="0"/>
+      <c r="FH35" s="0"/>
+      <c r="FI35" s="0"/>
+      <c r="FJ35" s="0"/>
+      <c r="FK35" s="0"/>
+      <c r="FL35" s="0"/>
+      <c r="FM35" s="0"/>
+      <c r="FN35" s="0"/>
+      <c r="FO35" s="0"/>
+      <c r="FP35" s="0"/>
+      <c r="FQ35" s="0"/>
+      <c r="FR35" s="0"/>
+      <c r="FS35" s="0"/>
+      <c r="FT35" s="0"/>
+      <c r="FU35" s="0"/>
+      <c r="FV35" s="0"/>
+      <c r="FW35" s="0"/>
+      <c r="FX35" s="0"/>
+      <c r="FY35" s="0"/>
+      <c r="FZ35" s="0"/>
+      <c r="GA35" s="0"/>
+      <c r="GB35" s="0"/>
+      <c r="GC35" s="0"/>
+      <c r="GD35" s="0"/>
+      <c r="GE35" s="0"/>
+      <c r="GF35" s="0"/>
+      <c r="GG35" s="0"/>
+      <c r="GH35" s="0"/>
+      <c r="GI35" s="0"/>
+      <c r="GJ35" s="0"/>
+      <c r="GK35" s="0"/>
+      <c r="GL35" s="0"/>
+      <c r="GM35" s="0"/>
+      <c r="GN35" s="0"/>
+      <c r="GO35" s="0"/>
+      <c r="GP35" s="0"/>
+      <c r="GQ35" s="0"/>
+      <c r="GR35" s="0"/>
+      <c r="GS35" s="0"/>
+      <c r="GT35" s="0"/>
+      <c r="GU35" s="0"/>
+      <c r="GV35" s="0"/>
+      <c r="GW35" s="0"/>
+      <c r="GX35" s="0"/>
+      <c r="GY35" s="0"/>
+      <c r="GZ35" s="0"/>
+      <c r="HA35" s="0"/>
+      <c r="HB35" s="0"/>
+      <c r="HC35" s="0"/>
+      <c r="HD35" s="0"/>
+      <c r="HE35" s="0"/>
+      <c r="HF35" s="0"/>
+      <c r="HG35" s="0"/>
+      <c r="HH35" s="0"/>
+      <c r="HI35" s="0"/>
+      <c r="HJ35" s="0"/>
+      <c r="HK35" s="0"/>
+      <c r="HL35" s="0"/>
+      <c r="HM35" s="0"/>
+      <c r="HN35" s="0"/>
+      <c r="HO35" s="0"/>
+      <c r="HP35" s="0"/>
+      <c r="HQ35" s="0"/>
+      <c r="HR35" s="0"/>
+      <c r="HS35" s="0"/>
+      <c r="HT35" s="0"/>
+      <c r="HU35" s="0"/>
+      <c r="HV35" s="0"/>
+      <c r="HW35" s="0"/>
+      <c r="HX35" s="0"/>
+      <c r="HY35" s="0"/>
+      <c r="HZ35" s="0"/>
+      <c r="IA35" s="0"/>
+      <c r="IB35" s="0"/>
+      <c r="IC35" s="0"/>
+      <c r="ID35" s="0"/>
+      <c r="IE35" s="0"/>
+      <c r="IF35" s="0"/>
+      <c r="IG35" s="0"/>
+      <c r="IH35" s="0"/>
+      <c r="II35" s="0"/>
+      <c r="IJ35" s="0"/>
+      <c r="IK35" s="0"/>
+      <c r="IL35" s="0"/>
+      <c r="IM35" s="0"/>
+      <c r="IN35" s="0"/>
+      <c r="IO35" s="0"/>
+      <c r="IP35" s="0"/>
+      <c r="IQ35" s="0"/>
+      <c r="IR35" s="0"/>
+      <c r="IS35" s="0"/>
+      <c r="IT35" s="0"/>
+      <c r="IU35" s="0"/>
+      <c r="IV35" s="0"/>
+      <c r="IW35" s="0"/>
+      <c r="IX35" s="0"/>
+      <c r="IY35" s="0"/>
+      <c r="IZ35" s="0"/>
+      <c r="JA35" s="0"/>
+      <c r="JB35" s="0"/>
+      <c r="JC35" s="0"/>
+      <c r="JD35" s="0"/>
+      <c r="JE35" s="0"/>
+      <c r="JF35" s="0"/>
+      <c r="JG35" s="0"/>
+      <c r="JH35" s="0"/>
+      <c r="JI35" s="0"/>
+      <c r="JJ35" s="0"/>
+      <c r="JK35" s="0"/>
+      <c r="JL35" s="0"/>
+      <c r="JM35" s="0"/>
+      <c r="JN35" s="0"/>
+      <c r="JO35" s="0"/>
+      <c r="JP35" s="0"/>
+      <c r="JQ35" s="0"/>
+      <c r="JR35" s="0"/>
+      <c r="JS35" s="0"/>
+      <c r="JT35" s="0"/>
+      <c r="JU35" s="0"/>
+      <c r="JV35" s="0"/>
+      <c r="JW35" s="0"/>
+      <c r="JX35" s="0"/>
+      <c r="JY35" s="0"/>
+      <c r="JZ35" s="0"/>
+      <c r="KA35" s="0"/>
+      <c r="KB35" s="0"/>
+      <c r="KC35" s="0"/>
+      <c r="KD35" s="0"/>
+      <c r="KE35" s="0"/>
+      <c r="KF35" s="0"/>
+      <c r="KG35" s="0"/>
+      <c r="KH35" s="0"/>
+      <c r="KI35" s="0"/>
+      <c r="KJ35" s="0"/>
+      <c r="KK35" s="0"/>
+      <c r="KL35" s="0"/>
+      <c r="KM35" s="0"/>
+      <c r="KN35" s="0"/>
+      <c r="KO35" s="0"/>
+      <c r="KP35" s="0"/>
+      <c r="KQ35" s="0"/>
+      <c r="KR35" s="0"/>
+      <c r="KS35" s="0"/>
+      <c r="KT35" s="0"/>
+      <c r="KU35" s="0"/>
+      <c r="KV35" s="0"/>
+      <c r="KW35" s="0"/>
+      <c r="KX35" s="0"/>
+      <c r="KY35" s="0"/>
+      <c r="KZ35" s="0"/>
+      <c r="LA35" s="0"/>
+      <c r="LB35" s="0"/>
+      <c r="LC35" s="0"/>
+      <c r="LD35" s="0"/>
+      <c r="LE35" s="0"/>
+      <c r="LF35" s="0"/>
+      <c r="LG35" s="0"/>
+      <c r="LH35" s="0"/>
+      <c r="LI35" s="0"/>
+      <c r="LJ35" s="0"/>
+      <c r="LK35" s="0"/>
+      <c r="LL35" s="0"/>
+      <c r="LM35" s="0"/>
+      <c r="LN35" s="0"/>
+      <c r="LO35" s="0"/>
+      <c r="LP35" s="0"/>
+      <c r="LQ35" s="0"/>
+      <c r="LR35" s="0"/>
+      <c r="LS35" s="0"/>
+      <c r="LT35" s="0"/>
+      <c r="LU35" s="0"/>
+      <c r="LV35" s="0"/>
+      <c r="LW35" s="0"/>
+      <c r="LX35" s="0"/>
+      <c r="LY35" s="0"/>
+      <c r="LZ35" s="0"/>
+      <c r="MA35" s="0"/>
+      <c r="MB35" s="0"/>
+      <c r="MC35" s="0"/>
+      <c r="MD35" s="0"/>
+      <c r="ME35" s="0"/>
+      <c r="MF35" s="0"/>
+      <c r="MG35" s="0"/>
+      <c r="MH35" s="0"/>
+      <c r="MI35" s="0"/>
+      <c r="MJ35" s="0"/>
+      <c r="MK35" s="0"/>
+      <c r="ML35" s="0"/>
+      <c r="MM35" s="0"/>
+      <c r="MN35" s="0"/>
+      <c r="MO35" s="0"/>
+      <c r="MP35" s="0"/>
+      <c r="MQ35" s="0"/>
+      <c r="MR35" s="0"/>
+      <c r="MS35" s="0"/>
+      <c r="MT35" s="0"/>
+      <c r="MU35" s="0"/>
+      <c r="MV35" s="0"/>
+      <c r="MW35" s="0"/>
+      <c r="MX35" s="0"/>
+      <c r="MY35" s="0"/>
+      <c r="MZ35" s="0"/>
+      <c r="NA35" s="0"/>
+      <c r="NB35" s="0"/>
+      <c r="NC35" s="0"/>
+      <c r="ND35" s="0"/>
+      <c r="NE35" s="0"/>
+      <c r="NF35" s="0"/>
+      <c r="NG35" s="0"/>
+      <c r="NH35" s="0"/>
+      <c r="NI35" s="0"/>
+      <c r="NJ35" s="0"/>
+      <c r="NK35" s="0"/>
+      <c r="NL35" s="0"/>
+      <c r="NM35" s="0"/>
+      <c r="NN35" s="0"/>
+      <c r="NO35" s="0"/>
+      <c r="NP35" s="0"/>
+      <c r="NQ35" s="0"/>
+      <c r="NR35" s="0"/>
+      <c r="NS35" s="0"/>
+      <c r="NT35" s="0"/>
+      <c r="NU35" s="0"/>
+      <c r="NV35" s="0"/>
+      <c r="NW35" s="0"/>
+      <c r="NX35" s="0"/>
+      <c r="NY35" s="0"/>
+      <c r="NZ35" s="0"/>
+      <c r="OA35" s="0"/>
+      <c r="OB35" s="0"/>
+      <c r="OC35" s="0"/>
+      <c r="OD35" s="0"/>
+      <c r="OE35" s="0"/>
+      <c r="OF35" s="0"/>
+      <c r="OG35" s="0"/>
+      <c r="OH35" s="0"/>
+      <c r="OI35" s="0"/>
+      <c r="OJ35" s="0"/>
+      <c r="OK35" s="0"/>
+      <c r="OL35" s="0"/>
+      <c r="OM35" s="0"/>
+      <c r="ON35" s="0"/>
+      <c r="OO35" s="0"/>
+      <c r="OP35" s="0"/>
+      <c r="OQ35" s="0"/>
+      <c r="OR35" s="0"/>
+      <c r="OS35" s="0"/>
+      <c r="OT35" s="0"/>
+      <c r="OU35" s="0"/>
+      <c r="OV35" s="0"/>
+      <c r="OW35" s="0"/>
+      <c r="OX35" s="0"/>
+      <c r="OY35" s="0"/>
+      <c r="OZ35" s="0"/>
+      <c r="PA35" s="0"/>
+      <c r="PB35" s="0"/>
+      <c r="PC35" s="0"/>
+      <c r="PD35" s="0"/>
+      <c r="PE35" s="0"/>
+      <c r="PF35" s="0"/>
+      <c r="PG35" s="0"/>
+      <c r="PH35" s="0"/>
+      <c r="PI35" s="0"/>
+      <c r="PJ35" s="0"/>
+      <c r="PK35" s="0"/>
+      <c r="PL35" s="0"/>
+      <c r="PM35" s="0"/>
+      <c r="PN35" s="0"/>
+      <c r="PO35" s="0"/>
+      <c r="PP35" s="0"/>
+      <c r="PQ35" s="0"/>
+      <c r="PR35" s="0"/>
+      <c r="PS35" s="0"/>
+      <c r="PT35" s="0"/>
+      <c r="PU35" s="0"/>
+      <c r="PV35" s="0"/>
+      <c r="PW35" s="0"/>
+      <c r="PX35" s="0"/>
+      <c r="PY35" s="0"/>
+      <c r="PZ35" s="0"/>
+      <c r="QA35" s="0"/>
+      <c r="QB35" s="0"/>
+      <c r="QC35" s="0"/>
+      <c r="QD35" s="0"/>
+      <c r="QE35" s="0"/>
+      <c r="QF35" s="0"/>
+      <c r="QG35" s="0"/>
+      <c r="QH35" s="0"/>
+      <c r="QI35" s="0"/>
+      <c r="QJ35" s="0"/>
+      <c r="QK35" s="0"/>
+      <c r="QL35" s="0"/>
+      <c r="QM35" s="0"/>
+      <c r="QN35" s="0"/>
+      <c r="QO35" s="0"/>
+      <c r="QP35" s="0"/>
+      <c r="QQ35" s="0"/>
+      <c r="QR35" s="0"/>
+      <c r="QS35" s="0"/>
+      <c r="QT35" s="0"/>
+      <c r="QU35" s="0"/>
+      <c r="QV35" s="0"/>
+      <c r="QW35" s="0"/>
+      <c r="QX35" s="0"/>
+      <c r="QY35" s="0"/>
+      <c r="QZ35" s="0"/>
+      <c r="RA35" s="0"/>
+      <c r="RB35" s="0"/>
+      <c r="RC35" s="0"/>
+      <c r="RD35" s="0"/>
+      <c r="RE35" s="0"/>
+      <c r="RF35" s="0"/>
+      <c r="RG35" s="0"/>
+      <c r="RH35" s="0"/>
+      <c r="RI35" s="0"/>
+      <c r="RJ35" s="0"/>
+      <c r="RK35" s="0"/>
+      <c r="RL35" s="0"/>
+      <c r="RM35" s="0"/>
+      <c r="RN35" s="0"/>
+      <c r="RO35" s="0"/>
+      <c r="RP35" s="0"/>
+      <c r="RQ35" s="0"/>
+      <c r="RR35" s="0"/>
+      <c r="RS35" s="0"/>
+      <c r="RT35" s="0"/>
+      <c r="RU35" s="0"/>
+      <c r="RV35" s="0"/>
+      <c r="RW35" s="0"/>
+      <c r="RX35" s="0"/>
+      <c r="RY35" s="0"/>
+      <c r="RZ35" s="0"/>
+      <c r="SA35" s="0"/>
+      <c r="SB35" s="0"/>
+      <c r="SC35" s="0"/>
+      <c r="SD35" s="0"/>
+      <c r="SE35" s="0"/>
+      <c r="SF35" s="0"/>
+      <c r="SG35" s="0"/>
+      <c r="SH35" s="0"/>
+      <c r="SI35" s="0"/>
+      <c r="SJ35" s="0"/>
+      <c r="SK35" s="0"/>
+      <c r="SL35" s="0"/>
+      <c r="SM35" s="0"/>
+      <c r="SN35" s="0"/>
+      <c r="SO35" s="0"/>
+      <c r="SP35" s="0"/>
+      <c r="SQ35" s="0"/>
+      <c r="SR35" s="0"/>
+      <c r="SS35" s="0"/>
+      <c r="ST35" s="0"/>
+      <c r="SU35" s="0"/>
+      <c r="SV35" s="0"/>
+      <c r="SW35" s="0"/>
+      <c r="SX35" s="0"/>
+      <c r="SY35" s="0"/>
+      <c r="SZ35" s="0"/>
+      <c r="TA35" s="0"/>
+      <c r="TB35" s="0"/>
+      <c r="TC35" s="0"/>
+      <c r="TD35" s="0"/>
+      <c r="TE35" s="0"/>
+      <c r="TF35" s="0"/>
+      <c r="TG35" s="0"/>
+      <c r="TH35" s="0"/>
+      <c r="TI35" s="0"/>
+      <c r="TJ35" s="0"/>
+      <c r="TK35" s="0"/>
+      <c r="TL35" s="0"/>
+      <c r="TM35" s="0"/>
+      <c r="TN35" s="0"/>
+      <c r="TO35" s="0"/>
+      <c r="TP35" s="0"/>
+      <c r="TQ35" s="0"/>
+      <c r="TR35" s="0"/>
+      <c r="TS35" s="0"/>
+      <c r="TT35" s="0"/>
+      <c r="TU35" s="0"/>
+      <c r="TV35" s="0"/>
+      <c r="TW35" s="0"/>
+      <c r="TX35" s="0"/>
+      <c r="TY35" s="0"/>
+      <c r="TZ35" s="0"/>
+      <c r="UA35" s="0"/>
+      <c r="UB35" s="0"/>
+      <c r="UC35" s="0"/>
+      <c r="UD35" s="0"/>
+      <c r="UE35" s="0"/>
+      <c r="UF35" s="0"/>
+      <c r="UG35" s="0"/>
+      <c r="UH35" s="0"/>
+      <c r="UI35" s="0"/>
+      <c r="UJ35" s="0"/>
+      <c r="UK35" s="0"/>
+      <c r="UL35" s="0"/>
+      <c r="UM35" s="0"/>
+      <c r="UN35" s="0"/>
+      <c r="UO35" s="0"/>
+      <c r="UP35" s="0"/>
+      <c r="UQ35" s="0"/>
+      <c r="UR35" s="0"/>
+      <c r="US35" s="0"/>
+      <c r="UT35" s="0"/>
+      <c r="UU35" s="0"/>
+      <c r="UV35" s="0"/>
+      <c r="UW35" s="0"/>
+      <c r="UX35" s="0"/>
+      <c r="UY35" s="0"/>
+      <c r="UZ35" s="0"/>
+      <c r="VA35" s="0"/>
+      <c r="VB35" s="0"/>
+      <c r="VC35" s="0"/>
+      <c r="VD35" s="0"/>
+      <c r="VE35" s="0"/>
+      <c r="VF35" s="0"/>
+      <c r="VG35" s="0"/>
+      <c r="VH35" s="0"/>
+      <c r="VI35" s="0"/>
+      <c r="VJ35" s="0"/>
+      <c r="VK35" s="0"/>
+      <c r="VL35" s="0"/>
+      <c r="VM35" s="0"/>
+      <c r="VN35" s="0"/>
+      <c r="VO35" s="0"/>
+      <c r="VP35" s="0"/>
+      <c r="VQ35" s="0"/>
+      <c r="VR35" s="0"/>
+      <c r="VS35" s="0"/>
+      <c r="VT35" s="0"/>
+      <c r="VU35" s="0"/>
+      <c r="VV35" s="0"/>
+      <c r="VW35" s="0"/>
+      <c r="VX35" s="0"/>
+      <c r="VY35" s="0"/>
+      <c r="VZ35" s="0"/>
+      <c r="WA35" s="0"/>
+      <c r="WB35" s="0"/>
+      <c r="WC35" s="0"/>
+      <c r="WD35" s="0"/>
+      <c r="WE35" s="0"/>
+      <c r="WF35" s="0"/>
+      <c r="WG35" s="0"/>
+      <c r="WH35" s="0"/>
+      <c r="WI35" s="0"/>
+      <c r="WJ35" s="0"/>
+      <c r="WK35" s="0"/>
+      <c r="WL35" s="0"/>
+      <c r="WM35" s="0"/>
+      <c r="WN35" s="0"/>
+      <c r="WO35" s="0"/>
+      <c r="WP35" s="0"/>
+      <c r="WQ35" s="0"/>
+      <c r="WR35" s="0"/>
+      <c r="WS35" s="0"/>
+      <c r="WT35" s="0"/>
+      <c r="WU35" s="0"/>
+      <c r="WV35" s="0"/>
+      <c r="WW35" s="0"/>
+      <c r="WX35" s="0"/>
+      <c r="WY35" s="0"/>
+      <c r="WZ35" s="0"/>
+      <c r="XA35" s="0"/>
+      <c r="XB35" s="0"/>
+      <c r="XC35" s="0"/>
+      <c r="XD35" s="0"/>
+      <c r="XE35" s="0"/>
+      <c r="XF35" s="0"/>
+      <c r="XG35" s="0"/>
+      <c r="XH35" s="0"/>
+      <c r="XI35" s="0"/>
+      <c r="XJ35" s="0"/>
+      <c r="XK35" s="0"/>
+      <c r="XL35" s="0"/>
+      <c r="XM35" s="0"/>
+      <c r="XN35" s="0"/>
+      <c r="XO35" s="0"/>
+      <c r="XP35" s="0"/>
+      <c r="XQ35" s="0"/>
+      <c r="XR35" s="0"/>
+      <c r="XS35" s="0"/>
+      <c r="XT35" s="0"/>
+      <c r="XU35" s="0"/>
+      <c r="XV35" s="0"/>
+      <c r="XW35" s="0"/>
+      <c r="XX35" s="0"/>
+      <c r="XY35" s="0"/>
+      <c r="XZ35" s="0"/>
+      <c r="YA35" s="0"/>
+      <c r="YB35" s="0"/>
+      <c r="YC35" s="0"/>
+      <c r="YD35" s="0"/>
+      <c r="YE35" s="0"/>
+      <c r="YF35" s="0"/>
+      <c r="YG35" s="0"/>
+      <c r="YH35" s="0"/>
+      <c r="YI35" s="0"/>
+      <c r="YJ35" s="0"/>
+      <c r="YK35" s="0"/>
+      <c r="YL35" s="0"/>
+      <c r="YM35" s="0"/>
+      <c r="YN35" s="0"/>
+      <c r="YO35" s="0"/>
+      <c r="YP35" s="0"/>
+      <c r="YQ35" s="0"/>
+      <c r="YR35" s="0"/>
+      <c r="YS35" s="0"/>
+      <c r="YT35" s="0"/>
+      <c r="YU35" s="0"/>
+      <c r="YV35" s="0"/>
+      <c r="YW35" s="0"/>
+      <c r="YX35" s="0"/>
+      <c r="YY35" s="0"/>
+      <c r="YZ35" s="0"/>
+      <c r="ZA35" s="0"/>
+      <c r="ZB35" s="0"/>
+      <c r="ZC35" s="0"/>
+      <c r="ZD35" s="0"/>
+      <c r="ZE35" s="0"/>
+      <c r="ZF35" s="0"/>
+      <c r="ZG35" s="0"/>
+      <c r="ZH35" s="0"/>
+      <c r="ZI35" s="0"/>
+      <c r="ZJ35" s="0"/>
+      <c r="ZK35" s="0"/>
+      <c r="ZL35" s="0"/>
+      <c r="ZM35" s="0"/>
+      <c r="ZN35" s="0"/>
+      <c r="ZO35" s="0"/>
+      <c r="ZP35" s="0"/>
+      <c r="ZQ35" s="0"/>
+      <c r="ZR35" s="0"/>
+      <c r="ZS35" s="0"/>
+      <c r="ZT35" s="0"/>
+      <c r="ZU35" s="0"/>
+      <c r="ZV35" s="0"/>
+      <c r="ZW35" s="0"/>
+      <c r="ZX35" s="0"/>
+      <c r="ZY35" s="0"/>
+      <c r="ZZ35" s="0"/>
+      <c r="AAA35" s="0"/>
+      <c r="AAB35" s="0"/>
+      <c r="AAC35" s="0"/>
+      <c r="AAD35" s="0"/>
+      <c r="AAE35" s="0"/>
+      <c r="AAF35" s="0"/>
+      <c r="AAG35" s="0"/>
+      <c r="AAH35" s="0"/>
+      <c r="AAI35" s="0"/>
+      <c r="AAJ35" s="0"/>
+      <c r="AAK35" s="0"/>
+      <c r="AAL35" s="0"/>
+      <c r="AAM35" s="0"/>
+      <c r="AAN35" s="0"/>
+      <c r="AAO35" s="0"/>
+      <c r="AAP35" s="0"/>
+      <c r="AAQ35" s="0"/>
+      <c r="AAR35" s="0"/>
+      <c r="AAS35" s="0"/>
+      <c r="AAT35" s="0"/>
+      <c r="AAU35" s="0"/>
+      <c r="AAV35" s="0"/>
+      <c r="AAW35" s="0"/>
+      <c r="AAX35" s="0"/>
+      <c r="AAY35" s="0"/>
+      <c r="AAZ35" s="0"/>
+      <c r="ABA35" s="0"/>
+      <c r="ABB35" s="0"/>
+      <c r="ABC35" s="0"/>
+      <c r="ABD35" s="0"/>
+      <c r="ABE35" s="0"/>
+      <c r="ABF35" s="0"/>
+      <c r="ABG35" s="0"/>
+      <c r="ABH35" s="0"/>
+      <c r="ABI35" s="0"/>
+      <c r="ABJ35" s="0"/>
+      <c r="ABK35" s="0"/>
+      <c r="ABL35" s="0"/>
+      <c r="ABM35" s="0"/>
+      <c r="ABN35" s="0"/>
+      <c r="ABO35" s="0"/>
+      <c r="ABP35" s="0"/>
+      <c r="ABQ35" s="0"/>
+      <c r="ABR35" s="0"/>
+      <c r="ABS35" s="0"/>
+      <c r="ABT35" s="0"/>
+      <c r="ABU35" s="0"/>
+      <c r="ABV35" s="0"/>
+      <c r="ABW35" s="0"/>
+      <c r="ABX35" s="0"/>
+      <c r="ABY35" s="0"/>
+      <c r="ABZ35" s="0"/>
+      <c r="ACA35" s="0"/>
+      <c r="ACB35" s="0"/>
+      <c r="ACC35" s="0"/>
+      <c r="ACD35" s="0"/>
+      <c r="ACE35" s="0"/>
+      <c r="ACF35" s="0"/>
+      <c r="ACG35" s="0"/>
+      <c r="ACH35" s="0"/>
+      <c r="ACI35" s="0"/>
+      <c r="ACJ35" s="0"/>
+      <c r="ACK35" s="0"/>
+      <c r="ACL35" s="0"/>
+      <c r="ACM35" s="0"/>
+      <c r="ACN35" s="0"/>
+      <c r="ACO35" s="0"/>
+      <c r="ACP35" s="0"/>
+      <c r="ACQ35" s="0"/>
+      <c r="ACR35" s="0"/>
+      <c r="ACS35" s="0"/>
+      <c r="ACT35" s="0"/>
+      <c r="ACU35" s="0"/>
+      <c r="ACV35" s="0"/>
+      <c r="ACW35" s="0"/>
+      <c r="ACX35" s="0"/>
+      <c r="ACY35" s="0"/>
+      <c r="ACZ35" s="0"/>
+      <c r="ADA35" s="0"/>
+      <c r="ADB35" s="0"/>
+      <c r="ADC35" s="0"/>
+      <c r="ADD35" s="0"/>
+      <c r="ADE35" s="0"/>
+      <c r="ADF35" s="0"/>
+      <c r="ADG35" s="0"/>
+      <c r="ADH35" s="0"/>
+      <c r="ADI35" s="0"/>
+      <c r="ADJ35" s="0"/>
+      <c r="ADK35" s="0"/>
+      <c r="ADL35" s="0"/>
+      <c r="ADM35" s="0"/>
+      <c r="ADN35" s="0"/>
+      <c r="ADO35" s="0"/>
+      <c r="ADP35" s="0"/>
+      <c r="ADQ35" s="0"/>
+      <c r="ADR35" s="0"/>
+      <c r="ADS35" s="0"/>
+      <c r="ADT35" s="0"/>
+      <c r="ADU35" s="0"/>
+      <c r="ADV35" s="0"/>
+      <c r="ADW35" s="0"/>
+      <c r="ADX35" s="0"/>
+      <c r="ADY35" s="0"/>
+      <c r="ADZ35" s="0"/>
+      <c r="AEA35" s="0"/>
+      <c r="AEB35" s="0"/>
+      <c r="AEC35" s="0"/>
+      <c r="AED35" s="0"/>
+      <c r="AEE35" s="0"/>
+      <c r="AEF35" s="0"/>
+      <c r="AEG35" s="0"/>
+      <c r="AEH35" s="0"/>
+      <c r="AEI35" s="0"/>
+      <c r="AEJ35" s="0"/>
+      <c r="AEK35" s="0"/>
+      <c r="AEL35" s="0"/>
+      <c r="AEM35" s="0"/>
+      <c r="AEN35" s="0"/>
+      <c r="AEO35" s="0"/>
+      <c r="AEP35" s="0"/>
+      <c r="AEQ35" s="0"/>
+      <c r="AER35" s="0"/>
+      <c r="AES35" s="0"/>
+      <c r="AET35" s="0"/>
+      <c r="AEU35" s="0"/>
+      <c r="AEV35" s="0"/>
+      <c r="AEW35" s="0"/>
+      <c r="AEX35" s="0"/>
+      <c r="AEY35" s="0"/>
+      <c r="AEZ35" s="0"/>
+      <c r="AFA35" s="0"/>
+      <c r="AFB35" s="0"/>
+      <c r="AFC35" s="0"/>
+      <c r="AFD35" s="0"/>
+      <c r="AFE35" s="0"/>
+      <c r="AFF35" s="0"/>
+      <c r="AFG35" s="0"/>
+      <c r="AFH35" s="0"/>
+      <c r="AFI35" s="0"/>
+      <c r="AFJ35" s="0"/>
+      <c r="AFK35" s="0"/>
+      <c r="AFL35" s="0"/>
+      <c r="AFM35" s="0"/>
+      <c r="AFN35" s="0"/>
+      <c r="AFO35" s="0"/>
+      <c r="AFP35" s="0"/>
+      <c r="AFQ35" s="0"/>
+      <c r="AFR35" s="0"/>
+      <c r="AFS35" s="0"/>
+      <c r="AFT35" s="0"/>
+      <c r="AFU35" s="0"/>
+      <c r="AFV35" s="0"/>
+      <c r="AFW35" s="0"/>
+      <c r="AFX35" s="0"/>
+      <c r="AFY35" s="0"/>
+      <c r="AFZ35" s="0"/>
+      <c r="AGA35" s="0"/>
+      <c r="AGB35" s="0"/>
+      <c r="AGC35" s="0"/>
+      <c r="AGD35" s="0"/>
+      <c r="AGE35" s="0"/>
+      <c r="AGF35" s="0"/>
+      <c r="AGG35" s="0"/>
+      <c r="AGH35" s="0"/>
+      <c r="AGI35" s="0"/>
+      <c r="AGJ35" s="0"/>
+      <c r="AGK35" s="0"/>
+      <c r="AGL35" s="0"/>
+      <c r="AGM35" s="0"/>
+      <c r="AGN35" s="0"/>
+      <c r="AGO35" s="0"/>
+      <c r="AGP35" s="0"/>
+      <c r="AGQ35" s="0"/>
+      <c r="AGR35" s="0"/>
+      <c r="AGS35" s="0"/>
+      <c r="AGT35" s="0"/>
+      <c r="AGU35" s="0"/>
+      <c r="AGV35" s="0"/>
+      <c r="AGW35" s="0"/>
+      <c r="AGX35" s="0"/>
+      <c r="AGY35" s="0"/>
+      <c r="AGZ35" s="0"/>
+      <c r="AHA35" s="0"/>
+      <c r="AHB35" s="0"/>
+      <c r="AHC35" s="0"/>
+      <c r="AHD35" s="0"/>
+      <c r="AHE35" s="0"/>
+      <c r="AHF35" s="0"/>
+      <c r="AHG35" s="0"/>
+      <c r="AHH35" s="0"/>
+      <c r="AHI35" s="0"/>
+      <c r="AHJ35" s="0"/>
+      <c r="AHK35" s="0"/>
+      <c r="AHL35" s="0"/>
+      <c r="AHM35" s="0"/>
+      <c r="AHN35" s="0"/>
+      <c r="AHO35" s="0"/>
+      <c r="AHP35" s="0"/>
+      <c r="AHQ35" s="0"/>
+      <c r="AHR35" s="0"/>
+      <c r="AHS35" s="0"/>
+      <c r="AHT35" s="0"/>
+      <c r="AHU35" s="0"/>
+      <c r="AHV35" s="0"/>
+      <c r="AHW35" s="0"/>
+      <c r="AHX35" s="0"/>
+      <c r="AHY35" s="0"/>
+      <c r="AHZ35" s="0"/>
+      <c r="AIA35" s="0"/>
+      <c r="AIB35" s="0"/>
+      <c r="AIC35" s="0"/>
+      <c r="AID35" s="0"/>
+      <c r="AIE35" s="0"/>
+      <c r="AIF35" s="0"/>
+      <c r="AIG35" s="0"/>
+      <c r="AIH35" s="0"/>
+      <c r="AII35" s="0"/>
+      <c r="AIJ35" s="0"/>
+      <c r="AIK35" s="0"/>
+      <c r="AIL35" s="0"/>
+      <c r="AIM35" s="0"/>
+      <c r="AIN35" s="0"/>
+      <c r="AIO35" s="0"/>
+      <c r="AIP35" s="0"/>
+      <c r="AIQ35" s="0"/>
+      <c r="AIR35" s="0"/>
+      <c r="AIS35" s="0"/>
+      <c r="AIT35" s="0"/>
+      <c r="AIU35" s="0"/>
+      <c r="AIV35" s="0"/>
+      <c r="AIW35" s="0"/>
+      <c r="AIX35" s="0"/>
+      <c r="AIY35" s="0"/>
+      <c r="AIZ35" s="0"/>
+      <c r="AJA35" s="0"/>
+      <c r="AJB35" s="0"/>
+      <c r="AJC35" s="0"/>
+      <c r="AJD35" s="0"/>
+      <c r="AJE35" s="0"/>
+      <c r="AJF35" s="0"/>
+      <c r="AJG35" s="0"/>
+      <c r="AJH35" s="0"/>
+      <c r="AJI35" s="0"/>
+      <c r="AJJ35" s="0"/>
+      <c r="AJK35" s="0"/>
+      <c r="AJL35" s="0"/>
+      <c r="AJM35" s="0"/>
+      <c r="AJN35" s="0"/>
+      <c r="AJO35" s="0"/>
+      <c r="AJP35" s="0"/>
+      <c r="AJQ35" s="0"/>
+      <c r="AJR35" s="0"/>
+      <c r="AJS35" s="0"/>
+      <c r="AJT35" s="0"/>
+      <c r="AJU35" s="0"/>
+      <c r="AJV35" s="0"/>
+      <c r="AJW35" s="0"/>
+      <c r="AJX35" s="0"/>
+      <c r="AJY35" s="0"/>
+      <c r="AJZ35" s="0"/>
+      <c r="AKA35" s="0"/>
+      <c r="AKB35" s="0"/>
+      <c r="AKC35" s="0"/>
+      <c r="AKD35" s="0"/>
+      <c r="AKE35" s="0"/>
+      <c r="AKF35" s="0"/>
+      <c r="AKG35" s="0"/>
+      <c r="AKH35" s="0"/>
+      <c r="AKI35" s="0"/>
+      <c r="AKJ35" s="0"/>
+      <c r="AKK35" s="0"/>
+      <c r="AKL35" s="0"/>
+      <c r="AKM35" s="0"/>
+      <c r="AKN35" s="0"/>
+      <c r="AKO35" s="0"/>
+      <c r="AKP35" s="0"/>
+      <c r="AKQ35" s="0"/>
+      <c r="AKR35" s="0"/>
+      <c r="AKS35" s="0"/>
+      <c r="AKT35" s="0"/>
+      <c r="AKU35" s="0"/>
+      <c r="AKV35" s="0"/>
+      <c r="AKW35" s="0"/>
+      <c r="AKX35" s="0"/>
+      <c r="AKY35" s="0"/>
+      <c r="AKZ35" s="0"/>
+      <c r="ALA35" s="0"/>
+      <c r="ALB35" s="0"/>
+      <c r="ALC35" s="0"/>
+      <c r="ALD35" s="0"/>
+      <c r="ALE35" s="0"/>
+      <c r="ALF35" s="0"/>
+      <c r="ALG35" s="0"/>
+      <c r="ALH35" s="0"/>
+      <c r="ALI35" s="0"/>
+      <c r="ALJ35" s="0"/>
+      <c r="ALK35" s="0"/>
+      <c r="ALL35" s="0"/>
+      <c r="ALM35" s="0"/>
+      <c r="ALN35" s="0"/>
+      <c r="ALO35" s="0"/>
+      <c r="ALP35" s="0"/>
+      <c r="ALQ35" s="0"/>
+      <c r="ALR35" s="0"/>
+      <c r="ALS35" s="0"/>
+      <c r="ALT35" s="0"/>
+      <c r="ALU35" s="0"/>
+      <c r="ALV35" s="0"/>
+      <c r="ALW35" s="0"/>
+      <c r="ALX35" s="0"/>
+      <c r="ALY35" s="0"/>
+      <c r="ALZ35" s="0"/>
+      <c r="AMA35" s="0"/>
+      <c r="AMB35" s="0"/>
+      <c r="AMC35" s="0"/>
+      <c r="AMD35" s="0"/>
+      <c r="AME35" s="0"/>
+      <c r="AMF35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
+    <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
@@ -30790,57 +36981,57 @@
       <c r="C44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
     </row>
@@ -30860,9 +37051,39 @@
       <c r="C58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -30880,30 +37101,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.88888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3636363636364"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3585858585859"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3535353535354"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3737373737374"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.6717171717172"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.0555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.62121212121212"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0909090909091"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.4191919191919"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9646464646465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5808080808081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3838383838384"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30911,16 +37132,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -30929,49 +37150,49 @@
         <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AMJ1" s="7"/>
     </row>
@@ -30997,7 +37218,7 @@
     </row>
     <row r="3" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -31013,7 +37234,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
@@ -31028,23 +37249,23 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
@@ -31052,19 +37273,21 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="12"/>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
@@ -31073,10 +37296,10 @@
     </row>
     <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
@@ -31084,19 +37307,21 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="12"/>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
@@ -31105,10 +37330,10 @@
     </row>
     <row r="12" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
@@ -31116,19 +37341,21 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="12"/>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="7"/>
@@ -31137,10 +37364,10 @@
     </row>
     <row r="15" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
@@ -31148,19 +37375,21 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="12"/>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
@@ -31169,63 +37398,115 @@
     </row>
     <row r="18" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="7" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="G24" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="7" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>81</v>
+      <c r="G26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>83</v>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3" t="s">
-        <v>84</v>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -31246,18 +37527,18 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5909090909091"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2575757575758"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.2777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5151515151515"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9242424242424"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4747474747475"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31265,10 +37546,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -31279,86 +37560,86 @@
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31369,380 +37650,380 @@
     </row>
     <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31753,170 +38034,170 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -31935,43 +38216,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:101"/>
+  <dimension ref="1:103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.959595959596"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4646464646465"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0252525252525"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7929292929293"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31980,7 +38261,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
@@ -31988,42 +38269,42 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32032,706 +38313,722 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>197</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -32750,57 +39047,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.8434343434343"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6363636363636"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9545454545454"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8939393939394"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="295">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -669,24 +669,6 @@
     <t xml:space="preserve">end if</t>
   </si>
   <si>
-    <t xml:space="preserve">calculates.age_is_birth_year_myanmar()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ageBirthYearMyanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculates.age_is_birth_year_thailand()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ageBirthYearThailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculates.age_is_birth_year_english()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ageBirthYearEnglish</t>
-  </si>
-  <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
@@ -730,15 +712,6 @@
   </si>
   <si>
     <t xml:space="preserve">approximate age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth year myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth year thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth year english</t>
   </si>
   <si>
     <t xml:space="preserve">don't know</t>
@@ -1292,6 +1265,15 @@
     <t xml:space="preserve">migrantId</t>
   </si>
   <si>
+    <t xml:space="preserve">ageBirthYearMyanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageBirthYearThailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageBirthYearEnglish</t>
+  </si>
+  <si>
     <t xml:space="preserve">firstSuggestion</t>
   </si>
   <si>
@@ -1766,11 +1748,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9646464646465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2272727272727"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5656565656566"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2929292929293"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,13 +1809,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5656565656566"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6464646464646"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2474747474747"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1953,17 +1934,17 @@
   </sheetPr>
   <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="32.2020202020202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="49.3080808080808"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="49.7121212121212"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="84.0505050505051"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.67676767676768"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="31.4040404040404"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="48.2373737373737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="48.6414141414141"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="82.1818181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.54545454545455"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37101,30 +37082,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:28"/>
+  <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.62121212121212"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0909090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.4191919191919"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9646464646465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5808080808081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35353535353535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8232323232323"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.4848484848485"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0454545454545"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8484848484848"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37294,219 +37275,117 @@
       <c r="I8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="7" t="s">
+    <row r="9" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="I9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="L10" s="3"/>
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="I11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="E12" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7" t="s">
+    <row r="13" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="I12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="D14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="L13" s="3"/>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="7" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="I14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="E16" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="L15" s="3"/>
+    <row r="17" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="I17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -37525,20 +37404,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9242424242424"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4747474747475"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2575757575758"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6767676767677"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2424242424242"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37546,10 +37425,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -37563,7 +37442,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>35</v>
@@ -37572,18 +37451,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37591,450 +37470,450 @@
         <v>81</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
+      <c r="E7" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="8" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>153</v>
       </c>
+      <c r="D30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>155</v>
+    <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>157</v>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>159</v>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>161</v>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>168</v>
-      </c>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>169</v>
@@ -38048,7 +37927,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>172</v>
@@ -38060,51 +37939,51 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="9" t="s">
+    <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="9" t="s">
+    <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>184</v>
@@ -38118,7 +37997,7 @@
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>187</v>
@@ -38130,74 +38009,32 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="D48" s="9" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -38224,17 +38061,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0252525252525"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7929292929293"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0909090909091"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2626262626263"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -38246,13 +38083,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38288,7 +38125,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38296,7 +38133,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38304,7 +38141,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38316,7 +38153,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38324,15 +38161,15 @@
         <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38340,7 +38177,7 @@
         <v>79</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38348,7 +38185,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38356,7 +38193,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38364,7 +38201,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38372,7 +38209,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38380,7 +38217,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38388,7 +38225,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38396,7 +38233,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38404,7 +38241,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38412,7 +38249,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38420,7 +38257,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38428,7 +38265,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38436,7 +38273,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38444,7 +38281,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38452,7 +38289,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38460,7 +38297,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38468,7 +38305,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38476,7 +38313,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38484,7 +38321,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38492,7 +38329,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38500,7 +38337,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38508,7 +38345,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38516,7 +38353,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38524,7 +38361,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38532,7 +38369,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38540,7 +38377,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38548,7 +38385,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38556,7 +38393,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38564,7 +38401,7 @@
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38572,7 +38409,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38580,7 +38417,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38588,7 +38425,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38596,7 +38433,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38604,7 +38441,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38612,7 +38449,7 @@
         <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38620,7 +38457,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38628,7 +38465,7 @@
         <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38636,7 +38473,7 @@
         <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38644,7 +38481,7 @@
         <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38652,7 +38489,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38660,7 +38497,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38668,7 +38505,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38676,7 +38513,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38684,7 +38521,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38692,7 +38529,7 @@
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38700,7 +38537,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38708,7 +38545,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38716,7 +38553,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38724,7 +38561,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38732,7 +38569,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38740,7 +38577,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38748,7 +38585,7 @@
         <v>80</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38756,7 +38593,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38764,7 +38601,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38772,7 +38609,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38780,7 +38617,7 @@
         <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38788,7 +38625,7 @@
         <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38796,7 +38633,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38804,7 +38641,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38812,7 +38649,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38820,7 +38657,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38828,7 +38665,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38836,7 +38673,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38844,7 +38681,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38852,7 +38689,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38860,7 +38697,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38868,7 +38705,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38876,7 +38713,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38884,7 +38721,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38892,7 +38729,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38900,7 +38737,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38908,7 +38745,7 @@
         <v>80</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38916,7 +38753,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38924,7 +38761,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38932,7 +38769,7 @@
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38940,7 +38777,7 @@
         <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38948,7 +38785,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38956,7 +38793,7 @@
         <v>80</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38964,7 +38801,7 @@
         <v>80</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38972,7 +38809,7 @@
         <v>80</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38980,7 +38817,7 @@
         <v>80</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38988,7 +38825,7 @@
         <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38996,7 +38833,7 @@
         <v>80</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39004,7 +38841,7 @@
         <v>80</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39012,7 +38849,7 @@
         <v>80</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39020,7 +38857,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39028,7 +38865,7 @@
         <v>80</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -39055,14 +38892,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9545454545454"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8939393939394"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1515151515151"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39070,50 +38907,50 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="296">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1526,6 +1526,9 @@
     <t xml:space="preserve">forcedSubstances</t>
   </si>
   <si>
+    <t xml:space="preserve">organization</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
   <si>
@@ -1748,11 +1751,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5656565656566"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2929292929293"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3535353535354"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,12 +1812,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2474747474747"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7626262626263"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.8484848484848"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1940,11 +1943,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="31.4040404040404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="48.2373737373737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="48.6414141414141"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="82.1818181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.54545454545455"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="30.7323232323232"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="47.1717171717172"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="47.4393939393939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="80.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.40909090909091"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37084,28 +37087,28 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35353535353535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8232323232323"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.4848484848485"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0454545454545"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8484848484848"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.08585858585859"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5505050505051"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.510101010101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.530303030303"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3181818181818"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4242424242424"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37412,12 +37415,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2575757575758"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6767676767677"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2424242424242"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.0050505050505"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.1767676767677"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38053,20 +38056,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:103"/>
+  <dimension ref="1:104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0909090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2626262626263"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.2878787878788"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5909090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38866,6 +38869,14 @@
       </c>
       <c r="C103" s="3" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -38892,14 +38903,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1515151515151"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2171717171717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8989898989899"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -38907,50 +38918,50 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -1751,11 +1751,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3535353535354"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7626262626263"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.4191919191919"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,12 +1810,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7626262626263"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3636363636364"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1943,11 +1941,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="30.7323232323232"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="47.1717171717172"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="47.4393939393939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="80.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.40909090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="30.0656565656566"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="46.1010101010101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="46.3686868686869"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="78.7070707070707"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.27777777777778"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37087,28 +37085,28 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5505050505051"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.510101010101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.530303030303"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3181818181818"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4242424242424"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2878787878788"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7474747474747"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.8636363636364"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4040404040404"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37224,7 +37222,9 @@
         <v>24</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37415,12 +37415,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.0050505050505"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.1767676767677"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2020202020202"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.1060606060606"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38058,18 +38058,18 @@
   </sheetPr>
   <dimension ref="1:104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.2878787878788"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3535353535354"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9242424242424"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38903,9 +38903,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2171717171717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8989898989899"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4141414141414"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8282828282828"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="290">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -106,16 +106,13 @@
     <t xml:space="preserve">string_token</t>
   </si>
   <si>
+    <t xml:space="preserve">text.my</t>
+  </si>
+  <si>
     <t xml:space="preserve">text.en</t>
   </si>
   <si>
-    <t xml:space="preserve">text.my</t>
-  </si>
-  <si>
     <t xml:space="preserve">node_attribute_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Name: </t>
   </si>
   <si>
     <r>
@@ -139,19 +136,19 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Short Name: </t>
+  </si>
+  <si>
     <t xml:space="preserve">node_attribute_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
   </si>
   <si>
     <t xml:space="preserve">Approximate Age:</t>
   </si>
   <si>
-    <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
-  </si>
-  <si>
     <t xml:space="preserve">age_approximate_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximate age: Specify*</t>
   </si>
   <si>
     <r>
@@ -194,10 +191,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_myanmar</t>
+    <t xml:space="preserve">Approximate age: Specify*</t>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
+    <t xml:space="preserve">age_birth_year_myanmar</t>
   </si>
   <si>
     <r>
@@ -259,10 +256,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_thailand</t>
+    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Thai BE*</t>
+    <t xml:space="preserve">age_birth_year_thailand</t>
   </si>
   <si>
     <r>
@@ -324,10 +321,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_english</t>
+    <t xml:space="preserve">Year of Birth: Thai BE*</t>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: English Calendar*</t>
+    <t xml:space="preserve">age_birth_year_english</t>
   </si>
   <si>
     <r>
@@ -389,10 +386,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_C</t>
+    <t xml:space="preserve">Year of Birth: English Calendar*</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender:</t>
+    <t xml:space="preserve">node_attribute_C</t>
   </si>
   <si>
     <r>
@@ -444,10 +441,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">other_gender</t>
+    <t xml:space="preserve">Gender:</t>
   </si>
   <si>
-    <t xml:space="preserve">Other: Specify*</t>
+    <t xml:space="preserve">other_gender</t>
   </si>
   <si>
     <r>
@@ -490,10 +487,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_D</t>
+    <t xml:space="preserve">Other: Specify*</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationship to you: (check all that apply)</t>
+    <t xml:space="preserve">node_attribute_D</t>
   </si>
   <si>
     <r>
@@ -536,22 +533,22 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Relationship to you: (check all that apply)</t>
+  </si>
+  <si>
     <t xml:space="preserve">other_relationship</t>
   </si>
   <si>
     <t xml:space="preserve">node_attribute_E</t>
   </si>
   <si>
+    <t xml:space="preserve">ကိုယ်ရေးကိုယ်တာ ကိစ္စတွေ အကြောင်း အကြံဉာဏ်လိုအပ်တဲ့အချိန်မှာ အဲ့ဒီသူဆီကို ဘယ်လောက်တစ်ကြိမ် သွားလေ့ ရှိခဲ့သလဲ။</t>
+  </si>
+  <si>
     <t xml:space="preserve">How frequently do you go to this person when you need advice on personal matters?</t>
   </si>
   <si>
-    <t xml:space="preserve">ကိုယ်ရေးကိုယ်တာ ကိစ္စတွေ အကြောင်း အကြံဉာဏ်လိုအပ်တဲ့အချိန်မှာ အဲ့ဒီသူဆီကို ဘယ်လောက်တစ်ကြိမ် သွားလေ့ ရှိခဲ့သလဲ။</t>
-  </si>
-  <si>
     <t xml:space="preserve">node_attribute_F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wealth compared to you:</t>
   </si>
   <si>
     <r>
@@ -592,6 +589,9 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth compared to you:</t>
   </si>
   <si>
     <t xml:space="preserve">branch_label</t>
@@ -717,37 +717,37 @@
     <t xml:space="preserve">don't know</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t know</t>
+    <t xml:space="preserve">မသိပါ</t>
   </si>
   <si>
-    <t xml:space="preserve">မသိပါ</t>
+    <t xml:space="preserve">Don’t know</t>
   </si>
   <si>
     <t xml:space="preserve">prefer not to say</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefer not to say</t>
+    <t xml:space="preserve">မပြောလိုပါ</t>
   </si>
   <si>
-    <t xml:space="preserve">မပြောလိုပါ</t>
+    <t xml:space="preserve">Prefer not to say</t>
   </si>
   <si>
     <t xml:space="preserve">male</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t xml:space="preserve">မ</t>
   </si>
   <si>
-    <t xml:space="preserve">မ</t>
+    <t xml:space="preserve">Female</t>
   </si>
   <si>
     <t xml:space="preserve">female</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">ကျား</t>
   </si>
   <si>
-    <t xml:space="preserve">ကျား</t>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
@@ -780,10 +780,10 @@
     <t xml:space="preserve">Boyfriend or Girlfriend</t>
   </si>
   <si>
-    <t xml:space="preserve">Boyfriend/Girlfriend</t>
+    <t xml:space="preserve">ချစ်သူ</t>
   </si>
   <si>
-    <t xml:space="preserve">ချစ်သူ</t>
+    <t xml:space="preserve">Boyfriend/Girlfriend</t>
   </si>
   <si>
     <t xml:space="preserve">Parent</t>
@@ -849,10 +849,10 @@
     <t xml:space="preserve">Coworker</t>
   </si>
   <si>
-    <t xml:space="preserve">Co-worker</t>
+    <t xml:space="preserve">မရွေ့ပြောင်းခင်က လုပ်ဖော်ကိုင်ဖက်</t>
   </si>
   <si>
-    <t xml:space="preserve">မရွေ့ပြောင်းခင်က လုပ်ဖော်ကိုင်ဖက်</t>
+    <t xml:space="preserve">Co-worker</t>
   </si>
   <si>
     <t xml:space="preserve">Classmate</t>
@@ -942,9 +942,6 @@
     <t xml:space="preserve">Someone I know through Facebook Line Etc</t>
   </si>
   <si>
-    <t xml:space="preserve">Someone I know through Facebook/Line/Etc.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1013,6 +1010,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Someone I know through Facebook/Line/Etc.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fellow Migrant</t>
   </si>
   <si>
@@ -1028,52 +1028,49 @@
     <t xml:space="preserve">never</t>
   </si>
   <si>
-    <t xml:space="preserve">Never</t>
+    <t xml:space="preserve">ဘယ်တော့မှ</t>
   </si>
   <si>
-    <t xml:space="preserve">ဘယ်တော့မှ</t>
+    <t xml:space="preserve">Never</t>
   </si>
   <si>
     <t xml:space="preserve">rarely</t>
   </si>
   <si>
-    <t xml:space="preserve">Rarely</t>
+    <t xml:space="preserve">ရှားပါးစွာ</t>
   </si>
   <si>
-    <t xml:space="preserve">ရှားပါးစွာ</t>
+    <t xml:space="preserve">Rarely</t>
   </si>
   <si>
     <t xml:space="preserve">sometimes</t>
   </si>
   <si>
-    <t xml:space="preserve">Sometimes</t>
+    <t xml:space="preserve">တစ်ခါတစ်ရံ</t>
   </si>
   <si>
-    <t xml:space="preserve">တစ်ခါတစ်ရံ</t>
+    <t xml:space="preserve">Sometimes</t>
   </si>
   <si>
     <t xml:space="preserve">often</t>
   </si>
   <si>
-    <t xml:space="preserve">Often</t>
+    <t xml:space="preserve">ရံဖန်ရံခါ</t>
   </si>
   <si>
-    <t xml:space="preserve">ရံဖန်ရံခါ</t>
+    <t xml:space="preserve">Often</t>
   </si>
   <si>
     <t xml:space="preserve">always</t>
   </si>
   <si>
+    <t xml:space="preserve">လိုအပ်တဲ့ အချိန်တိုင်း</t>
+  </si>
+  <si>
     <t xml:space="preserve">Always</t>
   </si>
   <si>
-    <t xml:space="preserve">လိုအပ်တဲ့ အချိန်တိုင်း</t>
-  </si>
-  <si>
     <t xml:space="preserve">more_wealthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They are much more wealthy than me</t>
   </si>
   <si>
     <r>
@@ -1106,10 +1103,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">somewhat_more_wealthy</t>
+    <t xml:space="preserve">They are much more wealthy than me</t>
   </si>
   <si>
-    <t xml:space="preserve">They are somewhat more wealthy than me</t>
+    <t xml:space="preserve">somewhat_more_wealthy</t>
   </si>
   <si>
     <r>
@@ -1142,10 +1139,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">same_amount_wealth</t>
+    <t xml:space="preserve">They are somewhat more wealthy than me</t>
   </si>
   <si>
-    <t xml:space="preserve">They are the same amount of wealth as me</t>
+    <t xml:space="preserve">same_amount_wealth</t>
   </si>
   <si>
     <r>
@@ -1178,10 +1175,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">somewhat_less_wealth</t>
+    <t xml:space="preserve">They are the same amount of wealth as me</t>
   </si>
   <si>
-    <t xml:space="preserve">They have somewhat less wealth than me</t>
+    <t xml:space="preserve">somewhat_less_wealth</t>
   </si>
   <si>
     <r>
@@ -1214,10 +1211,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">much_less_wealth</t>
+    <t xml:space="preserve">They have somewhat less wealth than me</t>
   </si>
   <si>
-    <t xml:space="preserve">They are much less wealthier than me</t>
+    <t xml:space="preserve">much_less_wealth</t>
   </si>
   <si>
     <r>
@@ -1248,6 +1245,9 @@
       </rPr>
       <t xml:space="preserve">မ ထက် အတော့်ကို ပိုဆင်းရဲကြတယ်</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">They are much less wealthier than me</t>
   </si>
   <si>
     <t xml:space="preserve">do_not_know</t>
@@ -1538,24 +1538,6 @@
     <t xml:space="preserve">selected(data('age'), 'approximate age')</t>
   </si>
   <si>
-    <t xml:space="preserve">age_is_birth_year_myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('age'), 'birth year myanmar')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_is_birth_year_thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('age'), 'birth year thailand')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_is_birth_year_english</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('age'), 'birth year english')</t>
-  </si>
-  <si>
     <t xml:space="preserve">gender_is_other</t>
   </si>
   <si>
@@ -1751,9 +1733,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7626262626263"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.4191919191919"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5505050505051"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,17 +1789,19 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3636363636364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5858585858586"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6464646464646"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1941,14 +1927,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="30.0656565656566"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="46.1010101010101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="46.3686868686869"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="78.7070707070707"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="4.27777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="28.5959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="44.0959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="66.4141414141414"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="44.3636363636364"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="75.3686868686869"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="4.01010101010101"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1962,6 +1949,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -2989,18 +2977,18 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="0"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -4021,18 +4009,18 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="0"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -5053,18 +5041,18 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -6090,13 +6078,13 @@
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="0"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -7122,13 +7110,13 @@
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="0"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -8154,13 +8142,13 @@
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -9186,13 +9174,13 @@
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="0"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -10213,18 +10201,18 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="0"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
@@ -11250,13 +11238,13 @@
       <c r="B11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="0"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -12282,13 +12270,13 @@
       <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="0"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -13314,13 +13302,13 @@
       <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="0"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -14346,13 +14334,13 @@
       <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="0"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -15377,8 +15365,8 @@
       <c r="A15" s="0"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="0"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -16403,8 +16391,8 @@
       <c r="A16" s="0"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="0"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -17429,8 +17417,8 @@
       <c r="A17" s="0"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="0"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -18455,7 +18443,7 @@
       <c r="A18" s="0"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="0"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -19481,8 +19469,8 @@
       <c r="A19" s="0"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="0"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
@@ -20507,7 +20495,7 @@
       <c r="A20" s="0"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="0"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -21532,8 +21520,8 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -22559,7 +22547,7 @@
       <c r="A22" s="0"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="0"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -23585,7 +23573,7 @@
       <c r="A23" s="0"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="0"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -24611,7 +24599,7 @@
       <c r="A24" s="0"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="0"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -25636,8 +25624,8 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="0"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -26662,8 +26650,8 @@
     <row r="26" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="0"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -27689,7 +27677,7 @@
       <c r="A27" s="0"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="0"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
@@ -28714,7 +28702,7 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="0"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -29740,8 +29728,8 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="0"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
@@ -30766,8 +30754,8 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="0"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -31792,8 +31780,8 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="0"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -32818,8 +32806,8 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="0"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -34870,8 +34858,8 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="0"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -36920,152 +36908,181 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -37085,28 +37102,28 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95454545454546"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2878787878788"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7474747474747"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.8636363636364"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7828282828283"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4040404040404"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1565656565657"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.75252525252525"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3080808080808"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5252525252525"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8484848484848"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62121212121212"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37407,20 +37424,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2020202020202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.1060606060606"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.7323232323232"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.969696969697"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37434,25 +37451,26 @@
         <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
@@ -37461,12 +37479,13 @@
       <c r="C4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
@@ -37475,74 +37494,80 @@
       <c r="C5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="F7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>113</v>
       </c>
+      <c r="F8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="F9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
@@ -37552,11 +37577,12 @@
         <v>115</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
@@ -37565,12 +37591,13 @@
       <c r="C13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
@@ -37579,12 +37606,13 @@
       <c r="C14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
@@ -37593,12 +37621,13 @@
       <c r="C15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
@@ -37607,12 +37636,13 @@
       <c r="C16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
@@ -37621,12 +37651,13 @@
       <c r="C17" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
@@ -37635,12 +37666,13 @@
       <c r="C18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
@@ -37649,12 +37681,13 @@
       <c r="C19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
@@ -37663,12 +37696,13 @@
       <c r="C20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
@@ -37677,12 +37711,13 @@
       <c r="C21" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
@@ -37691,12 +37726,13 @@
       <c r="C22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
@@ -37705,12 +37741,13 @@
       <c r="C23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
@@ -37719,12 +37756,13 @@
       <c r="C24" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
@@ -37733,12 +37771,13 @@
       <c r="C25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
@@ -37747,12 +37786,13 @@
       <c r="C26" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
@@ -37761,12 +37801,13 @@
       <c r="C27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
@@ -37775,12 +37816,13 @@
       <c r="C28" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>150</v>
-      </c>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
@@ -37789,12 +37831,13 @@
       <c r="C29" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
@@ -37803,12 +37846,13 @@
       <c r="C30" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>155</v>
       </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
@@ -37817,12 +37861,13 @@
       <c r="C31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>157</v>
-      </c>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
@@ -37831,12 +37876,13 @@
       <c r="C32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>159</v>
-      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
@@ -37845,12 +37891,13 @@
       <c r="C33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
@@ -37859,88 +37906,95 @@
       <c r="C34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="F36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="F37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>168</v>
       </c>
+      <c r="F38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>171</v>
       </c>
+      <c r="F39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>174</v>
       </c>
+      <c r="F40" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
@@ -37949,12 +38003,13 @@
       <c r="C42" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>177</v>
       </c>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
@@ -37963,12 +38018,13 @@
       <c r="C43" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>180</v>
       </c>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="s">
@@ -37977,12 +38033,13 @@
       <c r="C44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
@@ -37991,12 +38048,13 @@
       <c r="C45" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>186</v>
       </c>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="s">
@@ -38005,12 +38063,13 @@
       <c r="C46" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>189</v>
       </c>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
@@ -38019,12 +38078,13 @@
       <c r="C47" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="s">
@@ -38033,12 +38093,13 @@
       <c r="C48" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="F48" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38064,12 +38125,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3535353535354"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9242424242424"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6161616161616"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38895,17 +38956,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4141414141414"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.8282828282828"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8131313131313"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.959595959596"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38938,30 +38999,6 @@
       </c>
       <c r="B5" s="7" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="291">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1379,6 +1379,9 @@
     <t xml:space="preserve">currentlyInThailand</t>
   </si>
   <si>
+    <t xml:space="preserve">currentlyInMyanmar</t>
+  </si>
+  <si>
     <t xml:space="preserve">remittances</t>
   </si>
   <si>
@@ -1733,11 +1736,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5505050505051"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7474747474747"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,14 +1797,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5858585858586"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6464646464646"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.2424242424242"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2474747474747"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8434343434343"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1927,12 +1930,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="28.5959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="44.0959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="66.4141414141414"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="44.3636363636364"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="75.3686868686869"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="4.01010101010101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.9292929292929"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="43.1616161616162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="64.9444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="43.4292929292929"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="73.7626262626263"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="3.87373737373737"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37108,22 +37111,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.75252525252525"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3080808080808"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5252525252525"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62121212121212"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.48989898989899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9040404040404"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.9949494949495"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35353535353535"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37432,12 +37435,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.7323232323232"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.969696969697"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.0656565656566"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.030303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38117,20 +38120,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:104"/>
+  <dimension ref="1:105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6161616161616"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8131313131313"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1868686868687"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38612,11 +38615,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -38772,11 +38775,11 @@
         <v>261</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>262</v>
       </c>
     </row>
@@ -38933,11 +38936,19 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="3" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -38958,20 +38969,20 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8131313131313"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.959595959596"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.010101010101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0252525252525"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -38979,26 +38990,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="292">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1316,7 +1316,10 @@
     <t xml:space="preserve">arrangedContractAfter</t>
   </si>
   <si>
-    <t xml:space="preserve">arrangedTravelDocumentation</t>
+    <t xml:space="preserve">arrangedTravelDocumentationBefore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrangedTravelDocumentationAfter</t>
   </si>
   <si>
     <t xml:space="preserve">arrangedTransportation</t>
@@ -38120,10 +38123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:105"/>
+  <dimension ref="1:106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -38623,11 +38626,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -38783,11 +38786,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -38944,11 +38947,19 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="3" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -38982,7 +38993,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -38990,26 +39001,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="293">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1323,6 +1323,9 @@
   </si>
   <si>
     <t xml:space="preserve">arrangedTransportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transported</t>
   </si>
   <si>
     <t xml:space="preserve">arrangedAccommodation</t>
@@ -38123,10 +38126,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:106"/>
+  <dimension ref="1:107"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -38634,11 +38637,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -38794,11 +38797,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -38955,11 +38958,19 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="3" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -38993,7 +39004,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39001,26 +39012,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="294">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1538,6 +1538,9 @@
     <t xml:space="preserve">organization</t>
   </si>
   <si>
+    <t xml:space="preserve">previousSmugglerOrTransporter</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
   <si>
@@ -1566,7 +1569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1608,6 +1611,12 @@
       <name val="Myanmar3"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Myanmar3"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1664,7 +1673,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1714,6 +1723,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -38126,10 +38139,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:107"/>
+  <dimension ref="1:109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -38971,6 +38984,14 @@
       </c>
       <c r="C107" s="7" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -39004,7 +39025,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39012,26 +39033,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="295">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1539,6 +1539,9 @@
   </si>
   <si>
     <t xml:space="preserve">previousSmugglerOrTransporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smugglerOrTransporterForMigrant</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -38139,10 +38142,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:109"/>
+  <dimension ref="1:110"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -38992,6 +38995,14 @@
       </c>
       <c r="C109" s="13" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -39025,7 +39036,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39033,26 +39044,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="296">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1413,6 +1413,9 @@
   </si>
   <si>
     <t xml:space="preserve">causedProblems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentionallyCausedProblems</t>
   </si>
   <si>
     <t xml:space="preserve">expectationsDestination</t>
@@ -38142,10 +38145,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:110"/>
+  <dimension ref="1:111"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -38661,11 +38664,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>245</v>
       </c>
     </row>
@@ -38821,11 +38824,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -38982,18 +38985,18 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="7" t="s">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C108" s="7" t="s">
         <v>286</v>
       </c>
     </row>
@@ -39001,8 +39004,16 @@
       <c r="B110" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="13" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -39036,7 +39047,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39044,26 +39055,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="297">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1277,6 +1277,9 @@
     <t xml:space="preserve">firstSuggestion</t>
   </si>
   <si>
+    <t xml:space="preserve">firstTold</t>
+  </si>
+  <si>
     <t xml:space="preserve">neededPermission</t>
   </si>
   <si>
@@ -1575,7 +1578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1617,12 +1620,6 @@
       <name val="Myanmar3"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Myanmar3"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1679,7 +1676,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1732,10 +1729,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1761,11 +1754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7474747474747"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,14 +1815,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2474747474747"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8434343434343"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3838383838384"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8484848484848"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4393939393939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1955,12 +1948,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.9292929292929"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="43.1616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="64.9444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="43.4292929292929"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="73.7626262626263"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="3.87373737373737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.2626262626263"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="42.2272727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="63.6060606060606"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="42.4949494949495"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="72.1616161616162"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="3.74242424242424"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37136,22 +37129,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.48989898989899"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9040404040404"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.9949494949495"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35353535353535"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3737373737374"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3232323232323"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.08585858585859"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37460,12 +37453,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="30.0656565656566"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.030303030303"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.2626262626263"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9646464646465"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38145,20 +38138,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:111"/>
+  <dimension ref="1:112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8131313131313"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1868686868687"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.010101010101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38672,11 +38665,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -38832,11 +38825,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -38993,18 +38986,18 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="7" t="s">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C109" s="7" t="s">
         <v>287</v>
       </c>
     </row>
@@ -39012,8 +39005,16 @@
       <c r="B111" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="3" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -39040,14 +39041,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0252525252525"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2070707070707"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0909090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39055,26 +39056,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -106,13 +106,16 @@
     <t xml:space="preserve">string_token</t>
   </si>
   <si>
+    <t xml:space="preserve">text.en</t>
+  </si>
+  <si>
     <t xml:space="preserve">text.my</t>
   </si>
   <si>
-    <t xml:space="preserve">text.en</t>
+    <t xml:space="preserve">node_attribute_A</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_A</t>
+    <t xml:space="preserve">Short Name: </t>
   </si>
   <si>
     <r>
@@ -136,19 +139,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Short Name: </t>
-  </si>
-  <si>
     <t xml:space="preserve">node_attribute_B</t>
   </si>
   <si>
-    <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
+    <t xml:space="preserve">Approximate Age Currently:</t>
   </si>
   <si>
-    <t xml:space="preserve">Approximate Age:</t>
+    <t xml:space="preserve">ခန့်မှန်းခြေအသက် (ယခု):</t>
   </si>
   <si>
     <t xml:space="preserve">age_approximate_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximate age: Specify*</t>
   </si>
   <si>
     <r>
@@ -191,10 +194,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Approximate age: Specify*</t>
+    <t xml:space="preserve">age_birth_year_myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_myanmar</t>
+    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
   </si>
   <si>
     <r>
@@ -256,10 +259,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
+    <t xml:space="preserve">age_birth_year_thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_thailand</t>
+    <t xml:space="preserve">Year of Birth: Thai BE*</t>
   </si>
   <si>
     <r>
@@ -321,10 +324,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Thai BE*</t>
+    <t xml:space="preserve">age_birth_year_english</t>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_english</t>
+    <t xml:space="preserve">Year of Birth: English Calendar*</t>
   </si>
   <si>
     <r>
@@ -386,10 +389,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: English Calendar*</t>
+    <t xml:space="preserve">node_attribute_C</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_C</t>
+    <t xml:space="preserve">Gender:</t>
   </si>
   <si>
     <r>
@@ -441,10 +444,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gender:</t>
+    <t xml:space="preserve">other_gender</t>
   </si>
   <si>
-    <t xml:space="preserve">other_gender</t>
+    <t xml:space="preserve">Other: Specify*</t>
   </si>
   <si>
     <r>
@@ -487,10 +490,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Other: Specify*</t>
+    <t xml:space="preserve">node_attribute_D</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_D</t>
+    <t xml:space="preserve">Relationship to you: (check all that apply)</t>
   </si>
   <si>
     <r>
@@ -533,22 +536,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Relationship to you: (check all that apply)</t>
-  </si>
-  <si>
     <t xml:space="preserve">other_relationship</t>
   </si>
   <si>
     <t xml:space="preserve">node_attribute_E</t>
   </si>
   <si>
+    <t xml:space="preserve">How frequently do you go to this person when you need advice on personal matters?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ကိုယ်ရေးကိုယ်တာ ကိစ္စတွေ အကြောင်း အကြံဉာဏ်လိုအပ်တဲ့အချိန်မှာ အဲ့ဒီသူဆီကို ဘယ်လောက်တစ်ကြိမ် သွားလေ့ ရှိခဲ့သလဲ။</t>
   </si>
   <si>
-    <t xml:space="preserve">How frequently do you go to this person when you need advice on personal matters?</t>
+    <t xml:space="preserve">node_attribute_F</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_F</t>
+    <t xml:space="preserve">Wealth compared to you before migration:</t>
   </si>
   <si>
     <r>
@@ -558,7 +561,7 @@
         <rFont val="Myanmar3"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ခင်ဗျားကိုယ်ပိုင်ပိုင်ဆိုင်မှုနဲ့ ဆက်စပ်ပြီး အဲ့ဒီလူရဲ့ ပိုင်ဆိုင်မှုကို ဘယ်လို ဖော်ပြနိုင်မလဲ။ </t>
+      <t xml:space="preserve">ခင်ဗျားမရွေ့ပြောင်းမှီအချိန်မှာခင်ဗျားကိုယ်ပိုင်ပိုင်ဆိုင်မှုနဲ့ ဆက်စပ်ပြီး အဲ့ဒီလူရဲ့ ပိုင်ဆိုင်မှုကို ဘယ်လို ဖော်ပြနိုင်မလဲ။ </t>
     </r>
     <r>
       <rPr>
@@ -589,9 +592,6 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Wealth compared to you:</t>
   </si>
   <si>
     <t xml:space="preserve">branch_label</t>
@@ -1754,11 +1754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,14 +1815,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4393939393939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8484848484848"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.040404040404"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1942,18 +1942,18 @@
   </sheetPr>
   <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.2626262626263"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="42.2272727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="63.6060606060606"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="42.4949494949495"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="72.1616161616162"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="3.74242424242424"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="26.5909090909091"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="41.2929292929293"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="62.1363636363636"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="70.5555555555556"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.60606060606061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.60606060606061"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,6 +1971,7 @@
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -2996,17 +2997,16 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="8"/>
@@ -4028,17 +4028,16 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="8"/>
@@ -5060,17 +5059,16 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="8"/>
@@ -6092,17 +6090,16 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="8"/>
@@ -7124,17 +7121,16 @@
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="8"/>
@@ -8156,17 +8152,16 @@
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="8"/>
@@ -9188,17 +9183,16 @@
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="8"/>
@@ -10220,17 +10214,16 @@
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="8"/>
@@ -11252,17 +11245,16 @@
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="8"/>
@@ -12284,17 +12276,16 @@
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8"/>
@@ -13316,17 +13307,16 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="8"/>
@@ -14348,17 +14338,16 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="8"/>
@@ -15380,7 +15369,6 @@
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
@@ -16406,7 +16394,6 @@
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -17432,7 +17419,6 @@
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
@@ -18458,13 +18444,12 @@
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="65.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -19484,7 +19469,6 @@
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
@@ -20510,7 +20494,6 @@
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
-      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
@@ -21536,13 +21519,12 @@
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -22562,7 +22544,6 @@
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
@@ -23588,7 +23569,6 @@
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
@@ -24614,7 +24594,6 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
@@ -25640,13 +25619,12 @@
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
-      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -26666,13 +26644,12 @@
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -27692,7 +27669,6 @@
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
@@ -28718,13 +28694,12 @@
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="0"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -29744,13 +29719,12 @@
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
@@ -30770,13 +30744,12 @@
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -31796,13 +31769,12 @@
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -32822,13 +32794,12 @@
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -33848,7 +33819,6 @@
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
@@ -34874,13 +34844,12 @@
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -35900,7 +35869,6 @@
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
@@ -36926,10 +36894,9 @@
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="8"/>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -37129,22 +37096,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3737373737374"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3232323232323"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.08585858585859"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.969696969697"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6565656565657"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37453,12 +37420,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9646464646465"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.5959595959596"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.030303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37486,10 +37453,10 @@
         <v>101</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -37568,10 +37535,10 @@
         <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -37913,10 +37880,10 @@
         <v>114</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -38140,18 +38107,18 @@
   </sheetPr>
   <dimension ref="1:112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2070707070707"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9848484848485"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39041,9 +39008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4090909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2878787878788"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="298">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -145,7 +145,44 @@
     <t xml:space="preserve">Approximate Age Currently:</t>
   </si>
   <si>
-    <t xml:space="preserve">ခန့်မှန်းခြေအသက် (ယခု):</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ခန့်မှန်းခြေအသက် </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ယခု</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">):</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">age_approximate_age</t>
@@ -1550,6 +1587,9 @@
     <t xml:space="preserve">smugglerOrTransporterForMigrant</t>
   </si>
   <si>
+    <t xml:space="preserve">traffickerForMigrant</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
   <si>
@@ -1754,11 +1794,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1464646464646"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,14 +1853,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8484848484848"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.040404040404"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3181818181818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5050505050505"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1942,18 +1980,18 @@
   </sheetPr>
   <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="26.5909090909091"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="41.2929292929293"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="62.1363636363636"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="70.5555555555556"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.60606060606061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.60606060606061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="25.9242424242424"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="40.3535353535354"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="60.8030303030303"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="69.0858585858586"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.47474747474747"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.47474747474747"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18447,7 +18485,7 @@
     </row>
     <row r="18" customFormat="false" ht="65.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -37096,22 +37134,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.969696969697"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6565656565657"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2424242424242"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.95454545454546"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4242424242424"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0707070707071"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5707070707071"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1212121212121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8434343434343"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68686868686869"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37420,12 +37458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.5959595959596"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.030303030303"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.9292929292929"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.0909090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38105,20 +38143,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:112"/>
+  <dimension ref="1:114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4090909090909"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38982,6 +39020,14 @@
       </c>
       <c r="C112" s="7" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -39008,14 +39054,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4090909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2878787878788"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6060606060606"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3535353535354"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39023,26 +39069,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1588,6 +1588,9 @@
   </si>
   <si>
     <t xml:space="preserve">traffickerForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kozelayForMigrant</t>
   </si>
   <si>
     <t xml:space="preserve">calculation_name</t>
@@ -38143,7 +38146,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:114"/>
+  <dimension ref="1:115"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
@@ -39028,6 +39031,14 @@
       </c>
       <c r="C114" s="7" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -39061,7 +39072,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39069,26 +39080,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -106,13 +106,16 @@
     <t xml:space="preserve">string_token</t>
   </si>
   <si>
+    <t xml:space="preserve">text.en</t>
+  </si>
+  <si>
     <t xml:space="preserve">text.my</t>
   </si>
   <si>
-    <t xml:space="preserve">text.en</t>
+    <t xml:space="preserve">node_attribute_A</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_A</t>
+    <t xml:space="preserve">Short Name: </t>
   </si>
   <si>
     <r>
@@ -136,19 +139,56 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Short Name: </t>
-  </si>
-  <si>
     <t xml:space="preserve">node_attribute_B</t>
   </si>
   <si>
-    <t xml:space="preserve">ခန့်မှန်းခြေအသက်</t>
+    <t xml:space="preserve">Approximate Age Currently</t>
   </si>
   <si>
-    <t xml:space="preserve">Approximate Age:</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ခန့်မှန်းခြေအသက် </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ယခု</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">age_approximate_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximate age: Specify*</t>
   </si>
   <si>
     <r>
@@ -191,10 +231,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Approximate age: Specify*</t>
+    <t xml:space="preserve">age_birth_year_myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_myanmar</t>
+    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
   </si>
   <si>
     <r>
@@ -256,10 +296,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Myanmar BE Calendar*</t>
+    <t xml:space="preserve">age_birth_year_thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_thailand</t>
+    <t xml:space="preserve">Year of Birth: Thai BE*</t>
   </si>
   <si>
     <r>
@@ -321,10 +361,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: Thai BE*</t>
+    <t xml:space="preserve">age_birth_year_english</t>
   </si>
   <si>
-    <t xml:space="preserve">age_birth_year_english</t>
+    <t xml:space="preserve">Year of Birth: English Calendar*</t>
   </si>
   <si>
     <r>
@@ -386,10 +426,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Year of Birth: English Calendar*</t>
+    <t xml:space="preserve">node_attribute_C</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_C</t>
+    <t xml:space="preserve">Gender:</t>
   </si>
   <si>
     <r>
@@ -441,10 +481,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gender:</t>
+    <t xml:space="preserve">other_gender</t>
   </si>
   <si>
-    <t xml:space="preserve">other_gender</t>
+    <t xml:space="preserve">Other: Specify*</t>
   </si>
   <si>
     <r>
@@ -487,10 +527,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Other: Specify*</t>
+    <t xml:space="preserve">node_attribute_D</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_D</t>
+    <t xml:space="preserve">Relationship to you: (check all that apply)</t>
   </si>
   <si>
     <r>
@@ -533,22 +573,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Relationship to you: (check all that apply)</t>
-  </si>
-  <si>
     <t xml:space="preserve">other_relationship</t>
   </si>
   <si>
     <t xml:space="preserve">node_attribute_E</t>
   </si>
   <si>
+    <t xml:space="preserve">How frequently do you go to this person when you need advice on personal matters?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ကိုယ်ရေးကိုယ်တာ ကိစ္စတွေ အကြောင်း အကြံဉာဏ်လိုအပ်တဲ့အချိန်မှာ အဲ့ဒီသူဆီကို ဘယ်လောက်တစ်ကြိမ် သွားလေ့ ရှိခဲ့သလဲ။</t>
   </si>
   <si>
-    <t xml:space="preserve">How frequently do you go to this person when you need advice on personal matters?</t>
+    <t xml:space="preserve">node_attribute_F</t>
   </si>
   <si>
-    <t xml:space="preserve">node_attribute_F</t>
+    <t xml:space="preserve">Wealth compared to you before migration:</t>
   </si>
   <si>
     <r>
@@ -558,7 +598,7 @@
         <rFont val="Myanmar3"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ခင်ဗျားကိုယ်ပိုင်ပိုင်ဆိုင်မှုနဲ့ ဆက်စပ်ပြီး အဲ့ဒီလူရဲ့ ပိုင်ဆိုင်မှုကို ဘယ်လို ဖော်ပြနိုင်မလဲ။ </t>
+      <t xml:space="preserve">ခင်ဗျားမရွေ့ပြောင်းမှီအချိန်မှာခင်ဗျားကိုယ်ပိုင်ပိုင်ဆိုင်မှုနဲ့ ဆက်စပ်ပြီး အဲ့ဒီလူရဲ့ ပိုင်ဆိုင်မှုကို ဘယ်လို ဖော်ပြနိုင်မလဲ။ </t>
     </r>
     <r>
       <rPr>
@@ -589,9 +629,6 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Wealth compared to you:</t>
   </si>
   <si>
     <t xml:space="preserve">branch_label</t>
@@ -1023,6 +1060,12 @@
   </si>
   <si>
     <t xml:space="preserve">ပွဲစား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any type of Agent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရွေ့ပြောင်းမှုတွင်အကျိုးဆောင်သူအားလုံး </t>
   </si>
   <si>
     <t xml:space="preserve">never</t>
@@ -1754,11 +1797,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,14 +1856,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3838383838384"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8484848484848"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9848484848485"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4393939393939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3181818181818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5050505050505"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1943,17 +1984,17 @@
   <dimension ref="1:65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="27.2626262626263"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="42.2272727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="63.6060606060606"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="42.4949494949495"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="72.1616161616162"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="3.74242424242424"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="25.9242424242424"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="40.3535353535354"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="60.8030303030303"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="69.0858585858586"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.47474747474747"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.47474747474747"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,6 +2012,7 @@
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -2996,17 +3038,16 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="8"/>
@@ -4028,17 +4069,16 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="8"/>
@@ -5060,17 +5100,16 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="8"/>
@@ -6092,17 +6131,16 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="8"/>
@@ -7124,17 +7162,16 @@
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="8"/>
@@ -8156,17 +8193,16 @@
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="8"/>
@@ -9188,17 +9224,16 @@
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="8"/>
@@ -10220,17 +10255,16 @@
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="8"/>
@@ -11252,17 +11286,16 @@
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="8"/>
@@ -12284,17 +12317,16 @@
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8"/>
@@ -13316,17 +13348,16 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="8"/>
@@ -14348,17 +14379,16 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="8"/>
@@ -15380,7 +15410,6 @@
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
@@ -16406,7 +16435,6 @@
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -17432,7 +17460,6 @@
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
@@ -18458,7 +18485,6 @@
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
@@ -19484,7 +19510,6 @@
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
@@ -20510,7 +20535,6 @@
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
-      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
@@ -21536,13 +21560,12 @@
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -22562,7 +22585,6 @@
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
@@ -23588,13 +23610,12 @@
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -24614,7 +24635,6 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
@@ -25640,13 +25660,12 @@
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
-      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -26666,13 +26685,12 @@
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -27692,7 +27710,6 @@
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
@@ -28718,13 +28735,12 @@
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="0"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -29744,13 +29760,12 @@
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
@@ -30770,13 +30785,12 @@
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -31796,13 +31810,12 @@
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -32822,13 +32835,12 @@
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -33848,7 +33860,6 @@
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
@@ -34874,13 +34885,12 @@
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -35900,7 +35910,6 @@
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
@@ -36926,10 +36935,9 @@
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="8"/>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -37129,22 +37137,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.22222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3737373737374"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3232323232323"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.08585858585859"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4242424242424"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0707070707071"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5757575757576"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5707070707071"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1212121212121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8434343434343"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68686868686869"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37445,20 +37453,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9646464646465"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.9292929292929"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.0909090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37486,10 +37494,10 @@
         <v>101</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -37568,10 +37576,10 @@
         <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -37910,13 +37918,13 @@
         <v>91</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -37925,50 +37933,50 @@
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="8"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -37977,13 +37985,13 @@
         <v>95</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -37992,13 +38000,13 @@
         <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -38007,43 +38015,43 @@
         <v>95</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="9" t="s">
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="F43" s="8"/>
     </row>
@@ -38052,13 +38060,13 @@
         <v>97</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -38067,13 +38075,13 @@
         <v>97</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -38082,28 +38090,28 @@
         <v>97</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -38112,15 +38120,30 @@
         <v>97</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F49" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38140,23 +38163,23 @@
   </sheetPr>
   <dimension ref="1:112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4090909090909"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -38168,13 +38191,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38210,7 +38233,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38218,7 +38241,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38226,7 +38249,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38286,7 +38309,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38294,7 +38317,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38302,7 +38325,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38310,7 +38333,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38318,7 +38341,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38326,7 +38349,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38334,7 +38357,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38342,7 +38365,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38350,7 +38373,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38358,7 +38381,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38366,7 +38389,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38374,7 +38397,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38382,7 +38405,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38390,7 +38413,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38398,7 +38421,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38406,7 +38429,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38414,7 +38437,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38422,7 +38445,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38430,7 +38453,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38438,7 +38461,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38446,7 +38469,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38454,7 +38477,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38462,7 +38485,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38470,7 +38493,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38478,7 +38501,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38486,7 +38509,7 @@
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38494,7 +38517,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38502,7 +38525,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38510,7 +38533,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38518,7 +38541,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38526,7 +38549,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38534,7 +38557,7 @@
         <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38542,7 +38565,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38550,7 +38573,7 @@
         <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38558,7 +38581,7 @@
         <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38566,7 +38589,7 @@
         <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38574,7 +38597,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38582,7 +38605,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38590,7 +38613,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38598,7 +38621,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38606,7 +38629,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38614,7 +38637,7 @@
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38622,7 +38645,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38630,7 +38653,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38638,7 +38661,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38646,7 +38669,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38654,7 +38677,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38662,7 +38685,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38670,7 +38693,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38678,7 +38701,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38686,7 +38709,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38694,7 +38717,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38702,7 +38725,7 @@
         <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38710,7 +38733,7 @@
         <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38718,7 +38741,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38726,7 +38749,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38734,7 +38757,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38742,7 +38765,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38750,7 +38773,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38758,7 +38781,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38766,7 +38789,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38774,7 +38797,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38782,7 +38805,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38790,7 +38813,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38798,7 +38821,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38806,7 +38829,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38814,7 +38837,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38822,7 +38845,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38830,7 +38853,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38838,7 +38861,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38846,7 +38869,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38854,7 +38877,7 @@
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38862,7 +38885,7 @@
         <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38870,7 +38893,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38878,7 +38901,7 @@
         <v>80</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38886,7 +38909,7 @@
         <v>80</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38894,7 +38917,7 @@
         <v>80</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38902,7 +38925,7 @@
         <v>80</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38910,7 +38933,7 @@
         <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38918,7 +38941,7 @@
         <v>80</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38926,7 +38949,7 @@
         <v>80</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38934,7 +38957,7 @@
         <v>80</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38942,7 +38965,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38950,7 +38973,7 @@
         <v>80</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38958,7 +38981,7 @@
         <v>80</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38966,7 +38989,7 @@
         <v>80</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38974,7 +38997,7 @@
         <v>80</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38982,7 +39005,7 @@
         <v>80</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38990,7 +39013,7 @@
         <v>80</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38998,7 +39021,7 @@
         <v>80</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39006,7 +39029,7 @@
         <v>80</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39014,7 +39037,7 @@
         <v>80</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -39041,14 +39064,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6060606060606"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3535353535354"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39056,26 +39079,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="297">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1056,12 +1056,6 @@
     <t xml:space="preserve">အတူရွေ့ပြောင်းတဲ့ အဖော်</t>
   </si>
   <si>
-    <t xml:space="preserve">Broker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပွဲစား</t>
-  </si>
-  <si>
     <t xml:space="preserve">Any type of Agent </t>
   </si>
   <si>
@@ -1797,9 +1791,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3434343434343"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,14 +1852,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3181818181818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9141414141414"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5050505050505"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7828282828283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1060606060606"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1989,12 +1983,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="25.9242424242424"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="40.3535353535354"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="60.8030303030303"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="69.0858585858586"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.47474747474747"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.47474747474747"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="25.2575757575758"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="39.4191919191919"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="59.5959595959596"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="67.6161616161616"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.33838383838384"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.33838383838384"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37137,22 +37131,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4242424242424"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95454545454546"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0707070707071"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5757575757576"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5707070707071"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1212121212121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8434343434343"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68686868686869"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.1060606060606"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68686868686869"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2676767676768"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1717171717172"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5858585858586"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4393939393939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.7020202020202"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37453,20 +37443,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.9292929292929"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.0909090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5808080808081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.2626262626263"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.1565656565657"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37898,7 +37887,7 @@
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
         <v>91</v>
       </c>
@@ -37918,13 +37907,13 @@
         <v>91</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -37933,50 +37922,48 @@
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="8"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -37985,13 +37972,13 @@
         <v>95</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -38000,13 +37987,13 @@
         <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -38015,43 +38002,43 @@
         <v>95</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="8" t="s">
+    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="E42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F43" s="8"/>
     </row>
@@ -38060,13 +38047,13 @@
         <v>97</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -38075,13 +38062,13 @@
         <v>97</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -38090,28 +38077,28 @@
         <v>97</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -38120,30 +38107,15 @@
         <v>97</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F48" s="8"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38169,17 +38141,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4090909090909"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4494949494949"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6060606060606"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9141414141414"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -38191,13 +38162,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38233,7 +38204,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38241,7 +38212,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38249,7 +38220,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38309,7 +38280,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38317,7 +38288,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38325,7 +38296,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38333,7 +38304,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38341,7 +38312,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38349,7 +38320,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38357,7 +38328,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38365,7 +38336,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38373,7 +38344,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38381,7 +38352,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38389,7 +38360,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38397,7 +38368,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38405,7 +38376,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38413,7 +38384,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38421,7 +38392,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38429,7 +38400,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38437,7 +38408,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38445,7 +38416,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38453,7 +38424,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38461,7 +38432,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38469,7 +38440,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38477,7 +38448,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38485,7 +38456,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38493,7 +38464,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38501,7 +38472,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38509,7 +38480,7 @@
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38517,7 +38488,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38525,7 +38496,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38533,7 +38504,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38541,7 +38512,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38549,7 +38520,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38557,7 +38528,7 @@
         <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38565,7 +38536,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38573,7 +38544,7 @@
         <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38581,7 +38552,7 @@
         <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38589,7 +38560,7 @@
         <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38597,7 +38568,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38605,7 +38576,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38613,7 +38584,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38621,7 +38592,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38629,7 +38600,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38637,7 +38608,7 @@
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38645,7 +38616,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38653,7 +38624,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38661,7 +38632,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38669,7 +38640,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38677,7 +38648,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38685,7 +38656,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38693,7 +38664,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38701,7 +38672,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38709,7 +38680,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38717,7 +38688,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38725,7 +38696,7 @@
         <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38733,7 +38704,7 @@
         <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38741,7 +38712,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38749,7 +38720,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38757,7 +38728,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38765,7 +38736,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38773,7 +38744,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38781,7 +38752,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38789,7 +38760,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38797,7 +38768,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38805,7 +38776,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38813,7 +38784,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38821,7 +38792,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38829,7 +38800,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38837,7 +38808,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38845,7 +38816,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38853,7 +38824,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38861,7 +38832,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38869,7 +38840,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38877,7 +38848,7 @@
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38885,7 +38856,7 @@
         <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38893,7 +38864,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38901,7 +38872,7 @@
         <v>80</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38909,7 +38880,7 @@
         <v>80</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38917,7 +38888,7 @@
         <v>80</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38925,7 +38896,7 @@
         <v>80</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38933,7 +38904,7 @@
         <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38941,7 +38912,7 @@
         <v>80</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38949,7 +38920,7 @@
         <v>80</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38957,7 +38928,7 @@
         <v>80</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38965,7 +38936,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38973,7 +38944,7 @@
         <v>80</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38981,7 +38952,7 @@
         <v>80</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38989,7 +38960,7 @@
         <v>80</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38997,7 +38968,7 @@
         <v>80</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39005,7 +38976,7 @@
         <v>80</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39013,7 +38984,7 @@
         <v>80</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39021,7 +38992,7 @@
         <v>80</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39029,7 +39000,7 @@
         <v>80</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39037,7 +39008,7 @@
         <v>80</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -39064,14 +39035,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6060606060606"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3535353535354"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8030303030303"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4141414141414"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39079,26 +39049,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1587,6 +1587,12 @@
     <t xml:space="preserve">smugglerOrTransporterForMigrant</t>
   </si>
   <si>
+    <t xml:space="preserve">traffickerForMigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kwoswungForMigrant</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
   <si>
@@ -1791,11 +1797,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.540404040404"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2979797979798"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,12 +1858,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7828282828283"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2424242424242"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4242424242424"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2474747474747"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8434343434343"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.979797979798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1983,12 +1991,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="25.2575757575758"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="39.4191919191919"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="59.5959595959596"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="67.6161616161616"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.33838383838384"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.33838383838384"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="24.7222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.4848484848485"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="58.2626262626263"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="66.1464646464647"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.20707070707071"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.20707070707071"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37131,18 +37139,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1565656565657"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68686868686869"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2676767676768"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1717171717172"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5858585858586"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4393939393939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1010101010101"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.7020202020202"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.88888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6010101010101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6414141414141"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7676767676768"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.0555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.040404040404"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5606060606061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3030303030303"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37445,17 +37457,18 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5808080808081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3737373737374"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.2626262626263"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.1565656565657"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8131313131313"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.5909090909091"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.2222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38133,19 +38146,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:112"/>
+  <dimension ref="1:114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6060606060606"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9141414141414"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8030303030303"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3787878787879"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39009,6 +39023,22 @@
       </c>
       <c r="C112" s="7" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -39035,13 +39065,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8030303030303"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4141414141414"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1363636363636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6161616161616"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39049,26 +39080,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="964" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="306">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -793,25 +793,7 @@
     <t xml:space="preserve">Spouse</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အိမ်ထောင်ဖက်</t>
-    </r>
+    <t xml:space="preserve">အိမ်ထောင်ဖက်</t>
   </si>
   <si>
     <t xml:space="preserve">Boyfriend or Girlfriend</t>
@@ -835,10 +817,76 @@
     <t xml:space="preserve">မောင်နှမအရင်း</t>
   </si>
   <si>
+    <t xml:space="preserve">Aunt/Uncle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အဒေါ်</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဦးလေး</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Grandparent</t>
   </si>
   <si>
     <t xml:space="preserve">အဖိုးအဖွား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent-in-law</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ယောက်ကထီး</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ယောက်ခမ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Extended Family</t>
@@ -1060,6 +1108,39 @@
   </si>
   <si>
     <t xml:space="preserve">ရွေ့ပြောင်းမှုတွင်အကျိုးဆောင်သူအားလုံး </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">အခြား</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Myanmar3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ဖော်ပြရန်</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: Specify</t>
   </si>
   <si>
     <t xml:space="preserve">never</t>
@@ -1593,6 +1674,9 @@
     <t xml:space="preserve">kwoswungForMigrant</t>
   </si>
   <si>
+    <t xml:space="preserve">paidLikeYou</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation_name</t>
   </si>
   <si>
@@ -1797,11 +1881,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2979797979798"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8737373737374"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.15151515151515"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4949494949495"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2676767676768"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,14 +1942,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.959595959596"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4242424242424"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2474747474747"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8434343434343"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.979797979798"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7020202020202"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4242424242424"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.88888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3131313131313"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.040404040404"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9090909090909"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9040404040404"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1986,17 +2070,17 @@
   <dimension ref="1:65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="24.7222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.4848484848485"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="58.2626262626263"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="66.1464646464647"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.20707070707071"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3.20707070707071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="23.520202020202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="36.7474747474747"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="55.7222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="63.3383838383838"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.07575757575758"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.41919191919192"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37133,28 +37217,27 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.88888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6010101010101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6414141414141"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7676767676768"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.0555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.040404040404"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5606060606061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.15151515151515"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6969696969697"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="8.41919191919192"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3030303030303"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.35353535353535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.2626262626263"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9191919191919"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8232323232323"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="33.8333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.0252525252525"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8989898989899"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37289,7 +37372,9 @@
       <c r="H5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37339,6 +37424,9 @@
       <c r="H9" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="7" t="s">
@@ -37379,6 +37467,9 @@
       <c r="H13" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
@@ -37419,6 +37510,9 @@
       <c r="H17" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="9" t="s">
@@ -37432,6 +37526,9 @@
       </c>
       <c r="H18" s="7" t="s">
         <v>97</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37455,20 +37552,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8131313131313"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9747474747475"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.5909090909091"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.2222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2070707070707"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5656565656566"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.0151515151515"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.7777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.4848484848485"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37600,14 +37698,14 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -37630,7 +37728,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
         <v>91</v>
       </c>
@@ -37645,7 +37743,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
         <v>91</v>
       </c>
@@ -37660,7 +37758,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
         <v>91</v>
       </c>
@@ -37675,7 +37773,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
         <v>91</v>
       </c>
@@ -37690,7 +37788,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
         <v>91</v>
       </c>
@@ -37705,7 +37803,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
         <v>91</v>
       </c>
@@ -37720,7 +37818,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
         <v>91</v>
       </c>
@@ -37735,7 +37833,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
         <v>91</v>
       </c>
@@ -37765,7 +37863,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
         <v>91</v>
       </c>
@@ -37780,7 +37878,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
         <v>91</v>
       </c>
@@ -37791,41 +37889,41 @@
         <v>141</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>91</v>
       </c>
@@ -37840,7 +37938,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
         <v>91</v>
       </c>
@@ -37881,7 +37979,7 @@
         <v>154</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -37890,245 +37988,303 @@
         <v>91</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="F35" s="7"/>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>165</v>
-      </c>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>168</v>
-      </c>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>171</v>
-      </c>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>174</v>
-      </c>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E51" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F54" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38146,25 +38302,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:114"/>
+  <dimension ref="1:116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8030303030303"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3787878787879"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.469696969697"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -38176,13 +38332,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38218,7 +38374,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38226,7 +38382,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38234,7 +38390,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38294,7 +38450,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38302,7 +38458,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38310,7 +38466,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38318,7 +38474,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38326,7 +38482,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38334,7 +38490,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38342,7 +38498,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38350,7 +38506,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38358,7 +38514,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38366,7 +38522,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38374,7 +38530,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38382,7 +38538,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38390,7 +38546,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38398,7 +38554,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38406,7 +38562,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38414,7 +38570,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38422,7 +38578,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38430,7 +38586,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38438,7 +38594,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38446,7 +38602,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38454,7 +38610,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38462,7 +38618,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38470,7 +38626,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38478,7 +38634,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38486,7 +38642,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38494,7 +38650,7 @@
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38502,7 +38658,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38510,7 +38666,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38518,7 +38674,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38526,7 +38682,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38534,7 +38690,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38542,7 +38698,7 @@
         <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38550,7 +38706,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38558,7 +38714,7 @@
         <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38566,7 +38722,7 @@
         <v>80</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38574,7 +38730,7 @@
         <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38582,7 +38738,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38590,7 +38746,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38598,7 +38754,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38606,7 +38762,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38614,7 +38770,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38622,7 +38778,7 @@
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38630,7 +38786,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38638,7 +38794,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38646,7 +38802,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38654,7 +38810,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38662,7 +38818,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38670,7 +38826,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38678,7 +38834,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38686,7 +38842,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38694,7 +38850,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38702,7 +38858,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38710,7 +38866,7 @@
         <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38718,7 +38874,7 @@
         <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38726,7 +38882,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38734,7 +38890,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38742,7 +38898,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38750,7 +38906,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38758,7 +38914,7 @@
         <v>80</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38766,7 +38922,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38774,7 +38930,7 @@
         <v>80</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38782,7 +38938,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38790,7 +38946,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38798,7 +38954,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38806,7 +38962,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38814,7 +38970,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38822,7 +38978,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38830,7 +38986,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38838,7 +38994,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38846,7 +39002,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38854,7 +39010,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38862,7 +39018,7 @@
         <v>80</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38870,7 +39026,7 @@
         <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38878,7 +39034,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38886,7 +39042,7 @@
         <v>80</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38894,7 +39050,7 @@
         <v>80</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38902,7 +39058,7 @@
         <v>80</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38910,7 +39066,7 @@
         <v>80</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38918,7 +39074,7 @@
         <v>80</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38926,7 +39082,7 @@
         <v>80</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38934,7 +39090,7 @@
         <v>80</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38942,7 +39098,7 @@
         <v>80</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38950,7 +39106,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38958,7 +39114,7 @@
         <v>80</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38966,7 +39122,7 @@
         <v>80</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38974,7 +39130,7 @@
         <v>80</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38982,7 +39138,7 @@
         <v>80</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38990,7 +39146,7 @@
         <v>80</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38998,7 +39154,7 @@
         <v>80</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39006,7 +39162,7 @@
         <v>80</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39014,7 +39170,7 @@
         <v>80</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39022,7 +39178,7 @@
         <v>80</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39030,7 +39186,7 @@
         <v>80</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39038,7 +39194,15 @@
         <v>80</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -39065,14 +39229,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1363636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6161616161616"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7979797979798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.010101010101"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -39080,26 +39244,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/tables/actor/forms/actor/actor.xlsx
+++ b/tables/actor/forms/actor/actor.xlsx
@@ -533,44 +533,7 @@
     <t xml:space="preserve">Relationship to you: (check all that apply)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">အဲ့ဒီသူနဲ့ ခင်ဗျား ဘယ်လို တော်စပ်သလဲ။ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">သက်ဆိုင်တာ အားလုံးကို ရွေးပါ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Myanmar3"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
+    <t xml:space="preserve">အဲ့ဒီသူနဲ့ ခင်ဗျား ဘယ်လို တော်စပ်သလဲ။</t>
   </si>
   <si>
     <t xml:space="preserve">other_relationship</t>
@@ -1881,11 +1844,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6919191919192"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4949494949495"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2676767676768"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.61616161616162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1565656565657"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8282828282828"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9343434343434"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,14 +1903,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4242424242424"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.88888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3131313131313"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.040404040404"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9090909090909"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9040404040404"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.88888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.35353535353535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2424242424242"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1060606060606"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9747474747475"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1010101010101"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2070,17 +2031,17 @@
   <dimension ref="1:65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="23.520202020202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="36.7474747474747"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="55.7222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="63.3383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="22.4494949494949"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="35.1464646464646"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="53.3181818181818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="60.5353535353535"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="3" width="3.07575757575758"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.41919191919192"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.88383838383838"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37217,27 +37178,26 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.35353535353535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.2626262626263"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9191919191919"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8232323232323"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="33.8333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.0252525252525"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.61616161616162"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.1565656565657"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8989898989899"/>
-    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.88383838383838"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.95454545454546"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9292929292929"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5909090909091"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7828282828283"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="32.3383838383838"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2272727272727"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.62121212121212"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0959595959596"/>
+    <col collapsed="false" hidden="false" max="19" min="14" style="0" width="7.34848484848485"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.6969696969697"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37372,9 +37332,7 @@
       <c r="H5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37424,9 +37382,6 @@
       <c r="H9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="7" t="s">
@@ -37467,9 +37422,6 @@
       <c r="H13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
@@ -37510,9 +37462,6 @@
       <c r="H17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="9" t="s">
@@ -37526,9 +37475,6 @@
       </c>
       <c r="H18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37560,13 +37506,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2929292929293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2070707070707"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5656565656566"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.0151515151515"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.7777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.4848484848485"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6262626262626"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6060606060606"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1969696969697"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2171717171717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0151515151515"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.7474747474747"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38310,12 +38256,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2272727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8282828282828"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.469696969697"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6262626262626"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6919191919192"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2929292929293"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1313131313131"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.959595959596"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3737373737374"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39229,9 +39175,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7979797979798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.010101010101"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.88383838383838"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4646464646465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4090909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.34848484848485"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
